--- a/data/ResponsablesPorProyecto.xlsx
+++ b/data/ResponsablesPorProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta Stre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649CB8E6-9510-4F59-9557-F5469464BFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8852E9-8DA0-498F-A487-66DD2E59C91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="3180" windowWidth="20730" windowHeight="11040" xr2:uid="{604496A0-D183-4F1C-9231-CF0B6CEC983F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="143">
   <si>
     <t>Sucursal</t>
   </si>
@@ -80,44 +80,398 @@
     <t>Director de obra</t>
   </si>
   <si>
-    <t xml:space="preserve">fabian enrique gutierrez tole	</t>
-  </si>
-  <si>
     <t>Activo</t>
   </si>
   <si>
-    <t>fgutierrez@marval.com.co</t>
-  </si>
-  <si>
     <t>Arquitecto</t>
   </si>
   <si>
-    <t xml:space="preserve">camilo andres mendez polania	</t>
-  </si>
-  <si>
-    <t>CMENDEZP@marval.com.co</t>
-  </si>
-  <si>
     <t>Tres Quebradas</t>
   </si>
   <si>
-    <t>La Peña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Director de obra	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">josé alejandro barcenas moreno	</t>
-  </si>
-  <si>
-    <t>jbarcenas@marval.com.co</t>
+    <t>fabian enrique gutierrez tole</t>
+  </si>
+  <si>
+    <t>Residente</t>
+  </si>
+  <si>
+    <t>eulises jose silva sarmiento</t>
+  </si>
+  <si>
+    <t>Residente auxiliar</t>
+  </si>
+  <si>
+    <t>maria paula sanchez marin</t>
+  </si>
+  <si>
+    <t>Residente #2</t>
+  </si>
+  <si>
+    <t>carlos alberto rodriguez bojaca</t>
+  </si>
+  <si>
+    <t>Residente logístico</t>
+  </si>
+  <si>
+    <t>victor alfonso gomez gomez</t>
+  </si>
+  <si>
+    <t>Gerente de proyectos</t>
+  </si>
+  <si>
+    <t>roberto ricardo rozo cifuentes</t>
+  </si>
+  <si>
+    <t>Ingeniero Lean 3</t>
+  </si>
+  <si>
+    <t>camilo andres pulgarin bautista</t>
+  </si>
+  <si>
+    <t>Ingeniero FCA</t>
+  </si>
+  <si>
+    <t>silvio andres velandia</t>
+  </si>
+  <si>
+    <t>Profesional SYST</t>
+  </si>
+  <si>
+    <t>maria paula ulloa rodriguez</t>
+  </si>
+  <si>
+    <t>camilo andres mendez polania</t>
+  </si>
+  <si>
+    <t>Coordinador Eléctrico</t>
+  </si>
+  <si>
+    <t>genny noguera nuñez</t>
+  </si>
+  <si>
+    <t>Analista de compras</t>
+  </si>
+  <si>
+    <t>catalina carvajal rubiano</t>
+  </si>
+  <si>
+    <t>Coordinadora de pilotaje</t>
+  </si>
+  <si>
+    <t>sorani martinez barreto</t>
+  </si>
+  <si>
+    <t>Analista de Programación</t>
+  </si>
+  <si>
+    <t>jhon edinsson maldonado suarez</t>
+  </si>
+  <si>
+    <t>Director Nacional Lean y Bim</t>
+  </si>
+  <si>
+    <t>juan pablo romero cortes</t>
+  </si>
+  <si>
+    <t>Chamonix Ciudad La Salle</t>
+  </si>
+  <si>
+    <t>2848451000</t>
+  </si>
+  <si>
+    <t>david ricardo tarquino hortua</t>
+  </si>
+  <si>
+    <t>maria camila ochoa cardoso</t>
+  </si>
+  <si>
+    <t>eder leonardo avila ruiz</t>
+  </si>
+  <si>
+    <t>Coordinador BIM</t>
+  </si>
+  <si>
+    <t>heiler alejandro portela gomez</t>
+  </si>
+  <si>
+    <t>sebastian rodriguez traslaviña</t>
+  </si>
+  <si>
+    <t>Ingeniero Ambiental</t>
+  </si>
+  <si>
+    <t>lucy skint bueno</t>
+  </si>
+  <si>
+    <t>camilo enrique cardenas robledo</t>
+  </si>
+  <si>
+    <t>jhoan nicolas archila patarroyo</t>
+  </si>
+  <si>
+    <t>karoll dayana estapa bonilla</t>
+  </si>
+  <si>
+    <t>Residente Auxiliar #2</t>
+  </si>
+  <si>
+    <t>karen tatiana piedra cortes</t>
+  </si>
+  <si>
+    <t>2848451001</t>
+  </si>
+  <si>
+    <t>2848451002</t>
+  </si>
+  <si>
+    <t>2848451003</t>
+  </si>
+  <si>
+    <t>2848451004</t>
+  </si>
+  <si>
+    <t>2848451005</t>
+  </si>
+  <si>
+    <t>2848451006</t>
+  </si>
+  <si>
+    <t>2848451007</t>
+  </si>
+  <si>
+    <t>2848451008</t>
+  </si>
+  <si>
+    <t>2848451009</t>
+  </si>
+  <si>
+    <t>2848451010</t>
+  </si>
+  <si>
+    <t>2848451011</t>
+  </si>
+  <si>
+    <t>2848451012</t>
+  </si>
+  <si>
+    <t>2848451013</t>
+  </si>
+  <si>
+    <t>2848451014</t>
+  </si>
+  <si>
+    <t>El Campo</t>
+  </si>
+  <si>
+    <t>2080901000</t>
+  </si>
+  <si>
+    <t>edgar fernando rojas novoa</t>
+  </si>
+  <si>
+    <t>diana catalina valencia lópez</t>
+  </si>
+  <si>
+    <t>gustavo adolfo barbosa alfonso</t>
+  </si>
+  <si>
+    <t>john alberto gonzalez rincon</t>
+  </si>
+  <si>
+    <t>ronald ferney forero amaya</t>
+  </si>
+  <si>
+    <t>Director Técnico</t>
+  </si>
+  <si>
+    <t>henry guarin carvajal</t>
+  </si>
+  <si>
+    <t>jeisson hernan lesmes mendoza</t>
+  </si>
+  <si>
+    <t>diego alexander rincon sanchez</t>
+  </si>
+  <si>
+    <t>Coordinador Administrativo de Proyectos</t>
+  </si>
+  <si>
+    <t>mauricio cervantes hurtado</t>
+  </si>
+  <si>
+    <t>Residente de Equipos</t>
+  </si>
+  <si>
+    <t>jhon benavides medina</t>
+  </si>
+  <si>
+    <t>Ingeniero FCA #2</t>
+  </si>
+  <si>
+    <t>Residente Administrativo de Equipos</t>
+  </si>
+  <si>
+    <t>luz angela martinez mondragon</t>
+  </si>
+  <si>
+    <t>lesly milena garcia bello</t>
+  </si>
+  <si>
+    <t>carlos arvey diaz santiago</t>
+  </si>
+  <si>
+    <t>nadya yiri riveros torres</t>
+  </si>
+  <si>
+    <t>juan manuel aguirre prieto</t>
+  </si>
+  <si>
+    <t>Residente Auxiliar #3</t>
+  </si>
+  <si>
+    <t>anderson rafael gonzalez navarro</t>
+  </si>
+  <si>
+    <t>jessenia montoya campo</t>
+  </si>
+  <si>
+    <t>Ingeniera Eléctrica</t>
+  </si>
+  <si>
+    <t>Ingeniero de Contratación</t>
+  </si>
+  <si>
+    <t>ximena orduz gaona</t>
+  </si>
+  <si>
+    <t>Residente #3</t>
+  </si>
+  <si>
+    <t>jhon jairo balaguera cely</t>
+  </si>
+  <si>
+    <t>Ingeniero Lean</t>
+  </si>
+  <si>
+    <t>paola andrea ramirez jimenez</t>
+  </si>
+  <si>
+    <t>El Castell Iberia Reservado</t>
+  </si>
+  <si>
+    <t>Iberia Reservado</t>
+  </si>
+  <si>
+    <t>2508501000</t>
+  </si>
+  <si>
+    <t>angie constanza sierra</t>
+  </si>
+  <si>
+    <t>doriam mayreth sanchez</t>
+  </si>
+  <si>
+    <t>edison fernando velasco diaz</t>
+  </si>
+  <si>
+    <t>jaiber leonardo cano artunduaga</t>
+  </si>
+  <si>
+    <t>miguel felipe alarcon medina</t>
+  </si>
+  <si>
+    <t>nicolas sierra perdomo</t>
+  </si>
+  <si>
+    <t>diana paola ruiz bernal</t>
+  </si>
+  <si>
+    <t>edna carolina d achardy morales</t>
+  </si>
+  <si>
+    <t>richard mauricio ramirez martin</t>
+  </si>
+  <si>
+    <t>Contralor de proyectos</t>
+  </si>
+  <si>
+    <t>juliana cruz alvarez</t>
+  </si>
+  <si>
+    <t>Gallet Ciudad La Salle</t>
+  </si>
+  <si>
+    <t>2848351000</t>
+  </si>
+  <si>
+    <t>Practicante Lean</t>
+  </si>
+  <si>
+    <t>andres felipe arenas suarez</t>
+  </si>
+  <si>
+    <t>ana milena gallo sanabria</t>
+  </si>
+  <si>
+    <t>edith tatiana prieto cuevas</t>
+  </si>
+  <si>
+    <t>german alejandro suarez</t>
+  </si>
+  <si>
+    <t>camila pedraza aldana</t>
+  </si>
+  <si>
+    <t>yenny paola munevar peña</t>
+  </si>
+  <si>
+    <t>jorge andres gutierrez puentes</t>
+  </si>
+  <si>
+    <t>Analista de Compras y Suministros</t>
+  </si>
+  <si>
+    <t>elizabeth florez diaz</t>
+  </si>
+  <si>
+    <t>german andres triana pinto</t>
+  </si>
+  <si>
+    <t>david esteban yate bastidas</t>
+  </si>
+  <si>
+    <t>oscar javier serrano raba</t>
+  </si>
+  <si>
+    <t>juan pablo charry lopez</t>
+  </si>
+  <si>
+    <t>Programador de obra #2</t>
+  </si>
+  <si>
+    <t>pedro jose vecino martinez</t>
+  </si>
+  <si>
+    <t>angie tatiana rodriguez trujillo</t>
+  </si>
+  <si>
+    <t>Técnico de almacén</t>
+  </si>
+  <si>
+    <t>jefferson steven rodriguez gonzalez</t>
+  </si>
+  <si>
+    <t>Residente Auxiliar #4</t>
+  </si>
+  <si>
+    <t>liliana alejandra vargas coy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,6 +483,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -155,11 +515,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -497,20 +860,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6159B3B9-18EB-4717-835D-3E6B72934C17}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.109375" bestFit="1" customWidth="1"/>
@@ -559,27 +922,22 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>2848401000</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1">
         <v>45926</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3234582148</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -591,66 +949,2315 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>2848401000</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1">
         <v>45926</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3258426512</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>2848401000</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3">
-        <v>2080331000</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>2848401000</v>
+      </c>
+      <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1">
-        <v>45926</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G5" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>2848401000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>2848401000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>2848401000</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>2848401000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>2848401000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11">
+        <v>2848401000</v>
+      </c>
+      <c r="E11" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>2848401000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>2848401000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>2848401000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>2848401000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16">
+        <v>2848401000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="3">
-        <v>3254512359</v>
+      <c r="F28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G39" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>74</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>74</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G55" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" t="s">
+        <v>81</v>
+      </c>
+      <c r="F57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>107</v>
+      </c>
+      <c r="C58" t="s">
+        <v>106</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>110</v>
+      </c>
+      <c r="G58" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C61" t="s">
+        <v>106</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" t="s">
+        <v>41</v>
+      </c>
+      <c r="F61" t="s">
+        <v>94</v>
+      </c>
+      <c r="G61" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" t="s">
+        <v>112</v>
+      </c>
+      <c r="G63" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C64" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>113</v>
+      </c>
+      <c r="G64" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E65" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" t="s">
+        <v>114</v>
+      </c>
+      <c r="G65" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s">
+        <v>106</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" t="s">
+        <v>115</v>
+      </c>
+      <c r="G66" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" t="s">
+        <v>116</v>
+      </c>
+      <c r="G67" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>107</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>44</v>
+      </c>
+      <c r="G68" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s">
+        <v>117</v>
+      </c>
+      <c r="G69" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" t="s">
+        <v>107</v>
+      </c>
+      <c r="C70" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" t="s">
+        <v>119</v>
+      </c>
+      <c r="G70" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72" t="s">
+        <v>122</v>
+      </c>
+      <c r="F72" t="s">
+        <v>123</v>
+      </c>
+      <c r="G72" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E73" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" t="s">
+        <v>124</v>
+      </c>
+      <c r="G73" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E74" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" t="s">
+        <v>125</v>
+      </c>
+      <c r="G74" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>10</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>120</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E75" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" t="s">
+        <v>27</v>
+      </c>
+      <c r="G75" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>120</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s">
+        <v>126</v>
+      </c>
+      <c r="G76" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>120</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" t="s">
+        <v>30</v>
+      </c>
+      <c r="F78" t="s">
+        <v>127</v>
+      </c>
+      <c r="G78" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>120</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E79" t="s">
+        <v>81</v>
+      </c>
+      <c r="F79" t="s">
+        <v>128</v>
+      </c>
+      <c r="G79" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E80" t="s">
+        <v>32</v>
+      </c>
+      <c r="F80" t="s">
+        <v>129</v>
+      </c>
+      <c r="G80" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" t="s">
+        <v>123</v>
+      </c>
+      <c r="G81" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>120</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E82" t="s">
+        <v>37</v>
+      </c>
+      <c r="F82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G82" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>10</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>120</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E83" t="s">
+        <v>130</v>
+      </c>
+      <c r="F83" t="s">
+        <v>131</v>
+      </c>
+      <c r="G83" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>10</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E84" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" t="s">
+        <v>132</v>
+      </c>
+      <c r="G84" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" t="s">
+        <v>133</v>
+      </c>
+      <c r="G85" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>120</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E86" t="s">
+        <v>118</v>
+      </c>
+      <c r="F86" t="s">
+        <v>134</v>
+      </c>
+      <c r="G86" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E87" t="s">
+        <v>22</v>
+      </c>
+      <c r="F87" t="s">
+        <v>135</v>
+      </c>
+      <c r="G87" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E88" t="s">
+        <v>136</v>
+      </c>
+      <c r="F88" t="s">
+        <v>137</v>
+      </c>
+      <c r="G88" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>120</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E89" t="s">
+        <v>96</v>
+      </c>
+      <c r="F89" t="s">
+        <v>138</v>
+      </c>
+      <c r="G89" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>120</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E90" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" t="s">
+        <v>140</v>
+      </c>
+      <c r="G90" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E91" t="s">
+        <v>141</v>
+      </c>
+      <c r="F91" t="s">
+        <v>142</v>
+      </c>
+      <c r="G91" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" xr:uid="{530A6030-00F8-44DB-AAD7-C24C290C6898}"/>
-    <hyperlink ref="I3" r:id="rId2" xr:uid="{E3B99DB5-2816-450B-828A-12365489F3FA}"/>
-    <hyperlink ref="I4" r:id="rId3" xr:uid="{2BF30E4D-8A15-4801-9DD4-42373D8F6CEC}"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/ResponsablesPorProyecto.xlsx
+++ b/data/ResponsablesPorProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta Stre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8852E9-8DA0-498F-A487-66DD2E59C91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D752F1-7BB5-48C0-A4B2-33061901927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="3180" windowWidth="20730" windowHeight="11040" xr2:uid="{604496A0-D183-4F1C-9231-CF0B6CEC983F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="148">
   <si>
     <t>Sucursal</t>
   </si>
@@ -465,6 +465,21 @@
   </si>
   <si>
     <t>liliana alejandra vargas coy</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -862,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6159B3B9-18EB-4717-835D-3E6B72934C17}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C77" sqref="C77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -937,7 +952,9 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -964,7 +981,9 @@
       <c r="H3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -991,7 +1010,9 @@
       <c r="H4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -1018,6 +1039,9 @@
       <c r="H5" t="s">
         <v>14</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -1044,6 +1068,9 @@
       <c r="H6" t="s">
         <v>14</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -1070,6 +1097,9 @@
       <c r="H7" t="s">
         <v>14</v>
       </c>
+      <c r="I7" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -1096,6 +1126,9 @@
       <c r="H8" t="s">
         <v>14</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -1122,6 +1155,9 @@
       <c r="H9" t="s">
         <v>14</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1148,6 +1184,9 @@
       <c r="H10" t="s">
         <v>14</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1174,6 +1213,9 @@
       <c r="H11" t="s">
         <v>14</v>
       </c>
+      <c r="I11" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -1200,6 +1242,9 @@
       <c r="H12" t="s">
         <v>14</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -1226,6 +1271,9 @@
       <c r="H13" t="s">
         <v>14</v>
       </c>
+      <c r="I13" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -1252,6 +1300,9 @@
       <c r="H14" t="s">
         <v>14</v>
       </c>
+      <c r="I14" s="2" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -1278,6 +1329,9 @@
       <c r="H15" t="s">
         <v>14</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -1304,8 +1358,11 @@
       <c r="H16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1330,8 +1387,11 @@
       <c r="H17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1356,8 +1416,11 @@
       <c r="H18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1382,8 +1445,11 @@
       <c r="H19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1408,8 +1474,11 @@
       <c r="H20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1434,8 +1503,11 @@
       <c r="H21" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1460,8 +1532,11 @@
       <c r="H22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1486,8 +1561,11 @@
       <c r="H23" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1512,8 +1590,11 @@
       <c r="H24" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1538,8 +1619,11 @@
       <c r="H25" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1564,8 +1648,11 @@
       <c r="H26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1590,8 +1677,11 @@
       <c r="H27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1616,8 +1706,11 @@
       <c r="H28" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1642,8 +1735,11 @@
       <c r="H29" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1668,8 +1764,11 @@
       <c r="H30" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -1694,8 +1793,11 @@
       <c r="H31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -1720,8 +1822,11 @@
       <c r="H32" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -1746,8 +1851,11 @@
       <c r="H33" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -1772,8 +1880,11 @@
       <c r="H34" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -1798,8 +1909,11 @@
       <c r="H35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -1824,8 +1938,11 @@
       <c r="H36" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1850,8 +1967,11 @@
       <c r="H37" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1876,8 +1996,11 @@
       <c r="H38" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1902,8 +2025,11 @@
       <c r="H39" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1928,8 +2054,11 @@
       <c r="H40" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1954,8 +2083,11 @@
       <c r="H41" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I41" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -1980,8 +2112,11 @@
       <c r="H42" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2006,8 +2141,11 @@
       <c r="H43" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2032,8 +2170,11 @@
       <c r="H44" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I44" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2058,8 +2199,11 @@
       <c r="H45" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2084,8 +2228,11 @@
       <c r="H46" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2110,8 +2257,11 @@
       <c r="H47" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2136,8 +2286,11 @@
       <c r="H48" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2162,8 +2315,11 @@
       <c r="H49" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2188,8 +2344,11 @@
       <c r="H50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2214,8 +2373,11 @@
       <c r="H51" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2240,8 +2402,11 @@
       <c r="H52" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2266,8 +2431,11 @@
       <c r="H53" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2292,8 +2460,11 @@
       <c r="H54" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2318,8 +2489,11 @@
       <c r="H55" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2344,8 +2518,11 @@
       <c r="H56" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2370,8 +2547,11 @@
       <c r="H57" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2396,8 +2576,11 @@
       <c r="H58" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2422,8 +2605,11 @@
       <c r="H59" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2448,8 +2634,11 @@
       <c r="H60" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2474,8 +2663,11 @@
       <c r="H61" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2500,8 +2692,11 @@
       <c r="H62" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2526,8 +2721,11 @@
       <c r="H63" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2552,8 +2750,11 @@
       <c r="H64" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2578,8 +2779,11 @@
       <c r="H65" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2604,8 +2808,11 @@
       <c r="H66" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2630,8 +2837,11 @@
       <c r="H67" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2656,8 +2866,11 @@
       <c r="H68" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -2682,8 +2895,11 @@
       <c r="H69" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -2708,8 +2924,11 @@
       <c r="H70" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -2734,8 +2953,11 @@
       <c r="H71" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -2760,8 +2982,11 @@
       <c r="H72" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2786,8 +3011,11 @@
       <c r="H73" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -2812,8 +3040,11 @@
       <c r="H74" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -2838,8 +3069,11 @@
       <c r="H75" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -2864,8 +3098,11 @@
       <c r="H76" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -2890,8 +3127,11 @@
       <c r="H77" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -2916,8 +3156,11 @@
       <c r="H78" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -2942,8 +3185,11 @@
       <c r="H79" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -2968,8 +3214,11 @@
       <c r="H80" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2994,8 +3243,11 @@
       <c r="H81" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3020,8 +3272,11 @@
       <c r="H82" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3046,8 +3301,11 @@
       <c r="H83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3072,8 +3330,11 @@
       <c r="H84" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3098,8 +3359,11 @@
       <c r="H85" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3124,8 +3388,11 @@
       <c r="H86" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3150,8 +3417,11 @@
       <c r="H87" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3176,8 +3446,11 @@
       <c r="H88" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3202,8 +3475,11 @@
       <c r="H89" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3228,8 +3504,11 @@
       <c r="H90" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3253,6 +3532,9 @@
       </c>
       <c r="H91" t="s">
         <v>14</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/data/ResponsablesPorProyecto.xlsx
+++ b/data/ResponsablesPorProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta Stre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D752F1-7BB5-48C0-A4B2-33061901927F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78762A4-EFC6-4715-8263-BB9E21DFB8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="3180" windowWidth="20730" windowHeight="11040" xr2:uid="{604496A0-D183-4F1C-9231-CF0B6CEC983F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="176">
   <si>
     <t>Sucursal</t>
   </si>
@@ -83,9 +83,15 @@
     <t>Activo</t>
   </si>
   <si>
+    <t>fgutierrez@marval.com.co</t>
+  </si>
+  <si>
     <t>Arquitecto</t>
   </si>
   <si>
+    <t>CMENDEZP@marval.com.co</t>
+  </si>
+  <si>
     <t>Tres Quebradas</t>
   </si>
   <si>
@@ -467,19 +473,97 @@
     <t>liliana alejandra vargas coy</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>rrozo@marval.com.co</t>
+  </si>
+  <si>
+    <t>vgomezg@marval.com.co</t>
+  </si>
+  <si>
+    <t>crodrigueb@marval.com.co</t>
+  </si>
+  <si>
+    <t>mpsanchez@marval.com.co</t>
+  </si>
+  <si>
+    <t>esilva@marval.com.co</t>
+  </si>
+  <si>
+    <t>svelandia@marval.com.co</t>
+  </si>
+  <si>
+    <t>sbarreto@marval.com.co</t>
+  </si>
+  <si>
+    <t>mulloa@marval.com.co</t>
+  </si>
+  <si>
+    <t>jmaldonado@marval.com.co</t>
+  </si>
+  <si>
+    <t>dtarquino@marval.com.co</t>
+  </si>
+  <si>
+    <t>cpulgarin@marval.com.co</t>
+  </si>
+  <si>
+    <t>hportela@marval.com.co</t>
+  </si>
+  <si>
+    <t>gnoguera@marval.com.co</t>
+  </si>
+  <si>
+    <t>ccarvajalr@marval.com.co</t>
+  </si>
+  <si>
+    <t>jromeroc@marval.com.co</t>
+  </si>
+  <si>
+    <t>eavilar@marval.com.co</t>
+  </si>
+  <si>
+    <t>mcochoa@marval.com.co</t>
+  </si>
+  <si>
+    <t>jarchila@marval.com.co</t>
+  </si>
+  <si>
+    <t>lsbueno@marval.com.co</t>
+  </si>
+  <si>
+    <t>cecardenas@marval.com.co</t>
+  </si>
+  <si>
+    <t>rforero@marval.com.co</t>
+  </si>
+  <si>
+    <t>jlesmes@marval.com.co</t>
+  </si>
+  <si>
+    <t>kestepa@marval.com.co</t>
+  </si>
+  <si>
+    <t>kpiedra@marval.com.co</t>
+  </si>
+  <si>
+    <t>gbarbosa@marval.com.co</t>
+  </si>
+  <si>
+    <t>efrojas@marval.com.co</t>
+  </si>
+  <si>
+    <t>dvalencia@marval.com.co</t>
+  </si>
+  <si>
+    <t>jgonzalezr@marval.com.co</t>
+  </si>
+  <si>
+    <t>mcervantes@marval.com.co</t>
+  </si>
+  <si>
+    <t>drincons@marval.com.co</t>
+  </si>
+  <si>
+    <t>jguarin@marval.com.co</t>
   </si>
 </sst>
 </file>
@@ -877,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6159B3B9-18EB-4717-835D-3E6B72934C17}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,9 +973,9 @@
     <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -944,7 +1028,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1">
         <v>45926</v>
@@ -953,7 +1037,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>143</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -970,10 +1054,10 @@
         <v>2848401000</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1">
         <v>45926</v>
@@ -982,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -999,10 +1083,10 @@
         <v>2848401000</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1">
         <v>45926</v>
@@ -1011,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1028,10 +1112,10 @@
         <v>2848401000</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1">
         <v>45926</v>
@@ -1057,10 +1141,10 @@
         <v>2848401000</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1">
         <v>45926</v>
@@ -1086,10 +1170,10 @@
         <v>2848401000</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1">
         <v>45926</v>
@@ -1098,7 +1182,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1115,10 +1199,10 @@
         <v>2848401000</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1">
         <v>45926</v>
@@ -1127,7 +1211,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1144,10 +1228,10 @@
         <v>2848401000</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1">
         <v>45926</v>
@@ -1156,7 +1240,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1173,10 +1257,10 @@
         <v>2848401000</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1">
         <v>45926</v>
@@ -1185,7 +1269,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1202,10 +1286,10 @@
         <v>2848401000</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G11" s="1">
         <v>45926</v>
@@ -1214,7 +1298,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1231,10 +1315,10 @@
         <v>2848401000</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1">
         <v>45926</v>
@@ -1243,7 +1327,7 @@
         <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1260,10 +1344,10 @@
         <v>2848401000</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G13" s="1">
         <v>45926</v>
@@ -1272,7 +1356,7 @@
         <v>14</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1289,10 +1373,10 @@
         <v>2848401000</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1">
         <v>45926</v>
@@ -1301,7 +1385,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1318,10 +1402,10 @@
         <v>2848401000</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1">
         <v>45926</v>
@@ -1330,7 +1414,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1347,10 +1431,10 @@
         <v>2848401000</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G16" s="1">
         <v>45926</v>
@@ -1359,7 +1443,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1370,16 +1454,16 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G17" s="1">
         <v>45926</v>
@@ -1388,7 +1472,7 @@
         <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1399,16 +1483,16 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1">
         <v>45926</v>
@@ -1417,7 +1501,7 @@
         <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1428,16 +1512,16 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G19" s="1">
         <v>45926</v>
@@ -1446,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1457,16 +1541,16 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G20" s="1">
         <v>45926</v>
@@ -1475,7 +1559,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1486,16 +1570,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G21" s="1">
         <v>45926</v>
@@ -1504,7 +1588,7 @@
         <v>14</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1515,16 +1599,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G22" s="1">
         <v>45926</v>
@@ -1533,7 +1617,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1544,16 +1628,16 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G23" s="1">
         <v>45926</v>
@@ -1562,7 +1646,7 @@
         <v>14</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1573,16 +1657,16 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1">
         <v>45926</v>
@@ -1590,9 +1674,7 @@
       <c r="H24" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1602,16 +1684,16 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G25" s="1">
         <v>45926</v>
@@ -1620,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1631,16 +1713,16 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
-      </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G26" s="1">
         <v>45926</v>
@@ -1649,7 +1731,7 @@
         <v>14</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1660,16 +1742,16 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G27" s="1">
         <v>45926</v>
@@ -1678,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1689,16 +1771,16 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G28" s="1">
         <v>45926</v>
@@ -1707,7 +1789,7 @@
         <v>14</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1718,16 +1800,16 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G29" s="1">
         <v>45926</v>
@@ -1736,7 +1818,7 @@
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1747,16 +1829,16 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G30" s="1">
         <v>45926</v>
@@ -1765,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1776,16 +1858,16 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G31" s="1">
         <v>45926</v>
@@ -1794,7 +1876,7 @@
         <v>14</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1802,19 +1884,19 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G32" s="1">
         <v>45926</v>
@@ -1823,7 +1905,7 @@
         <v>14</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1831,19 +1913,19 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G33" s="1">
         <v>45926</v>
@@ -1852,7 +1934,7 @@
         <v>14</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1860,19 +1942,19 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G34" s="1">
         <v>45926</v>
@@ -1881,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1889,19 +1971,19 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G35" s="1">
         <v>45926</v>
@@ -1910,7 +1992,7 @@
         <v>14</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -1918,19 +2000,19 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G36" s="1">
         <v>45926</v>
@@ -1939,7 +2021,7 @@
         <v>14</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -1947,19 +2029,19 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G37" s="1">
         <v>45926</v>
@@ -1968,7 +2050,7 @@
         <v>14</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -1976,19 +2058,19 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G38" s="1">
         <v>45926</v>
@@ -1997,7 +2079,7 @@
         <v>14</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2005,19 +2087,19 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G39" s="1">
         <v>45926</v>
@@ -2026,7 +2108,7 @@
         <v>14</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2034,19 +2116,19 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G40" s="1">
         <v>45926</v>
@@ -2055,7 +2137,7 @@
         <v>14</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2063,19 +2145,19 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G41" s="1">
         <v>45926</v>
@@ -2084,7 +2166,7 @@
         <v>14</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2092,19 +2174,19 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G42" s="1">
         <v>45926</v>
@@ -2113,7 +2195,7 @@
         <v>14</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>143</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2121,19 +2203,19 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G43" s="1">
         <v>45926</v>
@@ -2141,28 +2223,26 @@
       <c r="H43" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G44" s="1">
         <v>45926</v>
@@ -2170,28 +2250,26 @@
       <c r="H44" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G45" s="1">
         <v>45926</v>
@@ -2199,28 +2277,26 @@
       <c r="H45" t="s">
         <v>14</v>
       </c>
-      <c r="I45" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G46" s="1">
         <v>45926</v>
@@ -2228,28 +2304,26 @@
       <c r="H46" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G47" s="1">
         <v>45926</v>
@@ -2257,28 +2331,26 @@
       <c r="H47" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G48" s="1">
         <v>45926</v>
@@ -2286,28 +2358,26 @@
       <c r="H48" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G49" s="1">
         <v>45926</v>
@@ -2315,28 +2385,26 @@
       <c r="H49" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G50" s="1">
         <v>45926</v>
@@ -2344,28 +2412,26 @@
       <c r="H50" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="I50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G51" s="1">
         <v>45926</v>
@@ -2373,28 +2439,26 @@
       <c r="H51" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="I51" s="2"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G52" s="1">
         <v>45926</v>
@@ -2402,28 +2466,26 @@
       <c r="H52" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="I52" s="2"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G53" s="1">
         <v>45926</v>
@@ -2431,28 +2493,26 @@
       <c r="H53" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="I53" s="2"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G54" s="1">
         <v>45926</v>
@@ -2460,28 +2520,26 @@
       <c r="H54" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="I54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G55" s="1">
         <v>45926</v>
@@ -2489,28 +2547,26 @@
       <c r="H55" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="I55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G56" s="1">
         <v>45926</v>
@@ -2518,28 +2574,26 @@
       <c r="H56" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="I56" s="2"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G57" s="1">
         <v>45926</v>
@@ -2547,28 +2601,26 @@
       <c r="H57" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="I57" s="2"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E58" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G58" s="1">
         <v>45926</v>
@@ -2576,28 +2628,26 @@
       <c r="H58" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="I58" s="2"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C59" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G59" s="1">
         <v>45926</v>
@@ -2605,28 +2655,26 @@
       <c r="H59" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="I59" s="2"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G60" s="1">
         <v>45926</v>
@@ -2634,28 +2682,26 @@
       <c r="H60" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="I60" s="2"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G61" s="1">
         <v>45926</v>
@@ -2663,28 +2709,26 @@
       <c r="H61" t="s">
         <v>14</v>
       </c>
-      <c r="I61" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="I61" s="2"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C62" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G62" s="1">
         <v>45926</v>
@@ -2692,28 +2736,26 @@
       <c r="H62" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="I62" s="2"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G63" s="1">
         <v>45926</v>
@@ -2721,28 +2763,26 @@
       <c r="H63" t="s">
         <v>14</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="I63" s="2"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F64" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G64" s="1">
         <v>45926</v>
@@ -2750,28 +2790,26 @@
       <c r="H64" t="s">
         <v>14</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="I64" s="2"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C65" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E65" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G65" s="1">
         <v>45926</v>
@@ -2779,28 +2817,26 @@
       <c r="H65" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="I65" s="2"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G66" s="1">
         <v>45926</v>
@@ -2808,28 +2844,26 @@
       <c r="H66" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="I66" s="2"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G67" s="1">
         <v>45926</v>
@@ -2837,28 +2871,26 @@
       <c r="H67" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="I67" s="2"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G68" s="1">
         <v>45926</v>
@@ -2866,28 +2898,26 @@
       <c r="H68" t="s">
         <v>14</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="I68" s="2"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G69" s="1">
         <v>45926</v>
@@ -2895,28 +2925,26 @@
       <c r="H69" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="I69" s="2"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F70" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G70" s="1">
         <v>45926</v>
@@ -2924,9 +2952,7 @@
       <c r="H70" t="s">
         <v>14</v>
       </c>
-      <c r="I70" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="I70" s="2"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -2936,10 +2962,10 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
@@ -2953,9 +2979,7 @@
       <c r="H71" t="s">
         <v>14</v>
       </c>
-      <c r="I71" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="I71" s="2"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -2965,16 +2989,16 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E72" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F72" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G72" s="1">
         <v>45926</v>
@@ -2982,9 +3006,7 @@
       <c r="H72" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="I72" s="2"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -2994,16 +3016,16 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E73" t="s">
         <v>13</v>
       </c>
       <c r="F73" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G73" s="1">
         <v>45926</v>
@@ -3011,9 +3033,7 @@
       <c r="H73" t="s">
         <v>14</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="I73" s="2"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -3023,16 +3043,16 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E74" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F74" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G74" s="1">
         <v>45926</v>
@@ -3040,9 +3060,7 @@
       <c r="H74" t="s">
         <v>14</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="I74" s="2"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -3052,16 +3070,16 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E75" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G75" s="1">
         <v>45926</v>
@@ -3069,9 +3087,7 @@
       <c r="H75" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="I75" s="2"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -3081,16 +3097,16 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G76" s="1">
         <v>45926</v>
@@ -3098,9 +3114,7 @@
       <c r="H76" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="I76" s="2"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -3110,16 +3124,16 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G77" s="1">
         <v>45926</v>
@@ -3127,9 +3141,7 @@
       <c r="H77" t="s">
         <v>14</v>
       </c>
-      <c r="I77" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="I77" s="2"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -3139,16 +3151,16 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G78" s="1">
         <v>45926</v>
@@ -3156,9 +3168,7 @@
       <c r="H78" t="s">
         <v>14</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -3168,16 +3178,16 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E79" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F79" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G79" s="1">
         <v>45926</v>
@@ -3185,9 +3195,7 @@
       <c r="H79" t="s">
         <v>14</v>
       </c>
-      <c r="I79" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="I79" s="2"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
@@ -3197,16 +3205,16 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G80" s="1">
         <v>45926</v>
@@ -3214,9 +3222,7 @@
       <c r="H80" t="s">
         <v>14</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="I80" s="2"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -3226,16 +3232,16 @@
         <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F81" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G81" s="1">
         <v>45926</v>
@@ -3243,9 +3249,7 @@
       <c r="H81" t="s">
         <v>14</v>
       </c>
-      <c r="I81" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="I81" s="2"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -3255,16 +3259,16 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G82" s="1">
         <v>45926</v>
@@ -3272,9 +3276,7 @@
       <c r="H82" t="s">
         <v>14</v>
       </c>
-      <c r="I82" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="I82" s="2"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -3284,16 +3286,16 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E83" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F83" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G83" s="1">
         <v>45926</v>
@@ -3301,9 +3303,7 @@
       <c r="H83" t="s">
         <v>14</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="I83" s="2"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -3313,16 +3313,16 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E84" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F84" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G84" s="1">
         <v>45926</v>
@@ -3330,9 +3330,7 @@
       <c r="H84" t="s">
         <v>14</v>
       </c>
-      <c r="I84" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="I84" s="2"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -3342,16 +3340,16 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E85" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F85" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G85" s="1">
         <v>45926</v>
@@ -3359,9 +3357,7 @@
       <c r="H85" t="s">
         <v>14</v>
       </c>
-      <c r="I85" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="I85" s="2"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -3371,16 +3367,16 @@
         <v>11</v>
       </c>
       <c r="C86" t="s">
+        <v>122</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E86" t="s">
         <v>120</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E86" t="s">
-        <v>118</v>
-      </c>
       <c r="F86" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G86" s="1">
         <v>45926</v>
@@ -3388,9 +3384,7 @@
       <c r="H86" t="s">
         <v>14</v>
       </c>
-      <c r="I86" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="I86" s="2"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
@@ -3400,16 +3394,16 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F87" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G87" s="1">
         <v>45926</v>
@@ -3417,9 +3411,7 @@
       <c r="H87" t="s">
         <v>14</v>
       </c>
-      <c r="I87" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="I87" s="2"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -3429,16 +3421,16 @@
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E88" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F88" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G88" s="1">
         <v>45926</v>
@@ -3446,9 +3438,7 @@
       <c r="H88" t="s">
         <v>14</v>
       </c>
-      <c r="I88" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="I88" s="2"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -3458,16 +3448,16 @@
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E89" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G89" s="1">
         <v>45926</v>
@@ -3475,9 +3465,7 @@
       <c r="H89" t="s">
         <v>14</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="I89" s="2"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
@@ -3487,16 +3475,16 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F90" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G90" s="1">
         <v>45926</v>
@@ -3504,9 +3492,7 @@
       <c r="H90" t="s">
         <v>14</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="I90" s="2"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
@@ -3516,16 +3502,16 @@
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E91" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F91" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G91" s="1">
         <v>45926</v>
@@ -3533,13 +3519,39 @@
       <c r="H91" t="s">
         <v>14</v>
       </c>
-      <c r="I91" s="2" t="s">
-        <v>146</v>
-      </c>
+      <c r="I91" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="I7" r:id="rId1" xr:uid="{5B57464F-ADA7-4ED9-9C6A-0657B462DB79}"/>
+    <hyperlink ref="I9" r:id="rId2" xr:uid="{D620E66F-64F3-4F96-8A69-26A411A47FB8}"/>
+    <hyperlink ref="I10" r:id="rId3" xr:uid="{E4B46CF0-6711-4C0D-95C4-13BF987E7826}"/>
+    <hyperlink ref="I11" r:id="rId4" xr:uid="{5B59C7E3-E563-4E78-BD71-5A0426929A2A}"/>
+    <hyperlink ref="I12" r:id="rId5" xr:uid="{F6BD21E6-F1DC-4D8D-A492-6D0FC2BAC675}"/>
+    <hyperlink ref="I14" r:id="rId6" xr:uid="{52F2F7D2-D278-4C8D-A31C-F1F89F6DC3B8}"/>
+    <hyperlink ref="I13" r:id="rId7" xr:uid="{CF0A58E9-7C7B-4392-953C-F81FDBAE7519}"/>
+    <hyperlink ref="I8" r:id="rId8" xr:uid="{85083AB6-5981-4D3B-8D37-EA656744BED2}"/>
+    <hyperlink ref="I16" r:id="rId9" xr:uid="{3A093F1E-3818-4944-8C15-9DB1BED73DE0}"/>
+    <hyperlink ref="I17" r:id="rId10" xr:uid="{C34F03AF-3580-4CBA-B54C-A6DBDD3A28BC}"/>
+    <hyperlink ref="I22" r:id="rId11" xr:uid="{C69854FF-0E87-46DC-BC04-04BEE980D3FE}"/>
+    <hyperlink ref="I20" r:id="rId12" xr:uid="{AFD1D902-772F-43B0-B45A-4292AB4AA33D}"/>
+    <hyperlink ref="I19" r:id="rId13" xr:uid="{7CD5C7EA-B36A-4DCB-AF48-7430099C763F}"/>
+    <hyperlink ref="I25" r:id="rId14" xr:uid="{90D676FB-2F1F-4C69-B395-3EBAC6079FA8}"/>
+    <hyperlink ref="I26" r:id="rId15" xr:uid="{D96E2954-B78B-42D0-A0B7-F1E75A074FD0}"/>
+    <hyperlink ref="I27" r:id="rId16" xr:uid="{6663187C-90EB-4872-8BB3-21988E970392}"/>
+    <hyperlink ref="I28" r:id="rId17" xr:uid="{DDDCBAFE-FFB6-4E29-9C2F-FEEDC4FC7CBF}"/>
+    <hyperlink ref="I29" r:id="rId18" xr:uid="{1662034F-935D-4835-8981-15CC120C4CA9}"/>
+    <hyperlink ref="I30" r:id="rId19" xr:uid="{899F7E7C-A5E0-47D8-A4A4-4480D9777985}"/>
+    <hyperlink ref="I31" r:id="rId20" xr:uid="{F106C2AA-D54B-4F66-AF84-0FF81CE06161}"/>
+    <hyperlink ref="I32" r:id="rId21" xr:uid="{87F88EF5-45FB-4A67-AA73-F3E5E9A2CA7E}"/>
+    <hyperlink ref="I33" r:id="rId22" xr:uid="{B3471CB4-451F-4B23-92BA-C5590A813DD6}"/>
+    <hyperlink ref="I34" r:id="rId23" xr:uid="{2B5A320B-4DE1-49EC-A32F-C411F23CC02F}"/>
+    <hyperlink ref="I36" r:id="rId24" xr:uid="{847CE476-4072-4493-9EBD-C78D7920893E}"/>
+    <hyperlink ref="I40" r:id="rId25" xr:uid="{729BEF0B-AAE8-48CF-9093-019407721740}"/>
+    <hyperlink ref="I38" r:id="rId26" xr:uid="{8E87ED99-8FCD-45EB-87E8-885DBF7788D5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId27"/>
 </worksheet>
 </file>
--- a/data/ResponsablesPorProyecto.xlsx
+++ b/data/ResponsablesPorProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta Stre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78762A4-EFC6-4715-8263-BB9E21DFB8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EC3B81-3D1F-4277-9CD0-3E375A958B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="3180" windowWidth="20730" windowHeight="11040" xr2:uid="{604496A0-D183-4F1C-9231-CF0B6CEC983F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="202">
   <si>
     <t>Sucursal</t>
   </si>
@@ -383,9 +383,6 @@
     <t>jaiber leonardo cano artunduaga</t>
   </si>
   <si>
-    <t>miguel felipe alarcon medina</t>
-  </si>
-  <si>
     <t>nicolas sierra perdomo</t>
   </si>
   <si>
@@ -410,15 +407,6 @@
     <t>2848351000</t>
   </si>
   <si>
-    <t>Practicante Lean</t>
-  </si>
-  <si>
-    <t>andres felipe arenas suarez</t>
-  </si>
-  <si>
-    <t>ana milena gallo sanabria</t>
-  </si>
-  <si>
     <t>edith tatiana prieto cuevas</t>
   </si>
   <si>
@@ -446,9 +434,6 @@
     <t>david esteban yate bastidas</t>
   </si>
   <si>
-    <t>oscar javier serrano raba</t>
-  </si>
-  <si>
     <t>juan pablo charry lopez</t>
   </si>
   <si>
@@ -564,6 +549,99 @@
   </si>
   <si>
     <t>jguarin@marval.com.co</t>
+  </si>
+  <si>
+    <t>lmgarciab@marval.com.co</t>
+  </si>
+  <si>
+    <t>nriveros@marval.com.co</t>
+  </si>
+  <si>
+    <t>cdsantiago@marval.com.co</t>
+  </si>
+  <si>
+    <t>jaguirrep@marval.com.co</t>
+  </si>
+  <si>
+    <t>arnavarro@marval.com.co</t>
+  </si>
+  <si>
+    <t>jmontoyac@marval.com.co</t>
+  </si>
+  <si>
+    <t>xorduz@marval.com.co</t>
+  </si>
+  <si>
+    <t>jcely@marval.com.co</t>
+  </si>
+  <si>
+    <t>pramirez@marval.com.co</t>
+  </si>
+  <si>
+    <t>evelasco@marval.com.co</t>
+  </si>
+  <si>
+    <t>jcano@marval.com.co</t>
+  </si>
+  <si>
+    <t>asierra@marval.com.co</t>
+  </si>
+  <si>
+    <t>dsanchezs@marval.com.co</t>
+  </si>
+  <si>
+    <t>rramirez@marval.com.co</t>
+  </si>
+  <si>
+    <t>nsierrap@marval.com.co</t>
+  </si>
+  <si>
+    <t>dpruiz@marval.com.co</t>
+  </si>
+  <si>
+    <t>edachardy@marval.com.co</t>
+  </si>
+  <si>
+    <t>jcruza@marval.com.co</t>
+  </si>
+  <si>
+    <t>etprieto@marval.com.co</t>
+  </si>
+  <si>
+    <t>jpcharry@marval.com.co</t>
+  </si>
+  <si>
+    <t>dyate@marval.com.co</t>
+  </si>
+  <si>
+    <t>gtriana@marval.com.co</t>
+  </si>
+  <si>
+    <t>agutierre@marval.com.co</t>
+  </si>
+  <si>
+    <t>ymunevar@marval.com.co</t>
+  </si>
+  <si>
+    <t>cpaldana@marval.com.co</t>
+  </si>
+  <si>
+    <t>gsuarez@marval.com.co</t>
+  </si>
+  <si>
+    <t>eflorez@marval.com.co</t>
+  </si>
+  <si>
+    <t>pvecino@marval.com.co</t>
+  </si>
+  <si>
+    <t>atrodrigue@marval.com.co</t>
+  </si>
+  <si>
+    <t>jrgonzalez@marval.com.co</t>
+  </si>
+  <si>
+    <t>avargasc@marval.com.co</t>
   </si>
 </sst>
 </file>
@@ -959,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6159B3B9-18EB-4717-835D-3E6B72934C17}">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1066,7 +1144,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1095,7 +1173,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1124,7 +1202,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1153,7 +1231,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1182,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1211,7 +1289,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1240,7 +1318,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1269,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1327,7 +1405,7 @@
         <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1356,7 +1434,7 @@
         <v>14</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1385,7 +1463,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1414,7 +1492,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1443,7 +1521,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1472,7 +1550,7 @@
         <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1501,7 +1579,7 @@
         <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1530,7 +1608,7 @@
         <v>14</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1559,7 +1637,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1588,7 +1666,7 @@
         <v>14</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1617,7 +1695,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1646,7 +1724,7 @@
         <v>14</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1702,7 +1780,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1731,7 +1809,7 @@
         <v>14</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1760,7 +1838,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1789,7 +1867,7 @@
         <v>14</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1818,7 +1896,7 @@
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1847,7 +1925,7 @@
         <v>14</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1876,7 +1954,7 @@
         <v>14</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1905,7 +1983,7 @@
         <v>14</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1934,7 +2012,7 @@
         <v>14</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -1963,7 +2041,7 @@
         <v>14</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -1992,7 +2070,7 @@
         <v>14</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2021,7 +2099,7 @@
         <v>14</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2050,7 +2128,7 @@
         <v>14</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2079,7 +2157,7 @@
         <v>14</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2108,7 +2186,7 @@
         <v>14</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2137,7 +2215,7 @@
         <v>14</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2166,7 +2244,7 @@
         <v>14</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2195,7 +2273,7 @@
         <v>14</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2250,7 +2328,9 @@
       <c r="H44" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="2"/>
+      <c r="I44" s="2" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -2304,7 +2384,9 @@
       <c r="H46" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="2"/>
+      <c r="I46" s="2" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -2331,7 +2413,9 @@
       <c r="H47" t="s">
         <v>14</v>
       </c>
-      <c r="I47" s="2"/>
+      <c r="I47" s="2" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -2358,7 +2442,9 @@
       <c r="H48" t="s">
         <v>14</v>
       </c>
-      <c r="I48" s="2"/>
+      <c r="I48" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -2385,7 +2471,9 @@
       <c r="H49" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="2"/>
+      <c r="I49" s="2" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -2412,7 +2500,9 @@
       <c r="H50" t="s">
         <v>14</v>
       </c>
-      <c r="I50" s="2"/>
+      <c r="I50" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -2439,7 +2529,9 @@
       <c r="H51" t="s">
         <v>14</v>
       </c>
-      <c r="I51" s="2"/>
+      <c r="I51" s="2" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -2466,7 +2558,9 @@
       <c r="H52" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="2"/>
+      <c r="I52" s="2" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -2493,7 +2587,9 @@
       <c r="H53" t="s">
         <v>14</v>
       </c>
-      <c r="I53" s="2"/>
+      <c r="I53" s="2" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -2520,7 +2616,9 @@
       <c r="H54" t="s">
         <v>14</v>
       </c>
-      <c r="I54" s="2"/>
+      <c r="I54" s="2" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -2547,7 +2645,9 @@
       <c r="H55" t="s">
         <v>14</v>
       </c>
-      <c r="I55" s="2"/>
+      <c r="I55" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -2574,7 +2674,9 @@
       <c r="H56" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="2"/>
+      <c r="I56" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -2601,7 +2703,9 @@
       <c r="H57" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="2"/>
+      <c r="I57" s="2" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -2628,7 +2732,9 @@
       <c r="H58" t="s">
         <v>14</v>
       </c>
-      <c r="I58" s="2"/>
+      <c r="I58" s="2" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -2655,7 +2761,9 @@
       <c r="H59" t="s">
         <v>14</v>
       </c>
-      <c r="I59" s="2"/>
+      <c r="I59" s="2" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -2682,7 +2790,9 @@
       <c r="H60" t="s">
         <v>14</v>
       </c>
-      <c r="I60" s="2"/>
+      <c r="I60" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -2709,7 +2819,9 @@
       <c r="H61" t="s">
         <v>14</v>
       </c>
-      <c r="I61" s="2"/>
+      <c r="I61" s="2" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -2736,7 +2848,9 @@
       <c r="H62" t="s">
         <v>14</v>
       </c>
-      <c r="I62" s="2"/>
+      <c r="I62" s="2" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -2763,7 +2877,9 @@
       <c r="H63" t="s">
         <v>14</v>
       </c>
-      <c r="I63" s="2"/>
+      <c r="I63" s="2" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -2781,9 +2897,6 @@
       <c r="E64" t="s">
         <v>20</v>
       </c>
-      <c r="F64" t="s">
-        <v>115</v>
-      </c>
       <c r="G64" s="1">
         <v>45926</v>
       </c>
@@ -2809,7 +2922,7 @@
         <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G65" s="1">
         <v>45926</v>
@@ -2817,7 +2930,9 @@
       <c r="H65" t="s">
         <v>14</v>
       </c>
-      <c r="I65" s="2"/>
+      <c r="I65" s="2" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
@@ -2836,7 +2951,7 @@
         <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G66" s="1">
         <v>45926</v>
@@ -2844,7 +2959,9 @@
       <c r="H66" t="s">
         <v>14</v>
       </c>
-      <c r="I66" s="2"/>
+      <c r="I66" s="2" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
@@ -2863,7 +2980,7 @@
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G67" s="1">
         <v>45926</v>
@@ -2871,7 +2988,9 @@
       <c r="H67" t="s">
         <v>14</v>
       </c>
-      <c r="I67" s="2"/>
+      <c r="I67" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
@@ -2898,7 +3017,9 @@
       <c r="H68" t="s">
         <v>14</v>
       </c>
-      <c r="I68" s="2"/>
+      <c r="I68" s="2" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -2917,7 +3038,7 @@
         <v>24</v>
       </c>
       <c r="F69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G69" s="1">
         <v>45926</v>
@@ -2925,7 +3046,9 @@
       <c r="H69" t="s">
         <v>14</v>
       </c>
-      <c r="I69" s="2"/>
+      <c r="I69" s="2" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
@@ -2941,18 +3064,20 @@
         <v>110</v>
       </c>
       <c r="E70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F70" t="s">
         <v>120</v>
       </c>
-      <c r="F70" t="s">
-        <v>121</v>
-      </c>
       <c r="G70" s="1">
         <v>45926</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
       </c>
-      <c r="I70" s="2"/>
+      <c r="I70" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -2962,24 +3087,26 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" t="s">
         <v>123</v>
       </c>
-      <c r="E71" t="s">
-        <v>4</v>
-      </c>
-      <c r="F71" t="s">
-        <v>5</v>
-      </c>
       <c r="G71" s="1">
         <v>45926</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
       </c>
-      <c r="I71" s="2"/>
+      <c r="I71" s="2" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -2989,16 +3116,16 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E72" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="G72" s="1">
         <v>45926</v>
@@ -3006,7 +3133,9 @@
       <c r="H72" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="2"/>
+      <c r="I72" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -3016,16 +3145,16 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D73" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G73" s="1">
         <v>45926</v>
@@ -3033,7 +3162,9 @@
       <c r="H73" t="s">
         <v>14</v>
       </c>
-      <c r="I73" s="2"/>
+      <c r="I73" s="2" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -3043,16 +3174,16 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D74" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E74" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F74" t="s">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="G74" s="1">
         <v>45926</v>
@@ -3060,7 +3191,9 @@
       <c r="H74" t="s">
         <v>14</v>
       </c>
-      <c r="I74" s="2"/>
+      <c r="I74" s="2" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -3070,16 +3203,16 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E75" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="G75" s="1">
         <v>45926</v>
@@ -3087,7 +3220,9 @@
       <c r="H75" t="s">
         <v>14</v>
       </c>
-      <c r="I75" s="2"/>
+      <c r="I75" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
@@ -3097,16 +3232,16 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F76" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G76" s="1">
         <v>45926</v>
@@ -3114,7 +3249,9 @@
       <c r="H76" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="2"/>
+      <c r="I76" s="2" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -3124,16 +3261,16 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E77" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="G77" s="1">
         <v>45926</v>
@@ -3141,7 +3278,9 @@
       <c r="H77" t="s">
         <v>14</v>
       </c>
-      <c r="I77" s="2"/>
+      <c r="I77" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
@@ -3151,16 +3290,16 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="G78" s="1">
         <v>45926</v>
@@ -3168,7 +3307,9 @@
       <c r="H78" t="s">
         <v>14</v>
       </c>
-      <c r="I78" s="2"/>
+      <c r="I78" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
@@ -3178,16 +3319,16 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E79" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="F79" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G79" s="1">
         <v>45926</v>
@@ -3195,7 +3336,9 @@
       <c r="H79" t="s">
         <v>14</v>
       </c>
-      <c r="I79" s="2"/>
+      <c r="I79" s="2" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
@@ -3205,16 +3348,16 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D80" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G80" s="1">
         <v>45926</v>
@@ -3222,7 +3365,9 @@
       <c r="H80" t="s">
         <v>14</v>
       </c>
-      <c r="I80" s="2"/>
+      <c r="I80" s="2" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
@@ -3232,16 +3377,16 @@
         <v>11</v>
       </c>
       <c r="C81" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E81" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F81" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G81" s="1">
         <v>45926</v>
@@ -3249,7 +3394,9 @@
       <c r="H81" t="s">
         <v>14</v>
       </c>
-      <c r="I81" s="2"/>
+      <c r="I81" s="2" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
@@ -3259,16 +3406,16 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="G82" s="1">
         <v>45926</v>
@@ -3276,7 +3423,9 @@
       <c r="H82" t="s">
         <v>14</v>
       </c>
-      <c r="I82" s="2"/>
+      <c r="I82" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
@@ -3286,16 +3435,16 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E83" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F83" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G83" s="1">
         <v>45926</v>
@@ -3303,7 +3452,9 @@
       <c r="H83" t="s">
         <v>14</v>
       </c>
-      <c r="I83" s="2"/>
+      <c r="I83" s="2" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
@@ -3313,16 +3464,16 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D84" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E84" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G84" s="1">
         <v>45926</v>
@@ -3330,7 +3481,9 @@
       <c r="H84" t="s">
         <v>14</v>
       </c>
-      <c r="I84" s="2"/>
+      <c r="I84" s="2" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -3340,16 +3493,16 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E85" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="F85" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G85" s="1">
         <v>45926</v>
@@ -3357,7 +3510,9 @@
       <c r="H85" t="s">
         <v>14</v>
       </c>
-      <c r="I85" s="2"/>
+      <c r="I85" s="2" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -3367,16 +3522,16 @@
         <v>11</v>
       </c>
       <c r="C86" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>123</v>
-      </c>
       <c r="E86" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F86" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G86" s="1">
         <v>45926</v>
@@ -3384,142 +3539,9 @@
       <c r="H86" t="s">
         <v>14</v>
       </c>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>10</v>
-      </c>
-      <c r="B87" t="s">
-        <v>11</v>
-      </c>
-      <c r="C87" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E87" t="s">
-        <v>24</v>
-      </c>
-      <c r="F87" t="s">
-        <v>137</v>
-      </c>
-      <c r="G87" s="1">
-        <v>45926</v>
-      </c>
-      <c r="H87" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>10</v>
-      </c>
-      <c r="B88" t="s">
-        <v>11</v>
-      </c>
-      <c r="C88" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" t="s">
-        <v>138</v>
-      </c>
-      <c r="F88" t="s">
-        <v>139</v>
-      </c>
-      <c r="G88" s="1">
-        <v>45926</v>
-      </c>
-      <c r="H88" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" t="s">
-        <v>122</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E89" t="s">
-        <v>98</v>
-      </c>
-      <c r="F89" t="s">
-        <v>140</v>
-      </c>
-      <c r="G89" s="1">
-        <v>45926</v>
-      </c>
-      <c r="H89" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" t="s">
-        <v>122</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E90" t="s">
-        <v>141</v>
-      </c>
-      <c r="F90" t="s">
-        <v>142</v>
-      </c>
-      <c r="G90" s="1">
-        <v>45926</v>
-      </c>
-      <c r="H90" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>10</v>
-      </c>
-      <c r="B91" t="s">
-        <v>11</v>
-      </c>
-      <c r="C91" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E91" t="s">
-        <v>143</v>
-      </c>
-      <c r="F91" t="s">
-        <v>144</v>
-      </c>
-      <c r="G91" s="1">
-        <v>45926</v>
-      </c>
-      <c r="H91" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" s="2"/>
+      <c r="I86" s="2" t="s">
+        <v>201</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3550,8 +3572,24 @@
     <hyperlink ref="I36" r:id="rId24" xr:uid="{847CE476-4072-4493-9EBD-C78D7920893E}"/>
     <hyperlink ref="I40" r:id="rId25" xr:uid="{729BEF0B-AAE8-48CF-9093-019407721740}"/>
     <hyperlink ref="I38" r:id="rId26" xr:uid="{8E87ED99-8FCD-45EB-87E8-885DBF7788D5}"/>
+    <hyperlink ref="I44" r:id="rId27" xr:uid="{8FEED55C-0334-4536-935C-951FA605AEA2}"/>
+    <hyperlink ref="I54" r:id="rId28" xr:uid="{7741B471-6F04-4E55-8F42-AC140D41C617}"/>
+    <hyperlink ref="I55" r:id="rId29" xr:uid="{77F73056-AF29-4ED8-ADDF-D2B4D2151D1D}"/>
+    <hyperlink ref="I56" r:id="rId30" xr:uid="{3DC44B66-0679-431C-A176-832159B89AFA}"/>
+    <hyperlink ref="I58" r:id="rId31" xr:uid="{3771A3DA-2833-4732-87CB-56B5008CE18B}"/>
+    <hyperlink ref="I60" r:id="rId32" xr:uid="{FD344757-07FD-4880-9DC5-B5EE6DE34D50}"/>
+    <hyperlink ref="I61" r:id="rId33" xr:uid="{D9E7D4AD-FB74-4F4A-B5CC-963F291EDB4C}"/>
+    <hyperlink ref="I62" r:id="rId34" xr:uid="{3F0B8942-8344-48DE-BA59-8E4DF4564879}"/>
+    <hyperlink ref="I65" r:id="rId35" xr:uid="{9E02B4D4-5C9D-4C27-BF8F-17295E3DE5DE}"/>
+    <hyperlink ref="I66" r:id="rId36" xr:uid="{2598BB26-7B1A-4A0B-BFFA-BB96ECF513F3}"/>
+    <hyperlink ref="I68" r:id="rId37" xr:uid="{3EBDE845-54D5-4184-BBB8-4C37EB3147E6}"/>
+    <hyperlink ref="I72" r:id="rId38" xr:uid="{67EEE101-1260-441C-B732-C975863ED09D}"/>
+    <hyperlink ref="I74" r:id="rId39" xr:uid="{C7746F24-5EC7-4752-A5B8-CC0E8E3A482C}"/>
+    <hyperlink ref="I79" r:id="rId40" xr:uid="{1C50B6F1-C0C6-4EA9-88A7-01B1CE7B0682}"/>
+    <hyperlink ref="I83" r:id="rId41" xr:uid="{9D08E2B4-1C71-4100-93AC-DD19F01026CA}"/>
+    <hyperlink ref="I84" r:id="rId42" xr:uid="{D7B65689-F64B-46BD-9AF0-3A6B04B5ED94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId43"/>
 </worksheet>
 </file>
--- a/data/ResponsablesPorProyecto.xlsx
+++ b/data/ResponsablesPorProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta Stre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EC3B81-3D1F-4277-9CD0-3E375A958B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB25EC-F898-4A5C-B7ED-51F75B7FE6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="3180" windowWidth="20730" windowHeight="11040" xr2:uid="{604496A0-D183-4F1C-9231-CF0B6CEC983F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="306">
   <si>
     <t>Sucursal</t>
   </si>
@@ -95,6 +95,9 @@
     <t>Tres Quebradas</t>
   </si>
   <si>
+    <t>La Peña</t>
+  </si>
+  <si>
     <t>fabian enrique gutierrez tole</t>
   </si>
   <si>
@@ -407,6 +410,9 @@
     <t>2848351000</t>
   </si>
   <si>
+    <t>Practicante Lean</t>
+  </si>
+  <si>
     <t>edith tatiana prieto cuevas</t>
   </si>
   <si>
@@ -434,6 +440,9 @@
     <t>david esteban yate bastidas</t>
   </si>
   <si>
+    <t>oscar javier serrano raba</t>
+  </si>
+  <si>
     <t>juan pablo charry lopez</t>
   </si>
   <si>
@@ -642,6 +651,309 @@
   </si>
   <si>
     <t>avargasc@marval.com.co</t>
+  </si>
+  <si>
+    <t>Izola Zentral-citizzen</t>
+  </si>
+  <si>
+    <t>Zentral</t>
+  </si>
+  <si>
+    <t>2498501000</t>
+  </si>
+  <si>
+    <t>maicol david sanchez ortiz</t>
+  </si>
+  <si>
+    <t>jonatan camilo lopez molina</t>
+  </si>
+  <si>
+    <t>leslie nicole devia riaño</t>
+  </si>
+  <si>
+    <t>carlos mario bonilla martin</t>
+  </si>
+  <si>
+    <t>jose alfredo jimenez bernal</t>
+  </si>
+  <si>
+    <t>luz marisol rojas guepud</t>
+  </si>
+  <si>
+    <t>La Almeria Alsacia Reservado</t>
+  </si>
+  <si>
+    <t>Alsacia Reservado</t>
+  </si>
+  <si>
+    <t>2079601000</t>
+  </si>
+  <si>
+    <t>john alfredo ceron castro</t>
+  </si>
+  <si>
+    <t>diego armando maldonado gutierrez</t>
+  </si>
+  <si>
+    <t>Programador de obra</t>
+  </si>
+  <si>
+    <t>christian david nieto taborda</t>
+  </si>
+  <si>
+    <t>jaime luis guillot bermudez</t>
+  </si>
+  <si>
+    <t>fredy santiago rubiano alzate</t>
+  </si>
+  <si>
+    <t>hayling enerieth parra prieto</t>
+  </si>
+  <si>
+    <t>ana maria marroquin rincon</t>
+  </si>
+  <si>
+    <t>michelle lisset morales mora</t>
+  </si>
+  <si>
+    <t>cristian daniel peralta gomez</t>
+  </si>
+  <si>
+    <t>Ingeniero Lean 2</t>
+  </si>
+  <si>
+    <t>daniela patricia herrera melendez</t>
+  </si>
+  <si>
+    <t>christian camilo gonzalez acosta</t>
+  </si>
+  <si>
+    <t>Director de obra #2</t>
+  </si>
+  <si>
+    <t>victor manuel chiquiza ariza</t>
+  </si>
+  <si>
+    <t>sandra patricia porras torres</t>
+  </si>
+  <si>
+    <t>andres felipe borrero prado</t>
+  </si>
+  <si>
+    <t>Practicante de Interventoría #1</t>
+  </si>
+  <si>
+    <t>Inspector preentrega</t>
+  </si>
+  <si>
+    <t>ricardo tinjaca luna</t>
+  </si>
+  <si>
+    <t>Residente de control e interventoría</t>
+  </si>
+  <si>
+    <t>leidi paola rincon hernandez</t>
+  </si>
+  <si>
+    <t>Residente de acabados</t>
+  </si>
+  <si>
+    <t>jenny paola quintero hernandez</t>
+  </si>
+  <si>
+    <t>judy carolina villanueva sandoval</t>
+  </si>
+  <si>
+    <t>La Cabrera</t>
+  </si>
+  <si>
+    <t>2080501000</t>
+  </si>
+  <si>
+    <t>edwin andrey cogua garzon</t>
+  </si>
+  <si>
+    <t>miguel german poveda rivera</t>
+  </si>
+  <si>
+    <t>juston robin leal narvaez</t>
+  </si>
+  <si>
+    <t>angel david rodríguez martínez</t>
+  </si>
+  <si>
+    <t>juan camilo bejarano suescun</t>
+  </si>
+  <si>
+    <t>fabio alberto castiblanco barrera</t>
+  </si>
+  <si>
+    <t>nestor andres tibata botero</t>
+  </si>
+  <si>
+    <t>eduard andres ayala gongora</t>
+  </si>
+  <si>
+    <t>camila astrid gamez joaqui</t>
+  </si>
+  <si>
+    <t>Director de compras</t>
+  </si>
+  <si>
+    <t>edisson giovanny herrera soto</t>
+  </si>
+  <si>
+    <t>camilo sneyder parra beltran</t>
+  </si>
+  <si>
+    <t>Equipo MARVAL</t>
+  </si>
+  <si>
+    <t>La Cruz</t>
+  </si>
+  <si>
+    <t>2080631000</t>
+  </si>
+  <si>
+    <t>julian mauricio ramirez alba</t>
+  </si>
+  <si>
+    <t>jhessica viviana ospina vaquiro</t>
+  </si>
+  <si>
+    <t>brayan stiven veloza fonseca</t>
+  </si>
+  <si>
+    <t>maria alejandra jurado herrera</t>
+  </si>
+  <si>
+    <t>tabata andrea hernandez acosta</t>
+  </si>
+  <si>
+    <t>La Palma</t>
+  </si>
+  <si>
+    <t>2080131000</t>
+  </si>
+  <si>
+    <t>rafael ernesto paez vargas</t>
+  </si>
+  <si>
+    <t>vanessa hurtado cuervo</t>
+  </si>
+  <si>
+    <t>jeimy katherin tibocha</t>
+  </si>
+  <si>
+    <t>michelle stefann vivas leiton</t>
+  </si>
+  <si>
+    <t>diego alexander acosta garcia</t>
+  </si>
+  <si>
+    <t>vanessa nicole bolivar muñoz</t>
+  </si>
+  <si>
+    <t>Director Sucursal CPC</t>
+  </si>
+  <si>
+    <t>elkin manuel osorio carmona</t>
+  </si>
+  <si>
+    <t>lesli yarelis hidalgo martinez</t>
+  </si>
+  <si>
+    <t>daniela andrea rodriguez beltran</t>
+  </si>
+  <si>
+    <t>2080331000</t>
+  </si>
+  <si>
+    <t>josé alejandro barcenas moreno</t>
+  </si>
+  <si>
+    <t>jhonatan stiven castañeda zapata</t>
+  </si>
+  <si>
+    <t>enrique jose orozco lemus</t>
+  </si>
+  <si>
+    <t>karol vanessa avila prieto</t>
+  </si>
+  <si>
+    <t>lorena isabel suesca castiblanco</t>
+  </si>
+  <si>
+    <t>jineth candia marin</t>
+  </si>
+  <si>
+    <t>alba yobjana mejía ruiz</t>
+  </si>
+  <si>
+    <t>diego mauricio ordoñez guarin</t>
+  </si>
+  <si>
+    <t>Auxiliar de almacén</t>
+  </si>
+  <si>
+    <t>fabian barrera nagles</t>
+  </si>
+  <si>
+    <t>laura nallely carrillo rodriguez</t>
+  </si>
+  <si>
+    <t>diana catalina rocha chaparro</t>
+  </si>
+  <si>
+    <t>Analista de compras, maquinaria y equipo</t>
+  </si>
+  <si>
+    <t>La Scala</t>
+  </si>
+  <si>
+    <t>2737201000</t>
+  </si>
+  <si>
+    <t>javier manuel gonzalez angulo</t>
+  </si>
+  <si>
+    <t>omar andres hernandez martinez</t>
+  </si>
+  <si>
+    <t>ana isabel almanza triviño</t>
+  </si>
+  <si>
+    <t>laura nataly vera molano</t>
+  </si>
+  <si>
+    <t>john hector calderon rangel</t>
+  </si>
+  <si>
+    <t>Coordinador FCA</t>
+  </si>
+  <si>
+    <t>luis andres plata gutierrez</t>
+  </si>
+  <si>
+    <t>eduardo elias berardinelli roldan</t>
+  </si>
+  <si>
+    <t>julio cesar ruiz diaz</t>
+  </si>
+  <si>
+    <t>La Terra Alsacia Reservado</t>
+  </si>
+  <si>
+    <t>2079501000</t>
+  </si>
+  <si>
+    <t>fredy mauricio novoa garcia</t>
+  </si>
+  <si>
+    <t>andreina sanchez baez</t>
+  </si>
+  <si>
+    <t>geraldine andrea restrepo prieto</t>
   </si>
 </sst>
 </file>
@@ -1037,22 +1349,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6159B3B9-18EB-4717-835D-3E6B72934C17}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:J229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="F219" sqref="F219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="6.77734375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.77734375" customWidth="1"/>
     <col min="9" max="9" width="26.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1106,7 +1418,7 @@
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1">
         <v>45926</v>
@@ -1132,10 +1444,10 @@
         <v>2848401000</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1">
         <v>45926</v>
@@ -1144,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1161,10 +1473,10 @@
         <v>2848401000</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1">
         <v>45926</v>
@@ -1173,7 +1485,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1190,10 +1502,10 @@
         <v>2848401000</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1">
         <v>45926</v>
@@ -1202,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1219,10 +1531,10 @@
         <v>2848401000</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1">
         <v>45926</v>
@@ -1231,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1248,10 +1560,10 @@
         <v>2848401000</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1">
         <v>45926</v>
@@ -1260,7 +1572,7 @@
         <v>14</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1277,10 +1589,10 @@
         <v>2848401000</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" s="1">
         <v>45926</v>
@@ -1289,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1306,10 +1618,10 @@
         <v>2848401000</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" s="1">
         <v>45926</v>
@@ -1318,7 +1630,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1335,10 +1647,10 @@
         <v>2848401000</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1">
         <v>45926</v>
@@ -1347,7 +1659,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1367,7 +1679,7 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1">
         <v>45926</v>
@@ -1393,10 +1705,10 @@
         <v>2848401000</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1">
         <v>45926</v>
@@ -1405,7 +1717,7 @@
         <v>14</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1422,10 +1734,10 @@
         <v>2848401000</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1">
         <v>45926</v>
@@ -1434,7 +1746,7 @@
         <v>14</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1451,10 +1763,10 @@
         <v>2848401000</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G14" s="1">
         <v>45926</v>
@@ -1463,7 +1775,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1480,10 +1792,10 @@
         <v>2848401000</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15" s="1">
         <v>45926</v>
@@ -1492,7 +1804,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1509,10 +1821,10 @@
         <v>2848401000</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1">
         <v>45926</v>
@@ -1521,7 +1833,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1532,16 +1844,16 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1">
         <v>45926</v>
@@ -1550,7 +1862,7 @@
         <v>14</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -1561,16 +1873,16 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="1">
         <v>45926</v>
@@ -1579,7 +1891,7 @@
         <v>14</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
@@ -1590,16 +1902,16 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19" s="1">
         <v>45926</v>
@@ -1608,7 +1920,7 @@
         <v>14</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1619,16 +1931,16 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G20" s="1">
         <v>45926</v>
@@ -1637,7 +1949,7 @@
         <v>14</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1648,16 +1960,16 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G21" s="1">
         <v>45926</v>
@@ -1666,7 +1978,7 @@
         <v>14</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
@@ -1677,16 +1989,16 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G22" s="1">
         <v>45926</v>
@@ -1695,7 +2007,7 @@
         <v>14</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1706,16 +2018,16 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1">
         <v>45926</v>
@@ -1724,7 +2036,7 @@
         <v>14</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
@@ -1735,16 +2047,16 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G24" s="1">
         <v>45926</v>
@@ -1762,16 +2074,16 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G25" s="1">
         <v>45926</v>
@@ -1780,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
@@ -1791,17 +2103,17 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" t="s">
-        <v>46</v>
-      </c>
       <c r="G26" s="1">
         <v>45926</v>
       </c>
@@ -1809,7 +2121,7 @@
         <v>14</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
@@ -1820,16 +2132,16 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G27" s="1">
         <v>45926</v>
@@ -1838,7 +2150,7 @@
         <v>14</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
@@ -1849,16 +2161,16 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G28" s="1">
         <v>45926</v>
@@ -1867,7 +2179,7 @@
         <v>14</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
@@ -1878,16 +2190,16 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G29" s="1">
         <v>45926</v>
@@ -1896,7 +2208,7 @@
         <v>14</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -1907,16 +2219,16 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G30" s="1">
         <v>45926</v>
@@ -1925,7 +2237,7 @@
         <v>14</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -1936,16 +2248,16 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G31" s="1">
         <v>45926</v>
@@ -1954,7 +2266,7 @@
         <v>14</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
@@ -1965,16 +2277,16 @@
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" s="1">
         <v>45926</v>
@@ -1983,7 +2295,7 @@
         <v>14</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -1994,16 +2306,16 @@
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" s="1">
         <v>45926</v>
@@ -2012,7 +2324,7 @@
         <v>14</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -2023,16 +2335,16 @@
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G34" s="1">
         <v>45926</v>
@@ -2041,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
@@ -2052,16 +2364,16 @@
         <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G35" s="1">
         <v>45926</v>
@@ -2070,7 +2382,7 @@
         <v>14</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
@@ -2081,16 +2393,16 @@
         <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G36" s="1">
         <v>45926</v>
@@ -2099,7 +2411,7 @@
         <v>14</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
@@ -2110,16 +2422,16 @@
         <v>18</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G37" s="1">
         <v>45926</v>
@@ -2128,7 +2440,7 @@
         <v>14</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
@@ -2139,16 +2451,16 @@
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G38" s="1">
         <v>45926</v>
@@ -2157,7 +2469,7 @@
         <v>14</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -2168,16 +2480,16 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G39" s="1">
         <v>45926</v>
@@ -2186,7 +2498,7 @@
         <v>14</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -2197,16 +2509,16 @@
         <v>18</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G40" s="1">
         <v>45926</v>
@@ -2215,7 +2527,7 @@
         <v>14</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -2226,16 +2538,16 @@
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G41" s="1">
         <v>45926</v>
@@ -2244,7 +2556,7 @@
         <v>14</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2255,16 +2567,16 @@
         <v>18</v>
       </c>
       <c r="C42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G42" s="1">
         <v>45926</v>
@@ -2273,7 +2585,7 @@
         <v>14</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -2284,16 +2596,16 @@
         <v>18</v>
       </c>
       <c r="C43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1">
         <v>45926</v>
@@ -2311,16 +2623,16 @@
         <v>18</v>
       </c>
       <c r="C44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G44" s="1">
         <v>45926</v>
@@ -2329,7 +2641,7 @@
         <v>14</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
@@ -2340,16 +2652,16 @@
         <v>18</v>
       </c>
       <c r="C45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G45" s="1">
         <v>45926</v>
@@ -2367,16 +2679,16 @@
         <v>18</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G46" s="1">
         <v>45926</v>
@@ -2385,7 +2697,7 @@
         <v>14</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -2396,16 +2708,16 @@
         <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G47" s="1">
         <v>45926</v>
@@ -2414,7 +2726,7 @@
         <v>14</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -2425,16 +2737,16 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G48" s="1">
         <v>45926</v>
@@ -2443,7 +2755,7 @@
         <v>14</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -2454,16 +2766,16 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G49" s="1">
         <v>45926</v>
@@ -2472,7 +2784,7 @@
         <v>14</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -2483,16 +2795,16 @@
         <v>18</v>
       </c>
       <c r="C50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G50" s="1">
         <v>45926</v>
@@ -2501,7 +2813,7 @@
         <v>14</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -2512,16 +2824,16 @@
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G51" s="1">
         <v>45926</v>
@@ -2530,7 +2842,7 @@
         <v>14</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -2541,16 +2853,16 @@
         <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G52" s="1">
         <v>45926</v>
@@ -2559,7 +2871,7 @@
         <v>14</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -2570,16 +2882,16 @@
         <v>18</v>
       </c>
       <c r="C53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G53" s="1">
         <v>45926</v>
@@ -2588,7 +2900,7 @@
         <v>14</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -2599,16 +2911,16 @@
         <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G54" s="1">
         <v>45926</v>
@@ -2617,7 +2929,7 @@
         <v>14</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
@@ -2628,16 +2940,16 @@
         <v>18</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G55" s="1">
         <v>45926</v>
@@ -2646,7 +2958,7 @@
         <v>14</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
@@ -2654,19 +2966,19 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" t="s">
         <v>109</v>
       </c>
-      <c r="C56" t="s">
-        <v>108</v>
-      </c>
       <c r="D56" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G56" s="1">
         <v>45926</v>
@@ -2675,7 +2987,7 @@
         <v>14</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
@@ -2683,19 +2995,19 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
         <v>109</v>
       </c>
-      <c r="C57" t="s">
-        <v>108</v>
-      </c>
       <c r="D57" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F57" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G57" s="1">
         <v>45926</v>
@@ -2704,7 +3016,7 @@
         <v>14</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
@@ -2712,19 +3024,19 @@
         <v>10</v>
       </c>
       <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
         <v>109</v>
       </c>
-      <c r="C58" t="s">
-        <v>108</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E58" t="s">
         <v>13</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G58" s="1">
         <v>45926</v>
@@ -2733,7 +3045,7 @@
         <v>14</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2741,19 +3053,19 @@
         <v>10</v>
       </c>
       <c r="B59" t="s">
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
         <v>109</v>
       </c>
-      <c r="C59" t="s">
-        <v>108</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G59" s="1">
         <v>45926</v>
@@ -2762,7 +3074,7 @@
         <v>14</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
@@ -2770,19 +3082,19 @@
         <v>10</v>
       </c>
       <c r="B60" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" t="s">
         <v>109</v>
       </c>
-      <c r="C60" t="s">
-        <v>108</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G60" s="1">
         <v>45926</v>
@@ -2791,7 +3103,7 @@
         <v>14</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
@@ -2799,19 +3111,19 @@
         <v>10</v>
       </c>
       <c r="B61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C61" t="s">
         <v>109</v>
       </c>
-      <c r="C61" t="s">
-        <v>108</v>
-      </c>
       <c r="D61" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G61" s="1">
         <v>45926</v>
@@ -2820,7 +3132,7 @@
         <v>14</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
@@ -2828,19 +3140,19 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" t="s">
         <v>109</v>
       </c>
-      <c r="C62" t="s">
-        <v>108</v>
-      </c>
       <c r="D62" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G62" s="1">
         <v>45926</v>
@@ -2849,7 +3161,7 @@
         <v>14</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
@@ -2857,19 +3169,19 @@
         <v>10</v>
       </c>
       <c r="B63" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" t="s">
         <v>109</v>
       </c>
-      <c r="C63" t="s">
-        <v>108</v>
-      </c>
       <c r="D63" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F63" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G63" s="1">
         <v>45926</v>
@@ -2878,7 +3190,7 @@
         <v>14</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2886,16 +3198,16 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
+        <v>110</v>
+      </c>
+      <c r="C64" t="s">
         <v>109</v>
       </c>
-      <c r="C64" t="s">
-        <v>108</v>
-      </c>
       <c r="D64" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E64" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G64" s="1">
         <v>45926</v>
@@ -2910,19 +3222,19 @@
         <v>10</v>
       </c>
       <c r="B65" t="s">
+        <v>110</v>
+      </c>
+      <c r="C65" t="s">
         <v>109</v>
       </c>
-      <c r="C65" t="s">
-        <v>108</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F65" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G65" s="1">
         <v>45926</v>
@@ -2931,7 +3243,7 @@
         <v>14</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
@@ -2939,19 +3251,19 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" t="s">
         <v>109</v>
       </c>
-      <c r="C66" t="s">
-        <v>108</v>
-      </c>
       <c r="D66" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E66" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G66" s="1">
         <v>45926</v>
@@ -2960,7 +3272,7 @@
         <v>14</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
@@ -2968,19 +3280,19 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" t="s">
         <v>109</v>
       </c>
-      <c r="C67" t="s">
-        <v>108</v>
-      </c>
       <c r="D67" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E67" t="s">
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G67" s="1">
         <v>45926</v>
@@ -2989,7 +3301,7 @@
         <v>14</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
@@ -2997,19 +3309,19 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" t="s">
         <v>109</v>
       </c>
-      <c r="C68" t="s">
-        <v>108</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G68" s="1">
         <v>45926</v>
@@ -3018,7 +3330,7 @@
         <v>14</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
@@ -3026,19 +3338,19 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" t="s">
         <v>109</v>
       </c>
-      <c r="C69" t="s">
-        <v>108</v>
-      </c>
       <c r="D69" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G69" s="1">
         <v>45926</v>
@@ -3047,7 +3359,7 @@
         <v>14</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
@@ -3055,19 +3367,19 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" t="s">
         <v>109</v>
       </c>
-      <c r="C70" t="s">
-        <v>108</v>
-      </c>
       <c r="D70" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E70" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F70" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G70" s="1">
         <v>45926</v>
@@ -3076,7 +3388,7 @@
         <v>14</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
@@ -3087,16 +3399,16 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E71" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F71" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G71" s="1">
         <v>45926</v>
@@ -3105,7 +3417,7 @@
         <v>14</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
@@ -3116,16 +3428,16 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E72" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72" s="1">
         <v>45926</v>
@@ -3134,7 +3446,7 @@
         <v>14</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -3145,16 +3457,16 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G73" s="1">
         <v>45926</v>
@@ -3163,7 +3475,7 @@
         <v>14</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
@@ -3174,16 +3486,16 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E74" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G74" s="1">
         <v>45926</v>
@@ -3192,7 +3504,7 @@
         <v>14</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
@@ -3203,16 +3515,16 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G75" s="1">
         <v>45926</v>
@@ -3221,7 +3533,7 @@
         <v>14</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
@@ -3232,16 +3544,16 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E76" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F76" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G76" s="1">
         <v>45926</v>
@@ -3250,7 +3562,7 @@
         <v>14</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
@@ -3261,16 +3573,16 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G77" s="1">
         <v>45926</v>
@@ -3279,7 +3591,7 @@
         <v>14</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
@@ -3290,16 +3602,16 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G78" s="1">
         <v>45926</v>
@@ -3308,7 +3620,7 @@
         <v>14</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
@@ -3319,16 +3631,16 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E79" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F79" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G79" s="1">
         <v>45926</v>
@@ -3337,7 +3649,7 @@
         <v>14</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
@@ -3348,16 +3660,16 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E80" t="s">
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G80" s="1">
         <v>45926</v>
@@ -3366,7 +3678,7 @@
         <v>14</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
@@ -3377,16 +3689,16 @@
         <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F81" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G81" s="1">
         <v>45926</v>
@@ -3395,7 +3707,7 @@
         <v>14</v>
       </c>
       <c r="I81" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
@@ -3406,16 +3718,16 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F82" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G82" s="1">
         <v>45926</v>
@@ -3424,7 +3736,7 @@
         <v>14</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
@@ -3435,16 +3747,16 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E83" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F83" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G83" s="1">
         <v>45926</v>
@@ -3453,7 +3765,7 @@
         <v>14</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
@@ -3464,16 +3776,16 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E84" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F84" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G84" s="1">
         <v>45926</v>
@@ -3482,7 +3794,7 @@
         <v>14</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
@@ -3493,16 +3805,16 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E85" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F85" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G85" s="1">
         <v>45926</v>
@@ -3511,7 +3823,7 @@
         <v>14</v>
       </c>
       <c r="I85" s="2" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
@@ -3522,25 +3834,3752 @@
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E86" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F86" t="s">
+        <v>142</v>
+      </c>
+      <c r="G86" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" t="s">
+        <v>206</v>
+      </c>
+      <c r="C87" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E87" t="s">
+        <v>29</v>
+      </c>
+      <c r="F87" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" t="s">
+        <v>205</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E88" t="s">
+        <v>84</v>
+      </c>
+      <c r="F88" t="s">
+        <v>128</v>
+      </c>
+      <c r="G88" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H88" t="s">
+        <v>14</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" t="s">
+        <v>205</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
+        <v>208</v>
+      </c>
+      <c r="G89" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>206</v>
+      </c>
+      <c r="C90" t="s">
+        <v>205</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E90" t="s">
+        <v>21</v>
+      </c>
+      <c r="F90" t="s">
+        <v>209</v>
+      </c>
+      <c r="G90" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" t="s">
+        <v>205</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>126</v>
+      </c>
+      <c r="G91" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H91" t="s">
+        <v>14</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>10</v>
+      </c>
+      <c r="B92" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" t="s">
+        <v>31</v>
+      </c>
+      <c r="F92" t="s">
+        <v>32</v>
+      </c>
+      <c r="G92" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H92" t="s">
+        <v>14</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>206</v>
+      </c>
+      <c r="C93" t="s">
+        <v>205</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" t="s">
+        <v>33</v>
+      </c>
+      <c r="F93" t="s">
+        <v>210</v>
+      </c>
+      <c r="G93" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B94" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94" t="s">
+        <v>211</v>
+      </c>
+      <c r="G94" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>10</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" t="s">
+        <v>205</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E95" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" t="s">
+        <v>212</v>
+      </c>
+      <c r="G95" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>206</v>
+      </c>
+      <c r="C96" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E96" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96" t="s">
+        <v>213</v>
+      </c>
+      <c r="G96" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" t="s">
+        <v>215</v>
+      </c>
+      <c r="C97" t="s">
+        <v>214</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
+        <v>217</v>
+      </c>
+      <c r="G97" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H97" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" t="s">
+        <v>215</v>
+      </c>
+      <c r="C98" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E98" t="s">
+        <v>21</v>
+      </c>
+      <c r="F98" t="s">
+        <v>218</v>
+      </c>
+      <c r="G98" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>10</v>
+      </c>
+      <c r="B99" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99" t="s">
+        <v>214</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E99" t="s">
+        <v>219</v>
+      </c>
+      <c r="F99" t="s">
+        <v>220</v>
+      </c>
+      <c r="G99" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>10</v>
+      </c>
+      <c r="B100" t="s">
+        <v>215</v>
+      </c>
+      <c r="C100" t="s">
+        <v>214</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E100" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100" t="s">
+        <v>221</v>
+      </c>
+      <c r="G100" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E101" t="s">
+        <v>33</v>
+      </c>
+      <c r="F101" t="s">
+        <v>222</v>
+      </c>
+      <c r="G101" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H101" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" t="s">
+        <v>215</v>
+      </c>
+      <c r="C102" t="s">
+        <v>214</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E102" t="s">
+        <v>35</v>
+      </c>
+      <c r="F102" t="s">
+        <v>223</v>
+      </c>
+      <c r="G102" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" t="s">
+        <v>215</v>
+      </c>
+      <c r="C103" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>224</v>
+      </c>
+      <c r="G103" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" t="s">
+        <v>215</v>
+      </c>
+      <c r="C104" t="s">
+        <v>214</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E104" t="s">
+        <v>124</v>
+      </c>
+      <c r="F104" t="s">
+        <v>225</v>
+      </c>
+      <c r="G104" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>215</v>
+      </c>
+      <c r="C105" t="s">
+        <v>214</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E105" t="s">
+        <v>23</v>
+      </c>
+      <c r="F105" t="s">
+        <v>226</v>
+      </c>
+      <c r="G105" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>10</v>
+      </c>
+      <c r="B106" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" t="s">
+        <v>107</v>
+      </c>
+      <c r="F106" t="s">
+        <v>32</v>
+      </c>
+      <c r="G106" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H106" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>10</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="s">
+        <v>214</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E107" t="s">
+        <v>227</v>
+      </c>
+      <c r="F107" t="s">
+        <v>228</v>
+      </c>
+      <c r="G107" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H107" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>126</v>
+      </c>
+      <c r="G108" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" t="s">
+        <v>214</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E109" t="s">
+        <v>29</v>
+      </c>
+      <c r="F109" t="s">
+        <v>30</v>
+      </c>
+      <c r="G109" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B110" t="s">
+        <v>215</v>
+      </c>
+      <c r="C110" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E110" t="s">
+        <v>120</v>
+      </c>
+      <c r="F110" t="s">
+        <v>134</v>
+      </c>
+      <c r="G110" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" t="s">
+        <v>214</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E111" t="s">
+        <v>84</v>
+      </c>
+      <c r="F111" t="s">
+        <v>128</v>
+      </c>
+      <c r="G111" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>215</v>
+      </c>
+      <c r="C112" t="s">
+        <v>214</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E112" t="s">
+        <v>61</v>
+      </c>
+      <c r="F112" t="s">
+        <v>229</v>
+      </c>
+      <c r="G112" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B113" t="s">
+        <v>215</v>
+      </c>
+      <c r="C113" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E113" t="s">
+        <v>31</v>
+      </c>
+      <c r="F113" t="s">
+        <v>32</v>
+      </c>
+      <c r="G113" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B114" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" t="s">
+        <v>214</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E114" t="s">
+        <v>230</v>
+      </c>
+      <c r="F114" t="s">
+        <v>231</v>
+      </c>
+      <c r="G114" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" t="s">
+        <v>215</v>
+      </c>
+      <c r="C115" t="s">
+        <v>214</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E115" t="s">
+        <v>99</v>
+      </c>
+      <c r="F115" t="s">
+        <v>232</v>
+      </c>
+      <c r="G115" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" t="s">
+        <v>215</v>
+      </c>
+      <c r="C116" t="s">
+        <v>214</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E116" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" t="s">
+        <v>215</v>
+      </c>
+      <c r="C117" t="s">
+        <v>214</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E117" t="s">
+        <v>141</v>
+      </c>
+      <c r="F117" t="s">
+        <v>233</v>
+      </c>
+      <c r="G117" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" t="s">
+        <v>215</v>
+      </c>
+      <c r="C118" t="s">
+        <v>214</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E118" t="s">
+        <v>234</v>
+      </c>
+      <c r="F118" t="s">
+        <v>229</v>
+      </c>
+      <c r="G118" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B119" t="s">
+        <v>215</v>
+      </c>
+      <c r="C119" t="s">
+        <v>214</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E119" t="s">
+        <v>235</v>
+      </c>
+      <c r="F119" t="s">
+        <v>236</v>
+      </c>
+      <c r="G119" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" t="s">
+        <v>215</v>
+      </c>
+      <c r="C120" t="s">
+        <v>214</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E120" t="s">
+        <v>237</v>
+      </c>
+      <c r="F120" t="s">
+        <v>238</v>
+      </c>
+      <c r="G120" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>215</v>
+      </c>
+      <c r="C121" t="s">
+        <v>214</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E121" t="s">
+        <v>239</v>
+      </c>
+      <c r="F121" t="s">
+        <v>240</v>
+      </c>
+      <c r="G121" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" t="s">
+        <v>215</v>
+      </c>
+      <c r="C122" t="s">
+        <v>214</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E122" t="s">
+        <v>90</v>
+      </c>
+      <c r="F122" t="s">
+        <v>241</v>
+      </c>
+      <c r="G122" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" t="s">
+        <v>242</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E123" t="s">
+        <v>29</v>
+      </c>
+      <c r="F123" t="s">
+        <v>83</v>
+      </c>
+      <c r="G123" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" t="s">
+        <v>242</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
+        <v>244</v>
+      </c>
+      <c r="G124" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B125" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" t="s">
+        <v>242</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E125" t="s">
+        <v>31</v>
+      </c>
+      <c r="F125" t="s">
+        <v>32</v>
+      </c>
+      <c r="G125" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" t="s">
+        <v>242</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E126" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" t="s">
+        <v>245</v>
+      </c>
+      <c r="G126" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>10</v>
+      </c>
+      <c r="B127" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" t="s">
+        <v>242</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E127" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" t="s">
+        <v>246</v>
+      </c>
+      <c r="G127" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" t="s">
+        <v>242</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E128" t="s">
+        <v>23</v>
+      </c>
+      <c r="F128" t="s">
+        <v>247</v>
+      </c>
+      <c r="G128" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>10</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" t="s">
+        <v>242</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E129" t="s">
+        <v>61</v>
+      </c>
+      <c r="F129" t="s">
+        <v>248</v>
+      </c>
+      <c r="G129" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>10</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" t="s">
+        <v>242</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E130" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130" t="s">
+        <v>249</v>
+      </c>
+      <c r="G130" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H130" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" t="s">
+        <v>242</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E131" t="s">
+        <v>120</v>
+      </c>
+      <c r="F131" t="s">
+        <v>250</v>
+      </c>
+      <c r="G131" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" t="s">
+        <v>242</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E132" t="s">
+        <v>33</v>
+      </c>
+      <c r="F132" t="s">
+        <v>251</v>
+      </c>
+      <c r="G132" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" t="s">
+        <v>242</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E133" t="s">
+        <v>35</v>
+      </c>
+      <c r="F133" t="s">
+        <v>252</v>
+      </c>
+      <c r="G133" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>10</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" t="s">
+        <v>242</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E134" t="s">
+        <v>44</v>
+      </c>
+      <c r="F134" t="s">
+        <v>97</v>
+      </c>
+      <c r="G134" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>10</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" t="s">
+        <v>242</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E135" t="s">
+        <v>92</v>
+      </c>
+      <c r="F135" t="s">
+        <v>87</v>
+      </c>
+      <c r="G135" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" t="s">
+        <v>242</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E136" t="s">
+        <v>253</v>
+      </c>
+      <c r="F136" t="s">
+        <v>254</v>
+      </c>
+      <c r="G136" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" t="s">
+        <v>242</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E137" t="s">
+        <v>90</v>
+      </c>
+      <c r="F137" t="s">
+        <v>94</v>
+      </c>
+      <c r="G137" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" t="s">
+        <v>242</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E138" t="s">
+        <v>99</v>
+      </c>
+      <c r="F138" t="s">
+        <v>255</v>
+      </c>
+      <c r="G138" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" t="s">
+        <v>242</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E139" t="s">
+        <v>256</v>
+      </c>
+      <c r="F139" t="s">
+        <v>89</v>
+      </c>
+      <c r="G139" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>257</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
+        <v>79</v>
+      </c>
+      <c r="G140" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" t="s">
+        <v>257</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E141" t="s">
+        <v>21</v>
+      </c>
+      <c r="F141" t="s">
+        <v>86</v>
+      </c>
+      <c r="G141" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" t="s">
+        <v>257</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E142" t="s">
+        <v>23</v>
+      </c>
+      <c r="F142" t="s">
+        <v>81</v>
+      </c>
+      <c r="G142" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" t="s">
+        <v>257</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E143" t="s">
+        <v>27</v>
+      </c>
+      <c r="F143" t="s">
+        <v>259</v>
+      </c>
+      <c r="G143" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>10</v>
+      </c>
+      <c r="B144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" t="s">
+        <v>257</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E144" t="s">
+        <v>33</v>
+      </c>
+      <c r="F144" t="s">
+        <v>87</v>
+      </c>
+      <c r="G144" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>10</v>
+      </c>
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" t="s">
+        <v>257</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E145" t="s">
+        <v>35</v>
+      </c>
+      <c r="F145" t="s">
+        <v>260</v>
+      </c>
+      <c r="G145" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>10</v>
+      </c>
+      <c r="B146" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" t="s">
+        <v>257</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E146" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146" t="s">
+        <v>32</v>
+      </c>
+      <c r="G146" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" t="s">
+        <v>257</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E147" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" t="s">
+        <v>83</v>
+      </c>
+      <c r="G147" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>10</v>
+      </c>
+      <c r="B148" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" t="s">
+        <v>257</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E148" t="s">
+        <v>92</v>
+      </c>
+      <c r="F148" t="s">
+        <v>114</v>
+      </c>
+      <c r="G148" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>10</v>
+      </c>
+      <c r="B149" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" t="s">
+        <v>257</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E149" t="s">
+        <v>61</v>
+      </c>
+      <c r="F149" t="s">
+        <v>261</v>
+      </c>
+      <c r="G149" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" t="s">
+        <v>257</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E150" t="s">
+        <v>253</v>
+      </c>
+      <c r="F150" t="s">
+        <v>254</v>
+      </c>
+      <c r="G150" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>10</v>
+      </c>
+      <c r="B151" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" t="s">
+        <v>257</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E151" t="s">
+        <v>256</v>
+      </c>
+      <c r="F151" t="s">
+        <v>89</v>
+      </c>
+      <c r="G151" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" t="s">
+        <v>257</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E152" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" t="s">
+        <v>39</v>
+      </c>
+      <c r="G152" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H152" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" t="s">
+        <v>257</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E153" t="s">
+        <v>102</v>
+      </c>
+      <c r="F153" t="s">
+        <v>98</v>
+      </c>
+      <c r="G153" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" t="s">
+        <v>257</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E154" t="s">
+        <v>44</v>
+      </c>
+      <c r="F154" t="s">
+        <v>97</v>
+      </c>
+      <c r="G154" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H154" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" t="s">
+        <v>257</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E155" t="s">
+        <v>90</v>
+      </c>
+      <c r="F155" t="s">
+        <v>94</v>
+      </c>
+      <c r="G155" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" t="s">
+        <v>257</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E156" t="s">
+        <v>237</v>
+      </c>
+      <c r="F156" t="s">
+        <v>262</v>
+      </c>
+      <c r="G156" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" t="s">
+        <v>257</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E157" t="s">
+        <v>99</v>
+      </c>
+      <c r="F157" t="s">
+        <v>263</v>
+      </c>
+      <c r="G157" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H157" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" t="s">
+        <v>264</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" t="s">
+        <v>83</v>
+      </c>
+      <c r="G158" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H158" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" t="s">
+        <v>264</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>244</v>
+      </c>
+      <c r="G159" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" t="s">
+        <v>264</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E160" t="s">
+        <v>21</v>
+      </c>
+      <c r="F160" t="s">
+        <v>266</v>
+      </c>
+      <c r="G160" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" t="s">
+        <v>264</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E161" t="s">
+        <v>44</v>
+      </c>
+      <c r="F161" t="s">
+        <v>97</v>
+      </c>
+      <c r="G161" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H161" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" t="s">
+        <v>264</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E162" t="s">
+        <v>27</v>
+      </c>
+      <c r="F162" t="s">
+        <v>267</v>
+      </c>
+      <c r="G162" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H162" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" t="s">
+        <v>264</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E163" t="s">
+        <v>35</v>
+      </c>
+      <c r="F163" t="s">
+        <v>268</v>
+      </c>
+      <c r="G163" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" t="s">
+        <v>264</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E164" t="s">
+        <v>33</v>
+      </c>
+      <c r="F164" t="s">
+        <v>87</v>
+      </c>
+      <c r="G164" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H164" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" t="s">
+        <v>264</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E165" t="s">
+        <v>120</v>
+      </c>
+      <c r="F165" t="s">
+        <v>262</v>
+      </c>
+      <c r="G165" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H165" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" t="s">
+        <v>264</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E166" t="s">
+        <v>23</v>
+      </c>
+      <c r="F166" t="s">
+        <v>269</v>
+      </c>
+      <c r="G166" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" t="s">
+        <v>264</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E167" t="s">
+        <v>107</v>
+      </c>
+      <c r="F167" t="s">
+        <v>32</v>
+      </c>
+      <c r="G167" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H167" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" t="s">
+        <v>264</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E168" t="s">
+        <v>16</v>
+      </c>
+      <c r="F168" t="s">
+        <v>270</v>
+      </c>
+      <c r="G168" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H168" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" t="s">
+        <v>264</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E169" t="s">
+        <v>237</v>
+      </c>
+      <c r="F169" t="s">
+        <v>262</v>
+      </c>
+      <c r="G169" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H169" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" t="s">
+        <v>264</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E170" t="s">
+        <v>253</v>
+      </c>
+      <c r="F170" t="s">
+        <v>271</v>
+      </c>
+      <c r="G170" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" t="s">
+        <v>264</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E171" t="s">
+        <v>92</v>
+      </c>
+      <c r="F171" t="s">
+        <v>114</v>
+      </c>
+      <c r="G171" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H171" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" t="s">
+        <v>18</v>
+      </c>
+      <c r="C172" t="s">
+        <v>264</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E172" t="s">
+        <v>90</v>
+      </c>
+      <c r="F172" t="s">
+        <v>94</v>
+      </c>
+      <c r="G172" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H172" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
+        <v>18</v>
+      </c>
+      <c r="C173" t="s">
+        <v>264</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E173" t="s">
+        <v>272</v>
+      </c>
+      <c r="F173" t="s">
+        <v>273</v>
+      </c>
+      <c r="G173" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H173" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" t="s">
+        <v>18</v>
+      </c>
+      <c r="C174" t="s">
+        <v>264</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E174" t="s">
+        <v>256</v>
+      </c>
+      <c r="F174" t="s">
+        <v>89</v>
+      </c>
+      <c r="G174" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H174" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" t="s">
+        <v>264</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E175" t="s">
+        <v>61</v>
+      </c>
+      <c r="F175" t="s">
+        <v>274</v>
+      </c>
+      <c r="G175" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" t="s">
+        <v>18</v>
+      </c>
+      <c r="C176" t="s">
+        <v>264</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E176" t="s">
+        <v>99</v>
+      </c>
+      <c r="F176" t="s">
+        <v>275</v>
+      </c>
+      <c r="G176" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H176" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" t="s">
+        <v>18</v>
+      </c>
+      <c r="C177" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
+        <v>277</v>
+      </c>
+      <c r="G177" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="s">
+        <v>18</v>
+      </c>
+      <c r="C178" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E178" t="s">
+        <v>29</v>
+      </c>
+      <c r="F178" t="s">
+        <v>83</v>
+      </c>
+      <c r="G178" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" t="s">
+        <v>18</v>
+      </c>
+      <c r="C179" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E179" t="s">
+        <v>21</v>
+      </c>
+      <c r="F179" t="s">
+        <v>278</v>
+      </c>
+      <c r="G179" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H179" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s">
+        <v>18</v>
+      </c>
+      <c r="C180" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E180" t="s">
+        <v>25</v>
+      </c>
+      <c r="F180" t="s">
+        <v>279</v>
+      </c>
+      <c r="G180" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H180" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>18</v>
+      </c>
+      <c r="C181" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E181" t="s">
+        <v>23</v>
+      </c>
+      <c r="F181" t="s">
+        <v>280</v>
+      </c>
+      <c r="G181" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E182" t="s">
+        <v>27</v>
+      </c>
+      <c r="F182" t="s">
+        <v>281</v>
+      </c>
+      <c r="G182" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H182" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" t="s">
+        <v>18</v>
+      </c>
+      <c r="C183" t="s">
+        <v>19</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E183" t="s">
+        <v>31</v>
+      </c>
+      <c r="F183" t="s">
+        <v>32</v>
+      </c>
+      <c r="G183" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" t="s">
+        <v>19</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E184" t="s">
+        <v>33</v>
+      </c>
+      <c r="F184" t="s">
+        <v>251</v>
+      </c>
+      <c r="G184" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E185" t="s">
+        <v>53</v>
+      </c>
+      <c r="F185" t="s">
+        <v>54</v>
+      </c>
+      <c r="G185" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H185" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" t="s">
+        <v>18</v>
+      </c>
+      <c r="C186" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E186" t="s">
+        <v>56</v>
+      </c>
+      <c r="F186" t="s">
+        <v>282</v>
+      </c>
+      <c r="G186" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H186" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>18</v>
+      </c>
+      <c r="C187" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E187" t="s">
+        <v>92</v>
+      </c>
+      <c r="F187" t="s">
+        <v>87</v>
+      </c>
+      <c r="G187" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" t="s">
+        <v>18</v>
+      </c>
+      <c r="C188" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E188" t="s">
+        <v>120</v>
+      </c>
+      <c r="F188" t="s">
+        <v>262</v>
+      </c>
+      <c r="G188" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H188" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" t="s">
+        <v>18</v>
+      </c>
+      <c r="C189" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E189" t="s">
+        <v>256</v>
+      </c>
+      <c r="F189" t="s">
+        <v>82</v>
+      </c>
+      <c r="G189" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H189" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" t="s">
+        <v>18</v>
+      </c>
+      <c r="C190" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E190" t="s">
+        <v>253</v>
+      </c>
+      <c r="F190" t="s">
+        <v>271</v>
+      </c>
+      <c r="G190" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E191" t="s">
+        <v>35</v>
+      </c>
+      <c r="F191" t="s">
+        <v>283</v>
+      </c>
+      <c r="G191" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" t="s">
+        <v>18</v>
+      </c>
+      <c r="C192" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E192" t="s">
+        <v>90</v>
+      </c>
+      <c r="F192" t="s">
+        <v>284</v>
+      </c>
+      <c r="G192" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H192" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" t="s">
+        <v>18</v>
+      </c>
+      <c r="C193" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E193" t="s">
+        <v>285</v>
+      </c>
+      <c r="F193" t="s">
+        <v>286</v>
+      </c>
+      <c r="G193" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E194" t="s">
+        <v>61</v>
+      </c>
+      <c r="F194" t="s">
+        <v>287</v>
+      </c>
+      <c r="G194" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H194" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" t="s">
+        <v>18</v>
+      </c>
+      <c r="C195" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E195" t="s">
+        <v>40</v>
+      </c>
+      <c r="F195" t="s">
+        <v>101</v>
+      </c>
+      <c r="G195" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H195" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" t="s">
+        <v>18</v>
+      </c>
+      <c r="C196" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E196" t="s">
         <v>139</v>
       </c>
-      <c r="G86" s="1">
-        <v>45926</v>
-      </c>
-      <c r="H86" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" s="2" t="s">
-        <v>201</v>
+      <c r="F196" t="s">
+        <v>288</v>
+      </c>
+      <c r="G196" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H196" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" t="s">
+        <v>18</v>
+      </c>
+      <c r="C197" t="s">
+        <v>19</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E197" t="s">
+        <v>289</v>
+      </c>
+      <c r="F197" t="s">
+        <v>41</v>
+      </c>
+      <c r="G197" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H197" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" t="s">
+        <v>18</v>
+      </c>
+      <c r="C198" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E198" t="s">
+        <v>44</v>
+      </c>
+      <c r="F198" t="s">
+        <v>97</v>
+      </c>
+      <c r="G198" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" t="s">
+        <v>18</v>
+      </c>
+      <c r="C199" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E199" t="s">
+        <v>105</v>
+      </c>
+      <c r="F199" t="s">
+        <v>259</v>
+      </c>
+      <c r="G199" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E200" t="s">
+        <v>237</v>
+      </c>
+      <c r="F200" t="s">
+        <v>262</v>
+      </c>
+      <c r="G200" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H200" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" t="s">
+        <v>290</v>
+      </c>
+      <c r="C201" t="s">
+        <v>290</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G201" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H201" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>290</v>
+      </c>
+      <c r="C202" t="s">
+        <v>290</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F202" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G202" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>290</v>
+      </c>
+      <c r="C203" t="s">
+        <v>290</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G203" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H203" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>10</v>
+      </c>
+      <c r="B204" t="s">
+        <v>290</v>
+      </c>
+      <c r="C204" t="s">
+        <v>290</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G204" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H204" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>10</v>
+      </c>
+      <c r="B205" t="s">
+        <v>290</v>
+      </c>
+      <c r="C205" t="s">
+        <v>290</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G205" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H205" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>10</v>
+      </c>
+      <c r="B206" t="s">
+        <v>290</v>
+      </c>
+      <c r="C206" t="s">
+        <v>290</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E206" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G206" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H206" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" t="s">
+        <v>290</v>
+      </c>
+      <c r="C207" t="s">
+        <v>290</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E207" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G207" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H207" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>10</v>
+      </c>
+      <c r="B208" t="s">
+        <v>290</v>
+      </c>
+      <c r="C208" t="s">
+        <v>290</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E208" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G208" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H208" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>10</v>
+      </c>
+      <c r="B209" t="s">
+        <v>290</v>
+      </c>
+      <c r="C209" t="s">
+        <v>290</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E209" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G209" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H209" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>10</v>
+      </c>
+      <c r="B210" t="s">
+        <v>290</v>
+      </c>
+      <c r="C210" t="s">
+        <v>290</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E210" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G210" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H210" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>10</v>
+      </c>
+      <c r="B211" t="s">
+        <v>290</v>
+      </c>
+      <c r="C211" t="s">
+        <v>290</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E211" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G211" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H211" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" t="s">
+        <v>290</v>
+      </c>
+      <c r="C212" t="s">
+        <v>290</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E212" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G212" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" t="s">
+        <v>215</v>
+      </c>
+      <c r="C213" t="s">
+        <v>301</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E213" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G213" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H213" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>10</v>
+      </c>
+      <c r="B214" t="s">
+        <v>215</v>
+      </c>
+      <c r="C214" t="s">
+        <v>301</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E214" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G214" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H214" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>215</v>
+      </c>
+      <c r="C215" t="s">
+        <v>301</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E215" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G215" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H215" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>10</v>
+      </c>
+      <c r="B216" t="s">
+        <v>215</v>
+      </c>
+      <c r="C216" t="s">
+        <v>301</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G216" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H216" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>10</v>
+      </c>
+      <c r="B217" t="s">
+        <v>215</v>
+      </c>
+      <c r="C217" t="s">
+        <v>301</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G217" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>215</v>
+      </c>
+      <c r="C218" t="s">
+        <v>301</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="G218" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H218" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" t="s">
+        <v>215</v>
+      </c>
+      <c r="C219" t="s">
+        <v>301</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G219" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>10</v>
+      </c>
+      <c r="B220" t="s">
+        <v>215</v>
+      </c>
+      <c r="C220" t="s">
+        <v>301</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G220" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>10</v>
+      </c>
+      <c r="B221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C221" t="s">
+        <v>301</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G221" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H221" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>10</v>
+      </c>
+      <c r="B222" t="s">
+        <v>215</v>
+      </c>
+      <c r="C222" t="s">
+        <v>301</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F222" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G222" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H222" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" t="s">
+        <v>215</v>
+      </c>
+      <c r="C223" t="s">
+        <v>301</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F223" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G223" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>10</v>
+      </c>
+      <c r="B224" t="s">
+        <v>215</v>
+      </c>
+      <c r="C224" t="s">
+        <v>301</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F224" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G224" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H224" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>10</v>
+      </c>
+      <c r="B225" t="s">
+        <v>215</v>
+      </c>
+      <c r="C225" t="s">
+        <v>301</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="G225" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H225" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>10</v>
+      </c>
+      <c r="B226" t="s">
+        <v>215</v>
+      </c>
+      <c r="C226" t="s">
+        <v>301</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G226" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>215</v>
+      </c>
+      <c r="C227" t="s">
+        <v>301</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G227" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H227" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>10</v>
+      </c>
+      <c r="B228" t="s">
+        <v>215</v>
+      </c>
+      <c r="C228" t="s">
+        <v>301</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G228" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>10</v>
+      </c>
+      <c r="B229" t="s">
+        <v>215</v>
+      </c>
+      <c r="C229" t="s">
+        <v>301</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G229" s="1">
+        <v>45926</v>
+      </c>
+      <c r="H229" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -3588,8 +7627,11 @@
     <hyperlink ref="I79" r:id="rId40" xr:uid="{1C50B6F1-C0C6-4EA9-88A7-01B1CE7B0682}"/>
     <hyperlink ref="I83" r:id="rId41" xr:uid="{9D08E2B4-1C71-4100-93AC-DD19F01026CA}"/>
     <hyperlink ref="I84" r:id="rId42" xr:uid="{D7B65689-F64B-46BD-9AF0-3A6B04B5ED94}"/>
+    <hyperlink ref="I88" r:id="rId43" xr:uid="{3F77D8CA-0155-4D57-800F-613EBD6E4931}"/>
+    <hyperlink ref="I91" r:id="rId44" xr:uid="{61CCCD05-504A-420D-AA37-12F2BB15BE12}"/>
+    <hyperlink ref="I92" r:id="rId45" xr:uid="{AE4DF408-A06D-4433-B13A-45761FC66DD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId46"/>
 </worksheet>
 </file>
--- a/data/ResponsablesPorProyecto.xlsx
+++ b/data/ResponsablesPorProyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta Stre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB25EC-F898-4A5C-B7ED-51F75B7FE6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6DCC87-24AB-461B-8988-6DE341491BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="3180" windowWidth="20730" windowHeight="11040" xr2:uid="{604496A0-D183-4F1C-9231-CF0B6CEC983F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{604496A0-D183-4F1C-9231-CF0B6CEC983F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="568">
   <si>
     <t>Sucursal</t>
   </si>
@@ -954,6 +954,792 @@
   </si>
   <si>
     <t>geraldine andrea restrepo prieto</t>
+  </si>
+  <si>
+    <t>2498301000</t>
+  </si>
+  <si>
+    <t>Linz E1</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>Roberto Ricardo Rozo Cifuentes</t>
+  </si>
+  <si>
+    <t>Yenny Paola Munevar Peña</t>
+  </si>
+  <si>
+    <t>Iván Jair Álvarez</t>
+  </si>
+  <si>
+    <t>Luis Miguel López Bocanegra</t>
+  </si>
+  <si>
+    <t>David Sanabria Palencia</t>
+  </si>
+  <si>
+    <t>Leslie Nicole Devia Riaño</t>
+  </si>
+  <si>
+    <t>Catalina León Gómez</t>
+  </si>
+  <si>
+    <t>Germán Alejandro Suárez</t>
+  </si>
+  <si>
+    <t>Camilo Andrés Pulgarín Bautista</t>
+  </si>
+  <si>
+    <t>Ana María Marroquín Rincón</t>
+  </si>
+  <si>
+    <t>Camilo Andrés Méndez Polanía</t>
+  </si>
+  <si>
+    <t>Julio César Ruiz Díaz</t>
+  </si>
+  <si>
+    <t>Heiler Alejandro Portela Gómez</t>
+  </si>
+  <si>
+    <t>Jorge Hernando Martínez Reina</t>
+  </si>
+  <si>
+    <t>Tatiana</t>
+  </si>
+  <si>
+    <t>Carlos Andrés Ávila Olaya</t>
+  </si>
+  <si>
+    <t>Paola Andrea Ramírez Jiménez</t>
+  </si>
+  <si>
+    <t>Loira Ciudad La Salle</t>
+  </si>
+  <si>
+    <t>Ricardo Mauricio Roa Téllez</t>
+  </si>
+  <si>
+    <t>Juan Camilo Fernández Gamboa</t>
+  </si>
+  <si>
+    <t>Edith Tatiana Prieto Cuevas</t>
+  </si>
+  <si>
+    <t>Christian David Nieto Taborda</t>
+  </si>
+  <si>
+    <t>Ana Milena Gallo Sanabria</t>
+  </si>
+  <si>
+    <t>Karen Valentina Sánchez Guzmán</t>
+  </si>
+  <si>
+    <t>María Camila Zukim Osorio</t>
+  </si>
+  <si>
+    <t>Claudia Marcela Sánchez Morera</t>
+  </si>
+  <si>
+    <t>Coordinador Logístico</t>
+  </si>
+  <si>
+    <t>Elizabeth Florez Díaz</t>
+  </si>
+  <si>
+    <t>Catalina Carvajal Rubiano</t>
+  </si>
+  <si>
+    <t>Julián Alejandro Martín Ramírez</t>
+  </si>
+  <si>
+    <t>Coordinador SIG</t>
+  </si>
+  <si>
+    <t>Ricardo Sánchez Hernández</t>
+  </si>
+  <si>
+    <t>Mara Patricia Maya Pisciotti</t>
+  </si>
+  <si>
+    <t>Cristian Mateo López Duquiño</t>
+  </si>
+  <si>
+    <t>Diseñador externo</t>
+  </si>
+  <si>
+    <t>Sergio Alfredo Jerez Téllez</t>
+  </si>
+  <si>
+    <t>Juan Felipe Capador Serney</t>
+  </si>
+  <si>
+    <t>2848251000</t>
+  </si>
+  <si>
+    <t>Lorca</t>
+  </si>
+  <si>
+    <t>Iberia</t>
+  </si>
+  <si>
+    <t>2508401000</t>
+  </si>
+  <si>
+    <t>Johanna Díaz Mora</t>
+  </si>
+  <si>
+    <t>Daniel Sebastián Peñaranda Pachón</t>
+  </si>
+  <si>
+    <t>Fabián Antonio López Molano</t>
+  </si>
+  <si>
+    <t>Luz Adriana Ospina Barreto</t>
+  </si>
+  <si>
+    <t>Camila Pedraza Aldana</t>
+  </si>
+  <si>
+    <t>Nadya Yiri Riveros Torres</t>
+  </si>
+  <si>
+    <t>Diana Milena Pedraza</t>
+  </si>
+  <si>
+    <t>Ronald Ferney Forero Amaya</t>
+  </si>
+  <si>
+    <t>Angie Constanza Sierra</t>
+  </si>
+  <si>
+    <t>Judy Carolina Villanueva Sandoval</t>
+  </si>
+  <si>
+    <t>José Alfredo Jiménez Bernal</t>
+  </si>
+  <si>
+    <t>Andrés Felipe Otero Rojas</t>
+  </si>
+  <si>
+    <t>María Margarita Velandia Jaramillo</t>
+  </si>
+  <si>
+    <t>Edisson Giovanny Herrera Soto</t>
+  </si>
+  <si>
+    <t>Juliana Cruz Álvarez</t>
+  </si>
+  <si>
+    <t>Lyon 2 Ciudad La Salle</t>
+  </si>
+  <si>
+    <t>2848201000</t>
+  </si>
+  <si>
+    <t>Cindy Johanna Rodríguez Torres</t>
+  </si>
+  <si>
+    <t>Elizabeth Vásquez Poloche</t>
+  </si>
+  <si>
+    <t>Angel Yovanni Silva López</t>
+  </si>
+  <si>
+    <t>Jhoan Nicolás Archila Patarroyo</t>
+  </si>
+  <si>
+    <t>Constanza Catalina Acuña Durán</t>
+  </si>
+  <si>
+    <t>William Andrés Sanjuán Dueñas</t>
+  </si>
+  <si>
+    <t>Víctor Alfonso Fuentes Dallos</t>
+  </si>
+  <si>
+    <t>David Ricardo Tarquino Hortúa</t>
+  </si>
+  <si>
+    <t>Aura Milena García Flórez</t>
+  </si>
+  <si>
+    <t>Trixi Danelly Orjuela García</t>
+  </si>
+  <si>
+    <t>Diego Alexander Acosta García</t>
+  </si>
+  <si>
+    <t>Oscar Javier Serrano Raba</t>
+  </si>
+  <si>
+    <t>Luisa Fernanda Cardozo Rodríguez</t>
+  </si>
+  <si>
+    <t>Elizabeth Flórez Díaz</t>
+  </si>
+  <si>
+    <t>Lucy Skint Bueno</t>
+  </si>
+  <si>
+    <t>Director Nacional Lean y BIM</t>
+  </si>
+  <si>
+    <t>Juan Pablo Romero Cortés</t>
+  </si>
+  <si>
+    <t>Carlos Leonardo Sanabria Sandoval</t>
+  </si>
+  <si>
+    <t>Lyon Ciudad La Salle</t>
+  </si>
+  <si>
+    <t>2848151000</t>
+  </si>
+  <si>
+    <t>David Ricardo Tarquino Hortua</t>
+  </si>
+  <si>
+    <t>Andrés Felipe Garzón Obando</t>
+  </si>
+  <si>
+    <t>Luis Andrés Plata Gutiérrez</t>
+  </si>
+  <si>
+    <t>Daniela Patricia Herrera Meléndez</t>
+  </si>
+  <si>
+    <t>Karen Andrea Barbosa Giraldo</t>
+  </si>
+  <si>
+    <t>Juliana Andrea Chacón Páez</t>
+  </si>
+  <si>
+    <t>Jhony Alexander Triana Peláez</t>
+  </si>
+  <si>
+    <t>Vanessa Nicole Bolívar Muñoz</t>
+  </si>
+  <si>
+    <t>Metrópoli 30</t>
+  </si>
+  <si>
+    <t>2847101000</t>
+  </si>
+  <si>
+    <t>Yorleynis Montejo Ruiz</t>
+  </si>
+  <si>
+    <t>Edward Camilo Urrego Aguilera</t>
+  </si>
+  <si>
+    <t>Joan Sebastián Callejas Callejas</t>
+  </si>
+  <si>
+    <t>Jineth Candia Marín</t>
+  </si>
+  <si>
+    <t>Oscar Mauricio Mosquera Torres</t>
+  </si>
+  <si>
+    <t>Juan Diego Agurto Arango</t>
+  </si>
+  <si>
+    <t>Laura Valentina Mojica Rojas</t>
+  </si>
+  <si>
+    <t>Ximena Orduz Gaona</t>
+  </si>
+  <si>
+    <t>Hoberth Leonardo Espitia López</t>
+  </si>
+  <si>
+    <t>Edisson Fabián Gutiérrez Muñoz</t>
+  </si>
+  <si>
+    <t>Wilmer Ignacio Ladino</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Montpellier Ciudad La Salle</t>
+  </si>
+  <si>
+    <t>2848101000</t>
+  </si>
+  <si>
+    <t>Erika Solangy Muñoz Boada</t>
+  </si>
+  <si>
+    <t>Juan Alberto Gutiérrez Forero</t>
+  </si>
+  <si>
+    <t>Sergio Estrada Charry</t>
+  </si>
+  <si>
+    <t>Nicolás Ricardo Hernández Aguirre</t>
+  </si>
+  <si>
+    <t>Silvio Andrés Velandia</t>
+  </si>
+  <si>
+    <t>Liliana Margarita Marrugo Rincón</t>
+  </si>
+  <si>
+    <t>Paola Andrea Fernández Suescún</t>
+  </si>
+  <si>
+    <t>Jhamintom Lorenzo Obando Quiñones</t>
+  </si>
+  <si>
+    <t>Jhon Edinsson Maldonado Suárez</t>
+  </si>
+  <si>
+    <t>Residente de acabados #2</t>
+  </si>
+  <si>
+    <t>Nicolás Téllez González</t>
+  </si>
+  <si>
+    <t>Paseo de Sevilla</t>
+  </si>
+  <si>
+    <t>2510101000</t>
+  </si>
+  <si>
+    <t>José Alejandro Torres Rodríguez</t>
+  </si>
+  <si>
+    <t>Óscar Andrés Oviedo Gutiérrez</t>
+  </si>
+  <si>
+    <t>Wendy Dayanna Alvarado Cuéllar</t>
+  </si>
+  <si>
+    <t>Cristian Andrés Sandoval Flórez</t>
+  </si>
+  <si>
+    <t>Edna Carolina D’Achardy Morales</t>
+  </si>
+  <si>
+    <t>Zipaquirá</t>
+  </si>
+  <si>
+    <t>Paseo San Rafael</t>
+  </si>
+  <si>
+    <t>21072851000</t>
+  </si>
+  <si>
+    <t>Yuli Maribel Arias Cifuentes</t>
+  </si>
+  <si>
+    <t>Yimmy Alejandro Velásquez Ríos</t>
+  </si>
+  <si>
+    <t>Kimberly Yohanna Guzmán Rodríguez</t>
+  </si>
+  <si>
+    <t>Zaida Yamile Yaya Garzón</t>
+  </si>
+  <si>
+    <t>Cristian Camilo Amaya Fuquén</t>
+  </si>
+  <si>
+    <t>Solangie Pinzón Sierra</t>
+  </si>
+  <si>
+    <t>Eder Leonardo Ávila Ruiz</t>
+  </si>
+  <si>
+    <t>Andrés Simón Mahecha Torres</t>
+  </si>
+  <si>
+    <t>Auxiliar de contraloría</t>
+  </si>
+  <si>
+    <t>Cristian Camilo Roa Galeano</t>
+  </si>
+  <si>
+    <t>Karen Valentina Herrera Zambrano</t>
+  </si>
+  <si>
+    <t>Luz Ángela Martínez Mondragón</t>
+  </si>
+  <si>
+    <t>Jessenia Montoya Campo</t>
+  </si>
+  <si>
+    <t>Ricaurte</t>
+  </si>
+  <si>
+    <t>Peñazul El Poblado</t>
+  </si>
+  <si>
+    <t>31955501000</t>
+  </si>
+  <si>
+    <t>Diego Alejandro Montes Feria</t>
+  </si>
+  <si>
+    <t>Luis Alejandro Garzón</t>
+  </si>
+  <si>
+    <t>Víctor Manuel Díaz Laverde</t>
+  </si>
+  <si>
+    <t>José Alejandro Bárcenas Moreno</t>
+  </si>
+  <si>
+    <t>María Fernanda Vera Gamboa</t>
+  </si>
+  <si>
+    <t>Iván Andrés Delgado Benavides</t>
+  </si>
+  <si>
+    <t>Alba Yobjana Mejía Ruiz</t>
+  </si>
+  <si>
+    <t>Andrés Felipe León Mosquera</t>
+  </si>
+  <si>
+    <t>Daniel Felipe Bueno Novoa</t>
+  </si>
+  <si>
+    <t>Juan Gabriel Niño Herrera</t>
+  </si>
+  <si>
+    <t>Daniela Gutiérrez Guerrero</t>
+  </si>
+  <si>
+    <t>Anderson Camilo Preciado Olaya</t>
+  </si>
+  <si>
+    <t>Peñón de Alicante</t>
+  </si>
+  <si>
+    <t>2410921000</t>
+  </si>
+  <si>
+    <t>Jennifer Paola López Vaca</t>
+  </si>
+  <si>
+    <t>Leidy Diana Vega Salcedo</t>
+  </si>
+  <si>
+    <t>Jeison Daniel Bossa Peña</t>
+  </si>
+  <si>
+    <t>Yuli Alejandra Moreno Reinoso</t>
+  </si>
+  <si>
+    <t>Edison Fernando Velasco Díaz</t>
+  </si>
+  <si>
+    <t>Diego Fernando Sánchez Alméciga</t>
+  </si>
+  <si>
+    <t>Provenza</t>
+  </si>
+  <si>
+    <t>Provenza Prestige</t>
+  </si>
+  <si>
+    <t>2022601000</t>
+  </si>
+  <si>
+    <t>Joan Antonio Téllez Portillo</t>
+  </si>
+  <si>
+    <t>Ángela Milena Bonilla Rivera</t>
+  </si>
+  <si>
+    <t>Kevin Villanoba Franco</t>
+  </si>
+  <si>
+    <t>Eduard Andrés Ayala Góngora</t>
+  </si>
+  <si>
+    <t>Orlando Santamaría García</t>
+  </si>
+  <si>
+    <t>Christian Camilo González Acosta</t>
+  </si>
+  <si>
+    <t>Andrés Felipe Arenas Suárez</t>
+  </si>
+  <si>
+    <t>Saint Michel Ciudad La Salle</t>
+  </si>
+  <si>
+    <t>2848301000</t>
+  </si>
+  <si>
+    <t>Jhon Alexander Guarín Reina</t>
+  </si>
+  <si>
+    <t>Mónica Milena Velásquez Castañeda</t>
+  </si>
+  <si>
+    <t>José Luis Caballero Angarita</t>
+  </si>
+  <si>
+    <t>Yury Christina Ibañez Amaya</t>
+  </si>
+  <si>
+    <t>Lizeth Vanessa Rodríguez Ortiz</t>
+  </si>
+  <si>
+    <t>Gina Paola Tejada Martínez</t>
+  </si>
+  <si>
+    <t>Norfy Estefanía Bedoya</t>
+  </si>
+  <si>
+    <t>Juan Pablo Romero Cortes</t>
+  </si>
+  <si>
+    <t>Paula Camila Sañudo González</t>
+  </si>
+  <si>
+    <t>San Lucas La Quinta</t>
+  </si>
+  <si>
+    <t>21076301000</t>
+  </si>
+  <si>
+    <t>Luis Carlos Bohórquez Santamaría</t>
+  </si>
+  <si>
+    <t>Daniel Eduardo García Blandón</t>
+  </si>
+  <si>
+    <t>Karol Liliana Sanabria Valdivieso</t>
+  </si>
+  <si>
+    <t>Andrés Felipe Guerrero Amaya</t>
+  </si>
+  <si>
+    <t>Yennifer Amaya Arciniegas</t>
+  </si>
+  <si>
+    <t>San Mateo - La Quinta</t>
+  </si>
+  <si>
+    <t>21076351000</t>
+  </si>
+  <si>
+    <t>Zury Andrea Orduz Sepúlveda</t>
+  </si>
+  <si>
+    <t>Edwin Adolfo Florez Sandoval</t>
+  </si>
+  <si>
+    <t>Nelson Enrique Pabón Ribero</t>
+  </si>
+  <si>
+    <t>Tecnólogo administrativo de obra</t>
+  </si>
+  <si>
+    <t>Mónica Eliana Ruiz</t>
+  </si>
+  <si>
+    <t>Laura Katerine Garzón Rodríguez</t>
+  </si>
+  <si>
+    <t>Juan Sebastián Sánchez Herrera</t>
+  </si>
+  <si>
+    <t>Diana Yazmín Castillo Hernández</t>
+  </si>
+  <si>
+    <t>Yeison Manuel Mena Ramírez</t>
+  </si>
+  <si>
+    <t>Residente de control e interventoría 1</t>
+  </si>
+  <si>
+    <t>Arles Javier Rojas Gutiérrez</t>
+  </si>
+  <si>
+    <t>Urb Externo Ciudad La Salle</t>
+  </si>
+  <si>
+    <t>2848601000</t>
+  </si>
+  <si>
+    <t>Carlos Alberto Mojica Rodríguez</t>
+  </si>
+  <si>
+    <t>Diego Rene Rodríguez Moncada</t>
+  </si>
+  <si>
+    <t>Juan David Ortiz Sarria</t>
+  </si>
+  <si>
+    <t>Diego Alejandro Gómez González</t>
+  </si>
+  <si>
+    <t>Hebert Tiller Osorio Cuesta</t>
+  </si>
+  <si>
+    <t>Cielo Inés Cáceres Quintero</t>
+  </si>
+  <si>
+    <t>Juan Camilo Perilla Rojas</t>
+  </si>
+  <si>
+    <t>Dario Acosta Rubiano</t>
+  </si>
+  <si>
+    <t>Coordinador de urbanismo</t>
+  </si>
+  <si>
+    <t>Diego Armando Cala Rugeles</t>
+  </si>
+  <si>
+    <t>Urbanismo Externo Lote 5 Banca</t>
+  </si>
+  <si>
+    <t>2508201000</t>
+  </si>
+  <si>
+    <t>Jaiber Leonardo Cano Artunduaga</t>
+  </si>
+  <si>
+    <t>Laura Fernanda Pedreros Araque</t>
+  </si>
+  <si>
+    <t>Jeison Arley Triana González</t>
+  </si>
+  <si>
+    <t>Víctor Francisco Santos Osorio</t>
+  </si>
+  <si>
+    <t>Usme Tres Quebradas</t>
+  </si>
+  <si>
+    <t>Urbanismo Tres Quebradas</t>
+  </si>
+  <si>
+    <t>2080000000</t>
+  </si>
+  <si>
+    <t>Mauricio Cervantes Hurtado</t>
+  </si>
+  <si>
+    <t>María Paula Betancourt Mora</t>
+  </si>
+  <si>
+    <t>Keli Johana Aguiar Polo</t>
+  </si>
+  <si>
+    <t>Danny Estrada Grisales</t>
+  </si>
+  <si>
+    <t>Karen Viviana Contreras Ibañez</t>
+  </si>
+  <si>
+    <t>Laura Sofía Martínez Orozco</t>
+  </si>
+  <si>
+    <t>Director Nacional de Urbanismo</t>
+  </si>
+  <si>
+    <t>Diego Alexander Rincón Sánchez</t>
+  </si>
+  <si>
+    <t>Edgar Fernando Rojas Novoa</t>
+  </si>
+  <si>
+    <t>Néstor Andrés Tibatá Botero</t>
+  </si>
+  <si>
+    <t>Juan Manuel Aguirre Prieto</t>
+  </si>
+  <si>
+    <t>Genny Noguera Núñez</t>
+  </si>
+  <si>
+    <t>Sergio Esteban Micán Rodríguez</t>
+  </si>
+  <si>
+    <t>Eliecer Correa Ávila</t>
+  </si>
+  <si>
+    <t>Bosques de Guaymaral</t>
+  </si>
+  <si>
+    <t>Verdania Bosques de Guaymaral</t>
+  </si>
+  <si>
+    <t>2905101000</t>
+  </si>
+  <si>
+    <t>Leonardo de Jesús Guerrero Cabrera</t>
+  </si>
+  <si>
+    <t>Cristian Santiago Ruge Gómez</t>
+  </si>
+  <si>
+    <t>Katerine Morales Riaño</t>
+  </si>
+  <si>
+    <t>Wendy Yurany Usaquén Fajardo</t>
+  </si>
+  <si>
+    <t>Sorani Martínez Barreto</t>
+  </si>
+  <si>
+    <t>Michael Klein Porras Soto</t>
+  </si>
+  <si>
+    <t>Elkin Andrés Carvajal Zapata</t>
+  </si>
+  <si>
+    <t>Laura Mercedes Cantillo Mendoza</t>
+  </si>
+  <si>
+    <t>Iván David Díaz Andrade</t>
+  </si>
+  <si>
+    <t>Eduardo Elías Berardinelli Roldán</t>
+  </si>
+  <si>
+    <t>Juan Pablo Rodríguez García</t>
+  </si>
+  <si>
+    <t>Zuri - Zentral</t>
+  </si>
+  <si>
+    <t>2498601000</t>
+  </si>
+  <si>
+    <t>jose orlando rico joya</t>
+  </si>
+  <si>
+    <t>jose mauricio lemus porras</t>
+  </si>
+  <si>
+    <t>karen melissa hurtado</t>
+  </si>
+  <si>
+    <t>juan camilo zambrano vasquez</t>
+  </si>
+  <si>
+    <t>nicolas felipe quiroga galindo</t>
+  </si>
+  <si>
+    <t>carlos andres avila olaya</t>
+  </si>
+  <si>
+    <t>jorge hernando martinez reina</t>
+  </si>
+  <si>
+    <t>catalina leon gomez</t>
   </si>
 </sst>
 </file>
@@ -1349,10 +2135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6159B3B9-18EB-4717-835D-3E6B72934C17}">
-  <dimension ref="A1:J229"/>
+  <dimension ref="A1:J556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="F219" sqref="F219"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7579,6 +8365,8499 @@
         <v>45926</v>
       </c>
       <c r="H229" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>308</v>
+      </c>
+      <c r="B230" t="s">
+        <v>206</v>
+      </c>
+      <c r="C230" t="s">
+        <v>307</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E230" t="s">
+        <v>29</v>
+      </c>
+      <c r="F230" t="s">
+        <v>309</v>
+      </c>
+      <c r="G230" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H230" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>308</v>
+      </c>
+      <c r="B231" t="s">
+        <v>206</v>
+      </c>
+      <c r="C231" t="s">
+        <v>307</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E231" t="s">
+        <v>84</v>
+      </c>
+      <c r="F231" t="s">
+        <v>310</v>
+      </c>
+      <c r="G231" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H231" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>308</v>
+      </c>
+      <c r="B232" t="s">
+        <v>206</v>
+      </c>
+      <c r="C232" t="s">
+        <v>307</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E232" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" t="s">
+        <v>311</v>
+      </c>
+      <c r="G232" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>308</v>
+      </c>
+      <c r="B233" t="s">
+        <v>206</v>
+      </c>
+      <c r="C233" t="s">
+        <v>307</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E233" t="s">
+        <v>21</v>
+      </c>
+      <c r="F233" t="s">
+        <v>312</v>
+      </c>
+      <c r="G233" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>308</v>
+      </c>
+      <c r="B234" t="s">
+        <v>206</v>
+      </c>
+      <c r="C234" t="s">
+        <v>307</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E234" t="s">
+        <v>27</v>
+      </c>
+      <c r="F234" t="s">
+        <v>313</v>
+      </c>
+      <c r="G234" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H234" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>308</v>
+      </c>
+      <c r="B235" t="s">
+        <v>206</v>
+      </c>
+      <c r="C235" t="s">
+        <v>307</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E235" t="s">
+        <v>33</v>
+      </c>
+      <c r="F235" t="s">
+        <v>314</v>
+      </c>
+      <c r="G235" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>308</v>
+      </c>
+      <c r="B236" t="s">
+        <v>206</v>
+      </c>
+      <c r="C236" t="s">
+        <v>307</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E236" t="s">
+        <v>35</v>
+      </c>
+      <c r="F236" t="s">
+        <v>315</v>
+      </c>
+      <c r="G236" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H236" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>308</v>
+      </c>
+      <c r="B237" t="s">
+        <v>206</v>
+      </c>
+      <c r="C237" t="s">
+        <v>307</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E237" t="s">
+        <v>44</v>
+      </c>
+      <c r="F237" t="s">
+        <v>316</v>
+      </c>
+      <c r="G237" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H237" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>308</v>
+      </c>
+      <c r="B238" t="s">
+        <v>206</v>
+      </c>
+      <c r="C238" t="s">
+        <v>307</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E238" t="s">
+        <v>31</v>
+      </c>
+      <c r="F238" t="s">
+        <v>317</v>
+      </c>
+      <c r="G238" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>308</v>
+      </c>
+      <c r="B239" t="s">
+        <v>206</v>
+      </c>
+      <c r="C239" t="s">
+        <v>307</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E239" t="s">
+        <v>219</v>
+      </c>
+      <c r="F239" t="s">
+        <v>318</v>
+      </c>
+      <c r="G239" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H239" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>308</v>
+      </c>
+      <c r="B240" t="s">
+        <v>206</v>
+      </c>
+      <c r="C240" t="s">
+        <v>307</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E240" t="s">
+        <v>16</v>
+      </c>
+      <c r="F240" t="s">
+        <v>319</v>
+      </c>
+      <c r="G240" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H240" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>308</v>
+      </c>
+      <c r="B241" t="s">
+        <v>206</v>
+      </c>
+      <c r="C241" t="s">
+        <v>307</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E241" t="s">
+        <v>90</v>
+      </c>
+      <c r="F241" t="s">
+        <v>320</v>
+      </c>
+      <c r="G241" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H241" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>308</v>
+      </c>
+      <c r="B242" t="s">
+        <v>206</v>
+      </c>
+      <c r="C242" t="s">
+        <v>307</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E242" t="s">
+        <v>53</v>
+      </c>
+      <c r="F242" t="s">
+        <v>321</v>
+      </c>
+      <c r="G242" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H242" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>308</v>
+      </c>
+      <c r="B243" t="s">
+        <v>206</v>
+      </c>
+      <c r="C243" t="s">
+        <v>307</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E243" t="s">
+        <v>25</v>
+      </c>
+      <c r="F243" t="s">
+        <v>322</v>
+      </c>
+      <c r="G243" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>308</v>
+      </c>
+      <c r="B244" t="s">
+        <v>206</v>
+      </c>
+      <c r="C244" t="s">
+        <v>307</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E244" t="s">
+        <v>92</v>
+      </c>
+      <c r="F244" t="s">
+        <v>323</v>
+      </c>
+      <c r="G244" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>308</v>
+      </c>
+      <c r="B245" t="s">
+        <v>206</v>
+      </c>
+      <c r="C245" t="s">
+        <v>307</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E245" t="s">
+        <v>23</v>
+      </c>
+      <c r="F245" t="s">
+        <v>324</v>
+      </c>
+      <c r="G245" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H245" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>308</v>
+      </c>
+      <c r="B246" t="s">
+        <v>206</v>
+      </c>
+      <c r="C246" t="s">
+        <v>307</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E246" t="s">
+        <v>227</v>
+      </c>
+      <c r="F246" t="s">
+        <v>325</v>
+      </c>
+      <c r="G246" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H246" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>308</v>
+      </c>
+      <c r="B247" t="s">
+        <v>11</v>
+      </c>
+      <c r="C247" t="s">
+        <v>326</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E247" t="s">
+        <v>21</v>
+      </c>
+      <c r="F247" t="s">
+        <v>327</v>
+      </c>
+      <c r="G247" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>308</v>
+      </c>
+      <c r="B248" t="s">
+        <v>11</v>
+      </c>
+      <c r="C248" t="s">
+        <v>326</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E248" t="s">
+        <v>23</v>
+      </c>
+      <c r="F248" t="s">
+        <v>328</v>
+      </c>
+      <c r="G248" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H248" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>308</v>
+      </c>
+      <c r="B249" t="s">
+        <v>11</v>
+      </c>
+      <c r="C249" t="s">
+        <v>326</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E249" t="s">
+        <v>27</v>
+      </c>
+      <c r="F249" t="s">
+        <v>329</v>
+      </c>
+      <c r="G249" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H249" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>308</v>
+      </c>
+      <c r="B250" t="s">
+        <v>11</v>
+      </c>
+      <c r="C250" t="s">
+        <v>326</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E250" t="s">
+        <v>219</v>
+      </c>
+      <c r="F250" t="s">
+        <v>330</v>
+      </c>
+      <c r="G250" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>308</v>
+      </c>
+      <c r="B251" t="s">
+        <v>11</v>
+      </c>
+      <c r="C251" t="s">
+        <v>326</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E251" t="s">
+        <v>13</v>
+      </c>
+      <c r="F251" t="s">
+        <v>331</v>
+      </c>
+      <c r="G251" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H251" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>308</v>
+      </c>
+      <c r="B252" t="s">
+        <v>11</v>
+      </c>
+      <c r="C252" t="s">
+        <v>326</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E252" t="s">
+        <v>33</v>
+      </c>
+      <c r="F252" t="s">
+        <v>332</v>
+      </c>
+      <c r="G252" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H252" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>308</v>
+      </c>
+      <c r="B253" t="s">
+        <v>11</v>
+      </c>
+      <c r="C253" t="s">
+        <v>326</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E253" t="s">
+        <v>35</v>
+      </c>
+      <c r="F253" t="s">
+        <v>333</v>
+      </c>
+      <c r="G253" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H253" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>308</v>
+      </c>
+      <c r="B254" t="s">
+        <v>11</v>
+      </c>
+      <c r="C254" t="s">
+        <v>326</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E254" t="s">
+        <v>31</v>
+      </c>
+      <c r="F254" t="s">
+        <v>317</v>
+      </c>
+      <c r="G254" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H254" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>308</v>
+      </c>
+      <c r="B255" t="s">
+        <v>11</v>
+      </c>
+      <c r="C255" t="s">
+        <v>326</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E255" t="s">
+        <v>120</v>
+      </c>
+      <c r="F255" t="s">
+        <v>334</v>
+      </c>
+      <c r="G255" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H255" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>308</v>
+      </c>
+      <c r="B256" t="s">
+        <v>11</v>
+      </c>
+      <c r="C256" t="s">
+        <v>326</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E256" t="s">
+        <v>84</v>
+      </c>
+      <c r="F256" t="s">
+        <v>310</v>
+      </c>
+      <c r="G256" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H256" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>308</v>
+      </c>
+      <c r="B257" t="s">
+        <v>11</v>
+      </c>
+      <c r="C257" t="s">
+        <v>326</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E257" t="s">
+        <v>29</v>
+      </c>
+      <c r="F257" t="s">
+        <v>309</v>
+      </c>
+      <c r="G257" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H257" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>308</v>
+      </c>
+      <c r="B258" t="s">
+        <v>11</v>
+      </c>
+      <c r="C258" t="s">
+        <v>326</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E258" t="s">
+        <v>93</v>
+      </c>
+      <c r="F258" t="s">
+        <v>320</v>
+      </c>
+      <c r="G258" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H258" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>308</v>
+      </c>
+      <c r="B259" t="s">
+        <v>11</v>
+      </c>
+      <c r="C259" t="s">
+        <v>326</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E259" t="s">
+        <v>335</v>
+      </c>
+      <c r="F259" t="s">
+        <v>336</v>
+      </c>
+      <c r="G259" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H259" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>308</v>
+      </c>
+      <c r="B260" t="s">
+        <v>11</v>
+      </c>
+      <c r="C260" t="s">
+        <v>326</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E260" t="s">
+        <v>130</v>
+      </c>
+      <c r="F260" t="s">
+        <v>337</v>
+      </c>
+      <c r="G260" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H260" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>308</v>
+      </c>
+      <c r="B261" t="s">
+        <v>11</v>
+      </c>
+      <c r="C261" t="s">
+        <v>326</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E261" t="s">
+        <v>16</v>
+      </c>
+      <c r="F261" t="s">
+        <v>338</v>
+      </c>
+      <c r="G261" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>308</v>
+      </c>
+      <c r="B262" t="s">
+        <v>11</v>
+      </c>
+      <c r="C262" t="s">
+        <v>326</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E262" t="s">
+        <v>339</v>
+      </c>
+      <c r="F262" t="s">
+        <v>340</v>
+      </c>
+      <c r="G262" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H262" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>308</v>
+      </c>
+      <c r="B263" t="s">
+        <v>11</v>
+      </c>
+      <c r="C263" t="s">
+        <v>326</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E263" t="s">
+        <v>253</v>
+      </c>
+      <c r="F263" t="s">
+        <v>341</v>
+      </c>
+      <c r="G263" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H263" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>308</v>
+      </c>
+      <c r="B264" t="s">
+        <v>11</v>
+      </c>
+      <c r="C264" t="s">
+        <v>326</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E264" t="s">
+        <v>61</v>
+      </c>
+      <c r="F264" t="s">
+        <v>342</v>
+      </c>
+      <c r="G264" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H264" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>308</v>
+      </c>
+      <c r="B265" t="s">
+        <v>11</v>
+      </c>
+      <c r="C265" t="s">
+        <v>326</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E265" t="s">
+        <v>343</v>
+      </c>
+      <c r="F265" t="s">
+        <v>344</v>
+      </c>
+      <c r="G265" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H265" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>308</v>
+      </c>
+      <c r="B266" t="s">
+        <v>11</v>
+      </c>
+      <c r="C266" t="s">
+        <v>326</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E266" t="s">
+        <v>44</v>
+      </c>
+      <c r="F266" t="s">
+        <v>316</v>
+      </c>
+      <c r="G266" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H266" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>308</v>
+      </c>
+      <c r="B267" t="s">
+        <v>11</v>
+      </c>
+      <c r="C267" t="s">
+        <v>326</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E267" t="s">
+        <v>25</v>
+      </c>
+      <c r="F267" t="s">
+        <v>345</v>
+      </c>
+      <c r="G267" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H267" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>308</v>
+      </c>
+      <c r="B268" t="s">
+        <v>11</v>
+      </c>
+      <c r="C268" t="s">
+        <v>326</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E268" t="s">
+        <v>40</v>
+      </c>
+      <c r="F268" t="s">
+        <v>337</v>
+      </c>
+      <c r="G268" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H268" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>308</v>
+      </c>
+      <c r="B269" t="s">
+        <v>348</v>
+      </c>
+      <c r="C269" t="s">
+        <v>347</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E269" t="s">
+        <v>31</v>
+      </c>
+      <c r="F269" t="s">
+        <v>317</v>
+      </c>
+      <c r="G269" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H269" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>308</v>
+      </c>
+      <c r="B270" t="s">
+        <v>348</v>
+      </c>
+      <c r="C270" t="s">
+        <v>347</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E270" t="s">
+        <v>13</v>
+      </c>
+      <c r="F270" t="s">
+        <v>350</v>
+      </c>
+      <c r="G270" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H270" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>308</v>
+      </c>
+      <c r="B271" t="s">
+        <v>348</v>
+      </c>
+      <c r="C271" t="s">
+        <v>347</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E271" t="s">
+        <v>21</v>
+      </c>
+      <c r="F271" t="s">
+        <v>351</v>
+      </c>
+      <c r="G271" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H271" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>308</v>
+      </c>
+      <c r="B272" t="s">
+        <v>348</v>
+      </c>
+      <c r="C272" t="s">
+        <v>347</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E272" t="s">
+        <v>27</v>
+      </c>
+      <c r="F272" t="s">
+        <v>352</v>
+      </c>
+      <c r="G272" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H272" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>308</v>
+      </c>
+      <c r="B273" t="s">
+        <v>348</v>
+      </c>
+      <c r="C273" t="s">
+        <v>347</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E273" t="s">
+        <v>35</v>
+      </c>
+      <c r="F273" t="s">
+        <v>353</v>
+      </c>
+      <c r="G273" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H273" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>308</v>
+      </c>
+      <c r="B274" t="s">
+        <v>348</v>
+      </c>
+      <c r="C274" t="s">
+        <v>347</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E274" t="s">
+        <v>33</v>
+      </c>
+      <c r="F274" t="s">
+        <v>354</v>
+      </c>
+      <c r="G274" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H274" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>308</v>
+      </c>
+      <c r="B275" t="s">
+        <v>348</v>
+      </c>
+      <c r="C275" t="s">
+        <v>347</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E275" t="s">
+        <v>44</v>
+      </c>
+      <c r="F275" t="s">
+        <v>355</v>
+      </c>
+      <c r="G275" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H275" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>308</v>
+      </c>
+      <c r="B276" t="s">
+        <v>348</v>
+      </c>
+      <c r="C276" t="s">
+        <v>347</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E276" t="s">
+        <v>56</v>
+      </c>
+      <c r="F276" t="s">
+        <v>356</v>
+      </c>
+      <c r="G276" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H276" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>308</v>
+      </c>
+      <c r="B277" t="s">
+        <v>348</v>
+      </c>
+      <c r="C277" t="s">
+        <v>347</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E277" t="s">
+        <v>29</v>
+      </c>
+      <c r="F277" t="s">
+        <v>357</v>
+      </c>
+      <c r="G277" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H277" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>308</v>
+      </c>
+      <c r="B278" t="s">
+        <v>348</v>
+      </c>
+      <c r="C278" t="s">
+        <v>347</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E278" t="s">
+        <v>84</v>
+      </c>
+      <c r="F278" t="s">
+        <v>358</v>
+      </c>
+      <c r="G278" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H278" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>308</v>
+      </c>
+      <c r="B279" t="s">
+        <v>348</v>
+      </c>
+      <c r="C279" t="s">
+        <v>347</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E279" t="s">
+        <v>90</v>
+      </c>
+      <c r="F279" t="s">
+        <v>359</v>
+      </c>
+      <c r="G279" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H279" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>308</v>
+      </c>
+      <c r="B280" t="s">
+        <v>348</v>
+      </c>
+      <c r="C280" t="s">
+        <v>347</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E280" t="s">
+        <v>16</v>
+      </c>
+      <c r="F280" t="s">
+        <v>360</v>
+      </c>
+      <c r="G280" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H280" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>308</v>
+      </c>
+      <c r="B281" t="s">
+        <v>348</v>
+      </c>
+      <c r="C281" t="s">
+        <v>347</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E281" t="s">
+        <v>23</v>
+      </c>
+      <c r="F281" t="s">
+        <v>361</v>
+      </c>
+      <c r="G281" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H281" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>308</v>
+      </c>
+      <c r="B282" t="s">
+        <v>348</v>
+      </c>
+      <c r="C282" t="s">
+        <v>347</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E282" t="s">
+        <v>61</v>
+      </c>
+      <c r="F282" t="s">
+        <v>362</v>
+      </c>
+      <c r="G282" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H282" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>308</v>
+      </c>
+      <c r="B283" t="s">
+        <v>348</v>
+      </c>
+      <c r="C283" t="s">
+        <v>347</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E283" t="s">
+        <v>53</v>
+      </c>
+      <c r="F283" t="s">
+        <v>321</v>
+      </c>
+      <c r="G283" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H283" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>308</v>
+      </c>
+      <c r="B284" t="s">
+        <v>348</v>
+      </c>
+      <c r="C284" t="s">
+        <v>347</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E284" t="s">
+        <v>253</v>
+      </c>
+      <c r="F284" t="s">
+        <v>363</v>
+      </c>
+      <c r="G284" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H284" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>308</v>
+      </c>
+      <c r="B285" t="s">
+        <v>348</v>
+      </c>
+      <c r="C285" t="s">
+        <v>347</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E285" t="s">
+        <v>237</v>
+      </c>
+      <c r="F285" t="s">
+        <v>364</v>
+      </c>
+      <c r="G285" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H285" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>308</v>
+      </c>
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+      <c r="C286" t="s">
+        <v>365</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E286" t="s">
+        <v>13</v>
+      </c>
+      <c r="F286" t="s">
+        <v>367</v>
+      </c>
+      <c r="G286" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H286" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>308</v>
+      </c>
+      <c r="B287" t="s">
+        <v>11</v>
+      </c>
+      <c r="C287" t="s">
+        <v>365</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E287" t="s">
+        <v>27</v>
+      </c>
+      <c r="F287" t="s">
+        <v>368</v>
+      </c>
+      <c r="G287" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H287" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>308</v>
+      </c>
+      <c r="B288" t="s">
+        <v>11</v>
+      </c>
+      <c r="C288" t="s">
+        <v>365</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E288" t="s">
+        <v>27</v>
+      </c>
+      <c r="F288" t="s">
+        <v>369</v>
+      </c>
+      <c r="G288" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H288" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>308</v>
+      </c>
+      <c r="B289" t="s">
+        <v>11</v>
+      </c>
+      <c r="C289" t="s">
+        <v>365</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E289" t="s">
+        <v>23</v>
+      </c>
+      <c r="F289" t="s">
+        <v>370</v>
+      </c>
+      <c r="G289" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H289" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>308</v>
+      </c>
+      <c r="B290" t="s">
+        <v>11</v>
+      </c>
+      <c r="C290" t="s">
+        <v>365</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E290" t="s">
+        <v>61</v>
+      </c>
+      <c r="F290" t="s">
+        <v>371</v>
+      </c>
+      <c r="G290" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H290" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>308</v>
+      </c>
+      <c r="B291" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" t="s">
+        <v>365</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E291" t="s">
+        <v>124</v>
+      </c>
+      <c r="F291" t="s">
+        <v>372</v>
+      </c>
+      <c r="G291" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H291" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>308</v>
+      </c>
+      <c r="B292" t="s">
+        <v>11</v>
+      </c>
+      <c r="C292" t="s">
+        <v>365</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E292" t="s">
+        <v>33</v>
+      </c>
+      <c r="F292" t="s">
+        <v>373</v>
+      </c>
+      <c r="G292" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H292" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>308</v>
+      </c>
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+      <c r="C293" t="s">
+        <v>365</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E293" t="s">
+        <v>219</v>
+      </c>
+      <c r="F293" t="s">
+        <v>330</v>
+      </c>
+      <c r="G293" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H293" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>308</v>
+      </c>
+      <c r="B294" t="s">
+        <v>11</v>
+      </c>
+      <c r="C294" t="s">
+        <v>365</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E294" t="s">
+        <v>107</v>
+      </c>
+      <c r="F294" t="s">
+        <v>317</v>
+      </c>
+      <c r="G294" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H294" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>308</v>
+      </c>
+      <c r="B295" t="s">
+        <v>11</v>
+      </c>
+      <c r="C295" t="s">
+        <v>365</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E295" t="s">
+        <v>29</v>
+      </c>
+      <c r="F295" t="s">
+        <v>309</v>
+      </c>
+      <c r="G295" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H295" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>308</v>
+      </c>
+      <c r="B296" t="s">
+        <v>11</v>
+      </c>
+      <c r="C296" t="s">
+        <v>365</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E296" t="s">
+        <v>25</v>
+      </c>
+      <c r="F296" t="s">
+        <v>374</v>
+      </c>
+      <c r="G296" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H296" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>308</v>
+      </c>
+      <c r="B297" t="s">
+        <v>11</v>
+      </c>
+      <c r="C297" t="s">
+        <v>365</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E297" t="s">
+        <v>84</v>
+      </c>
+      <c r="F297" t="s">
+        <v>375</v>
+      </c>
+      <c r="G297" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H297" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>308</v>
+      </c>
+      <c r="B298" t="s">
+        <v>11</v>
+      </c>
+      <c r="C298" t="s">
+        <v>365</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E298" t="s">
+        <v>35</v>
+      </c>
+      <c r="F298" t="s">
+        <v>376</v>
+      </c>
+      <c r="G298" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H298" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>308</v>
+      </c>
+      <c r="B299" t="s">
+        <v>11</v>
+      </c>
+      <c r="C299" t="s">
+        <v>365</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E299" t="s">
+        <v>16</v>
+      </c>
+      <c r="F299" t="s">
+        <v>377</v>
+      </c>
+      <c r="G299" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H299" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>308</v>
+      </c>
+      <c r="B300" t="s">
+        <v>11</v>
+      </c>
+      <c r="C300" t="s">
+        <v>365</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E300" t="s">
+        <v>120</v>
+      </c>
+      <c r="F300" t="s">
+        <v>378</v>
+      </c>
+      <c r="G300" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H300" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>308</v>
+      </c>
+      <c r="B301" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301" t="s">
+        <v>365</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E301" t="s">
+        <v>44</v>
+      </c>
+      <c r="F301" t="s">
+        <v>379</v>
+      </c>
+      <c r="G301" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H301" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>308</v>
+      </c>
+      <c r="B302" t="s">
+        <v>11</v>
+      </c>
+      <c r="C302" t="s">
+        <v>365</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E302" t="s">
+        <v>335</v>
+      </c>
+      <c r="F302" t="s">
+        <v>380</v>
+      </c>
+      <c r="G302" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H302" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>308</v>
+      </c>
+      <c r="B303" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" t="s">
+        <v>365</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E303" t="s">
+        <v>130</v>
+      </c>
+      <c r="F303" t="s">
+        <v>337</v>
+      </c>
+      <c r="G303" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H303" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>308</v>
+      </c>
+      <c r="B304" t="s">
+        <v>11</v>
+      </c>
+      <c r="C304" t="s">
+        <v>365</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E304" t="s">
+        <v>56</v>
+      </c>
+      <c r="F304" t="s">
+        <v>381</v>
+      </c>
+      <c r="G304" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H304" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>308</v>
+      </c>
+      <c r="B305" t="s">
+        <v>11</v>
+      </c>
+      <c r="C305" t="s">
+        <v>365</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E305" t="s">
+        <v>382</v>
+      </c>
+      <c r="F305" t="s">
+        <v>383</v>
+      </c>
+      <c r="G305" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H305" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306" t="s">
+        <v>11</v>
+      </c>
+      <c r="C306" t="s">
+        <v>365</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E306" t="s">
+        <v>234</v>
+      </c>
+      <c r="F306" t="s">
+        <v>384</v>
+      </c>
+      <c r="G306" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H306" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307" t="s">
+        <v>11</v>
+      </c>
+      <c r="C307" t="s">
+        <v>385</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E307" t="s">
+        <v>13</v>
+      </c>
+      <c r="F307" t="s">
+        <v>367</v>
+      </c>
+      <c r="G307" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H307" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308" t="s">
+        <v>11</v>
+      </c>
+      <c r="C308" t="s">
+        <v>385</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E308" t="s">
+        <v>21</v>
+      </c>
+      <c r="F308" t="s">
+        <v>387</v>
+      </c>
+      <c r="G308" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H308" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>308</v>
+      </c>
+      <c r="B309" t="s">
+        <v>11</v>
+      </c>
+      <c r="C309" t="s">
+        <v>385</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E309" t="s">
+        <v>27</v>
+      </c>
+      <c r="F309" t="s">
+        <v>368</v>
+      </c>
+      <c r="G309" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H309" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>308</v>
+      </c>
+      <c r="B310" t="s">
+        <v>11</v>
+      </c>
+      <c r="C310" t="s">
+        <v>385</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E310" t="s">
+        <v>23</v>
+      </c>
+      <c r="F310" t="s">
+        <v>388</v>
+      </c>
+      <c r="G310" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H310" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>308</v>
+      </c>
+      <c r="B311" t="s">
+        <v>11</v>
+      </c>
+      <c r="C311" t="s">
+        <v>385</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E311" t="s">
+        <v>61</v>
+      </c>
+      <c r="F311" t="s">
+        <v>370</v>
+      </c>
+      <c r="G311" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H311" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>308</v>
+      </c>
+      <c r="B312" t="s">
+        <v>11</v>
+      </c>
+      <c r="C312" t="s">
+        <v>385</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E312" t="s">
+        <v>124</v>
+      </c>
+      <c r="F312" t="s">
+        <v>372</v>
+      </c>
+      <c r="G312" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H312" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>308</v>
+      </c>
+      <c r="B313" t="s">
+        <v>11</v>
+      </c>
+      <c r="C313" t="s">
+        <v>385</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E313" t="s">
+        <v>33</v>
+      </c>
+      <c r="F313" t="s">
+        <v>389</v>
+      </c>
+      <c r="G313" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H313" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>308</v>
+      </c>
+      <c r="B314" t="s">
+        <v>11</v>
+      </c>
+      <c r="C314" t="s">
+        <v>385</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E314" t="s">
+        <v>107</v>
+      </c>
+      <c r="F314" t="s">
+        <v>390</v>
+      </c>
+      <c r="G314" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H314" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>308</v>
+      </c>
+      <c r="B315" t="s">
+        <v>11</v>
+      </c>
+      <c r="C315" t="s">
+        <v>385</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E315" t="s">
+        <v>219</v>
+      </c>
+      <c r="F315" t="s">
+        <v>330</v>
+      </c>
+      <c r="G315" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H315" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>308</v>
+      </c>
+      <c r="B316" t="s">
+        <v>11</v>
+      </c>
+      <c r="C316" t="s">
+        <v>385</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E316" t="s">
+        <v>29</v>
+      </c>
+      <c r="F316" t="s">
+        <v>309</v>
+      </c>
+      <c r="G316" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H316" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>308</v>
+      </c>
+      <c r="B317" t="s">
+        <v>11</v>
+      </c>
+      <c r="C317" t="s">
+        <v>385</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E317" t="s">
+        <v>25</v>
+      </c>
+      <c r="F317" t="s">
+        <v>391</v>
+      </c>
+      <c r="G317" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H317" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>308</v>
+      </c>
+      <c r="B318" t="s">
+        <v>11</v>
+      </c>
+      <c r="C318" t="s">
+        <v>385</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E318" t="s">
+        <v>234</v>
+      </c>
+      <c r="F318" t="s">
+        <v>392</v>
+      </c>
+      <c r="G318" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H318" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>308</v>
+      </c>
+      <c r="B319" t="s">
+        <v>11</v>
+      </c>
+      <c r="C319" t="s">
+        <v>385</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E319" t="s">
+        <v>84</v>
+      </c>
+      <c r="F319" t="s">
+        <v>375</v>
+      </c>
+      <c r="G319" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H319" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>308</v>
+      </c>
+      <c r="B320" t="s">
+        <v>11</v>
+      </c>
+      <c r="C320" t="s">
+        <v>385</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E320" t="s">
+        <v>35</v>
+      </c>
+      <c r="F320" t="s">
+        <v>376</v>
+      </c>
+      <c r="G320" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H320" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>308</v>
+      </c>
+      <c r="B321" t="s">
+        <v>11</v>
+      </c>
+      <c r="C321" t="s">
+        <v>385</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E321" t="s">
+        <v>99</v>
+      </c>
+      <c r="G321" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H321" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>308</v>
+      </c>
+      <c r="B322" t="s">
+        <v>11</v>
+      </c>
+      <c r="C322" t="s">
+        <v>385</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E322" t="s">
+        <v>31</v>
+      </c>
+      <c r="F322" t="s">
+        <v>317</v>
+      </c>
+      <c r="G322" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H322" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>308</v>
+      </c>
+      <c r="B323" t="s">
+        <v>11</v>
+      </c>
+      <c r="C323" t="s">
+        <v>385</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E323" t="s">
+        <v>90</v>
+      </c>
+      <c r="F323" t="s">
+        <v>393</v>
+      </c>
+      <c r="G323" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H323" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>308</v>
+      </c>
+      <c r="B324" t="s">
+        <v>11</v>
+      </c>
+      <c r="C324" t="s">
+        <v>385</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E324" t="s">
+        <v>253</v>
+      </c>
+      <c r="F324" t="s">
+        <v>394</v>
+      </c>
+      <c r="G324" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H324" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>308</v>
+      </c>
+      <c r="B325" t="s">
+        <v>11</v>
+      </c>
+      <c r="C325" t="s">
+        <v>385</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E325" t="s">
+        <v>40</v>
+      </c>
+      <c r="F325" t="s">
+        <v>337</v>
+      </c>
+      <c r="G325" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H325" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>308</v>
+      </c>
+      <c r="B326" t="s">
+        <v>11</v>
+      </c>
+      <c r="C326" t="s">
+        <v>385</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E326" t="s">
+        <v>93</v>
+      </c>
+      <c r="F326" t="s">
+        <v>320</v>
+      </c>
+      <c r="G326" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H326" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>308</v>
+      </c>
+      <c r="B327" t="s">
+        <v>11</v>
+      </c>
+      <c r="C327" t="s">
+        <v>385</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E327" t="s">
+        <v>44</v>
+      </c>
+      <c r="F327" t="s">
+        <v>316</v>
+      </c>
+      <c r="G327" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H327" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>308</v>
+      </c>
+      <c r="B328" t="s">
+        <v>11</v>
+      </c>
+      <c r="C328" t="s">
+        <v>385</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E328" t="s">
+        <v>46</v>
+      </c>
+      <c r="F328" t="s">
+        <v>383</v>
+      </c>
+      <c r="G328" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H328" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>308</v>
+      </c>
+      <c r="B329" t="s">
+        <v>408</v>
+      </c>
+      <c r="C329" t="s">
+        <v>395</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E329" t="s">
+        <v>29</v>
+      </c>
+      <c r="F329" t="s">
+        <v>357</v>
+      </c>
+      <c r="G329" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H329" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>308</v>
+      </c>
+      <c r="B330" t="s">
+        <v>408</v>
+      </c>
+      <c r="C330" t="s">
+        <v>395</v>
+      </c>
+      <c r="D330" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E330" t="s">
+        <v>13</v>
+      </c>
+      <c r="F330" t="s">
+        <v>397</v>
+      </c>
+      <c r="G330" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H330" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>308</v>
+      </c>
+      <c r="B331" t="s">
+        <v>408</v>
+      </c>
+      <c r="C331" t="s">
+        <v>395</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E331" t="s">
+        <v>84</v>
+      </c>
+      <c r="F331" t="s">
+        <v>358</v>
+      </c>
+      <c r="G331" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H331" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>308</v>
+      </c>
+      <c r="B332" t="s">
+        <v>408</v>
+      </c>
+      <c r="C332" t="s">
+        <v>395</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E332" t="s">
+        <v>44</v>
+      </c>
+      <c r="F332" t="s">
+        <v>355</v>
+      </c>
+      <c r="G332" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H332" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>308</v>
+      </c>
+      <c r="B333" t="s">
+        <v>408</v>
+      </c>
+      <c r="C333" t="s">
+        <v>395</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E333" t="s">
+        <v>21</v>
+      </c>
+      <c r="F333" t="s">
+        <v>398</v>
+      </c>
+      <c r="G333" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H333" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>308</v>
+      </c>
+      <c r="B334" t="s">
+        <v>408</v>
+      </c>
+      <c r="C334" t="s">
+        <v>395</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E334" t="s">
+        <v>27</v>
+      </c>
+      <c r="F334" t="s">
+        <v>399</v>
+      </c>
+      <c r="G334" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H334" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>308</v>
+      </c>
+      <c r="B335" t="s">
+        <v>408</v>
+      </c>
+      <c r="C335" t="s">
+        <v>395</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E335" t="s">
+        <v>56</v>
+      </c>
+      <c r="F335" t="s">
+        <v>400</v>
+      </c>
+      <c r="G335" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H335" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>308</v>
+      </c>
+      <c r="B336" t="s">
+        <v>408</v>
+      </c>
+      <c r="C336" t="s">
+        <v>395</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E336" t="s">
+        <v>35</v>
+      </c>
+      <c r="F336" t="s">
+        <v>401</v>
+      </c>
+      <c r="G336" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H336" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>308</v>
+      </c>
+      <c r="B337" t="s">
+        <v>408</v>
+      </c>
+      <c r="C337" t="s">
+        <v>395</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E337" t="s">
+        <v>33</v>
+      </c>
+      <c r="F337" t="s">
+        <v>354</v>
+      </c>
+      <c r="G337" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H337" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>308</v>
+      </c>
+      <c r="B338" t="s">
+        <v>408</v>
+      </c>
+      <c r="C338" t="s">
+        <v>395</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E338" t="s">
+        <v>297</v>
+      </c>
+      <c r="F338" t="s">
+        <v>402</v>
+      </c>
+      <c r="G338" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H338" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>308</v>
+      </c>
+      <c r="B339" t="s">
+        <v>408</v>
+      </c>
+      <c r="C339" t="s">
+        <v>395</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E339" t="s">
+        <v>23</v>
+      </c>
+      <c r="F339" t="s">
+        <v>403</v>
+      </c>
+      <c r="G339" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H339" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>308</v>
+      </c>
+      <c r="B340" t="s">
+        <v>408</v>
+      </c>
+      <c r="C340" t="s">
+        <v>395</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E340" t="s">
+        <v>40</v>
+      </c>
+      <c r="F340" t="s">
+        <v>404</v>
+      </c>
+      <c r="G340" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H340" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>308</v>
+      </c>
+      <c r="B341" t="s">
+        <v>408</v>
+      </c>
+      <c r="C341" t="s">
+        <v>395</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E341" t="s">
+        <v>227</v>
+      </c>
+      <c r="F341" t="s">
+        <v>317</v>
+      </c>
+      <c r="G341" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H341" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>308</v>
+      </c>
+      <c r="B342" t="s">
+        <v>408</v>
+      </c>
+      <c r="C342" t="s">
+        <v>395</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E342" t="s">
+        <v>25</v>
+      </c>
+      <c r="F342" t="s">
+        <v>405</v>
+      </c>
+      <c r="G342" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H342" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>308</v>
+      </c>
+      <c r="B343" t="s">
+        <v>408</v>
+      </c>
+      <c r="C343" t="s">
+        <v>395</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E343" t="s">
+        <v>90</v>
+      </c>
+      <c r="F343" t="s">
+        <v>359</v>
+      </c>
+      <c r="G343" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H343" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>308</v>
+      </c>
+      <c r="B344" t="s">
+        <v>408</v>
+      </c>
+      <c r="C344" t="s">
+        <v>395</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E344" t="s">
+        <v>16</v>
+      </c>
+      <c r="F344" t="s">
+        <v>406</v>
+      </c>
+      <c r="G344" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H344" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>308</v>
+      </c>
+      <c r="B345" t="s">
+        <v>408</v>
+      </c>
+      <c r="C345" t="s">
+        <v>395</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E345" t="s">
+        <v>92</v>
+      </c>
+      <c r="F345" t="s">
+        <v>407</v>
+      </c>
+      <c r="G345" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H345" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>308</v>
+      </c>
+      <c r="B346" t="s">
+        <v>408</v>
+      </c>
+      <c r="C346" t="s">
+        <v>395</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E346" t="s">
+        <v>253</v>
+      </c>
+      <c r="F346" t="s">
+        <v>363</v>
+      </c>
+      <c r="G346" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H346" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>308</v>
+      </c>
+      <c r="B347" t="s">
+        <v>11</v>
+      </c>
+      <c r="C347" t="s">
+        <v>409</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E347" t="s">
+        <v>23</v>
+      </c>
+      <c r="F347" t="s">
+        <v>411</v>
+      </c>
+      <c r="G347" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H347" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>308</v>
+      </c>
+      <c r="B348" t="s">
+        <v>11</v>
+      </c>
+      <c r="C348" t="s">
+        <v>409</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E348" t="s">
+        <v>13</v>
+      </c>
+      <c r="F348" t="s">
+        <v>412</v>
+      </c>
+      <c r="G348" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H348" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>308</v>
+      </c>
+      <c r="B349" t="s">
+        <v>11</v>
+      </c>
+      <c r="C349" t="s">
+        <v>409</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E349" t="s">
+        <v>21</v>
+      </c>
+      <c r="F349" t="s">
+        <v>327</v>
+      </c>
+      <c r="G349" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H349" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>308</v>
+      </c>
+      <c r="B350" t="s">
+        <v>11</v>
+      </c>
+      <c r="C350" t="s">
+        <v>409</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E350" t="s">
+        <v>25</v>
+      </c>
+      <c r="F350" t="s">
+        <v>413</v>
+      </c>
+      <c r="G350" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H350" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>308</v>
+      </c>
+      <c r="B351" t="s">
+        <v>11</v>
+      </c>
+      <c r="C351" t="s">
+        <v>409</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E351" t="s">
+        <v>27</v>
+      </c>
+      <c r="F351" t="s">
+        <v>414</v>
+      </c>
+      <c r="G351" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H351" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>308</v>
+      </c>
+      <c r="B352" t="s">
+        <v>11</v>
+      </c>
+      <c r="C352" t="s">
+        <v>409</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E352" t="s">
+        <v>33</v>
+      </c>
+      <c r="F352" t="s">
+        <v>415</v>
+      </c>
+      <c r="G352" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H352" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>308</v>
+      </c>
+      <c r="B353" t="s">
+        <v>11</v>
+      </c>
+      <c r="C353" t="s">
+        <v>409</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E353" t="s">
+        <v>35</v>
+      </c>
+      <c r="F353" t="s">
+        <v>416</v>
+      </c>
+      <c r="G353" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H353" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>308</v>
+      </c>
+      <c r="B354" t="s">
+        <v>11</v>
+      </c>
+      <c r="C354" t="s">
+        <v>409</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E354" t="s">
+        <v>29</v>
+      </c>
+      <c r="F354" t="s">
+        <v>309</v>
+      </c>
+      <c r="G354" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H354" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>308</v>
+      </c>
+      <c r="B355" t="s">
+        <v>11</v>
+      </c>
+      <c r="C355" t="s">
+        <v>409</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E355" t="s">
+        <v>120</v>
+      </c>
+      <c r="F355" t="s">
+        <v>417</v>
+      </c>
+      <c r="G355" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H355" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>308</v>
+      </c>
+      <c r="B356" t="s">
+        <v>11</v>
+      </c>
+      <c r="C356" t="s">
+        <v>409</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E356" t="s">
+        <v>107</v>
+      </c>
+      <c r="F356" t="s">
+        <v>317</v>
+      </c>
+      <c r="G356" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H356" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>308</v>
+      </c>
+      <c r="B357" t="s">
+        <v>11</v>
+      </c>
+      <c r="C357" t="s">
+        <v>409</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E357" t="s">
+        <v>130</v>
+      </c>
+      <c r="F357" t="s">
+        <v>337</v>
+      </c>
+      <c r="G357" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H357" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>308</v>
+      </c>
+      <c r="B358" t="s">
+        <v>11</v>
+      </c>
+      <c r="C358" t="s">
+        <v>409</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E358" t="s">
+        <v>335</v>
+      </c>
+      <c r="F358" t="s">
+        <v>380</v>
+      </c>
+      <c r="G358" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H358" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>308</v>
+      </c>
+      <c r="B359" t="s">
+        <v>11</v>
+      </c>
+      <c r="C359" t="s">
+        <v>409</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E359" t="s">
+        <v>93</v>
+      </c>
+      <c r="F359" t="s">
+        <v>320</v>
+      </c>
+      <c r="G359" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H359" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>308</v>
+      </c>
+      <c r="B360" t="s">
+        <v>11</v>
+      </c>
+      <c r="C360" t="s">
+        <v>409</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E360" t="s">
+        <v>16</v>
+      </c>
+      <c r="F360" t="s">
+        <v>418</v>
+      </c>
+      <c r="G360" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H360" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>308</v>
+      </c>
+      <c r="B361" t="s">
+        <v>11</v>
+      </c>
+      <c r="C361" t="s">
+        <v>409</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E361" t="s">
+        <v>40</v>
+      </c>
+      <c r="F361" t="s">
+        <v>337</v>
+      </c>
+      <c r="G361" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H361" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>308</v>
+      </c>
+      <c r="B362" t="s">
+        <v>11</v>
+      </c>
+      <c r="C362" t="s">
+        <v>409</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E362" t="s">
+        <v>44</v>
+      </c>
+      <c r="F362" t="s">
+        <v>419</v>
+      </c>
+      <c r="G362" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H362" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>308</v>
+      </c>
+      <c r="B363" t="s">
+        <v>11</v>
+      </c>
+      <c r="C363" t="s">
+        <v>409</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E363" t="s">
+        <v>53</v>
+      </c>
+      <c r="F363" t="s">
+        <v>321</v>
+      </c>
+      <c r="G363" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H363" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>308</v>
+      </c>
+      <c r="B364" t="s">
+        <v>11</v>
+      </c>
+      <c r="C364" t="s">
+        <v>409</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E364" t="s">
+        <v>420</v>
+      </c>
+      <c r="F364" t="s">
+        <v>421</v>
+      </c>
+      <c r="G364" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H364" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>308</v>
+      </c>
+      <c r="B365" t="s">
+        <v>11</v>
+      </c>
+      <c r="C365" t="s">
+        <v>409</v>
+      </c>
+      <c r="D365" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="E365" t="s">
+        <v>105</v>
+      </c>
+      <c r="F365" t="s">
+        <v>392</v>
+      </c>
+      <c r="G365" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H365" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>308</v>
+      </c>
+      <c r="B366" t="s">
+        <v>348</v>
+      </c>
+      <c r="C366" t="s">
+        <v>422</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E366" t="s">
+        <v>29</v>
+      </c>
+      <c r="F366" t="s">
+        <v>357</v>
+      </c>
+      <c r="G366" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H366" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>308</v>
+      </c>
+      <c r="B367" t="s">
+        <v>348</v>
+      </c>
+      <c r="C367" t="s">
+        <v>422</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E367" t="s">
+        <v>13</v>
+      </c>
+      <c r="F367" t="s">
+        <v>424</v>
+      </c>
+      <c r="G367" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H367" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>308</v>
+      </c>
+      <c r="B368" t="s">
+        <v>348</v>
+      </c>
+      <c r="C368" t="s">
+        <v>422</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E368" t="s">
+        <v>23</v>
+      </c>
+      <c r="F368" t="s">
+        <v>425</v>
+      </c>
+      <c r="G368" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H368" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>308</v>
+      </c>
+      <c r="B369" t="s">
+        <v>348</v>
+      </c>
+      <c r="C369" t="s">
+        <v>422</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E369" t="s">
+        <v>27</v>
+      </c>
+      <c r="F369" t="s">
+        <v>426</v>
+      </c>
+      <c r="G369" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H369" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>308</v>
+      </c>
+      <c r="B370" t="s">
+        <v>348</v>
+      </c>
+      <c r="C370" t="s">
+        <v>422</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E370" t="s">
+        <v>44</v>
+      </c>
+      <c r="F370" t="s">
+        <v>355</v>
+      </c>
+      <c r="G370" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H370" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>308</v>
+      </c>
+      <c r="B371" t="s">
+        <v>348</v>
+      </c>
+      <c r="C371" t="s">
+        <v>422</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E371" t="s">
+        <v>56</v>
+      </c>
+      <c r="F371" t="s">
+        <v>356</v>
+      </c>
+      <c r="G371" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H371" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>308</v>
+      </c>
+      <c r="B372" t="s">
+        <v>348</v>
+      </c>
+      <c r="C372" t="s">
+        <v>422</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E372" t="s">
+        <v>31</v>
+      </c>
+      <c r="F372" t="s">
+        <v>317</v>
+      </c>
+      <c r="G372" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H372" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>308</v>
+      </c>
+      <c r="B373" t="s">
+        <v>348</v>
+      </c>
+      <c r="C373" t="s">
+        <v>422</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E373" t="s">
+        <v>61</v>
+      </c>
+      <c r="F373" t="s">
+        <v>427</v>
+      </c>
+      <c r="G373" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H373" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>308</v>
+      </c>
+      <c r="B374" t="s">
+        <v>348</v>
+      </c>
+      <c r="C374" t="s">
+        <v>422</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E374" t="s">
+        <v>84</v>
+      </c>
+      <c r="F374" t="s">
+        <v>358</v>
+      </c>
+      <c r="G374" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H374" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>308</v>
+      </c>
+      <c r="B375" t="s">
+        <v>348</v>
+      </c>
+      <c r="C375" t="s">
+        <v>422</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E375" t="s">
+        <v>16</v>
+      </c>
+      <c r="F375" t="s">
+        <v>428</v>
+      </c>
+      <c r="G375" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H375" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>308</v>
+      </c>
+      <c r="B376" t="s">
+        <v>429</v>
+      </c>
+      <c r="C376" t="s">
+        <v>430</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E376" t="s">
+        <v>13</v>
+      </c>
+      <c r="F376" t="s">
+        <v>432</v>
+      </c>
+      <c r="G376" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H376" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>308</v>
+      </c>
+      <c r="B377" t="s">
+        <v>429</v>
+      </c>
+      <c r="C377" t="s">
+        <v>430</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E377" t="s">
+        <v>27</v>
+      </c>
+      <c r="F377" t="s">
+        <v>433</v>
+      </c>
+      <c r="G377" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H377" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>308</v>
+      </c>
+      <c r="B378" t="s">
+        <v>429</v>
+      </c>
+      <c r="C378" t="s">
+        <v>430</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E378" t="s">
+        <v>21</v>
+      </c>
+      <c r="F378" t="s">
+        <v>434</v>
+      </c>
+      <c r="G378" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H378" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>308</v>
+      </c>
+      <c r="B379" t="s">
+        <v>429</v>
+      </c>
+      <c r="C379" t="s">
+        <v>430</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E379" t="s">
+        <v>44</v>
+      </c>
+      <c r="F379" t="s">
+        <v>355</v>
+      </c>
+      <c r="G379" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H379" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>308</v>
+      </c>
+      <c r="B380" t="s">
+        <v>429</v>
+      </c>
+      <c r="C380" t="s">
+        <v>430</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E380" t="s">
+        <v>84</v>
+      </c>
+      <c r="F380" t="s">
+        <v>435</v>
+      </c>
+      <c r="G380" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H380" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>308</v>
+      </c>
+      <c r="B381" t="s">
+        <v>429</v>
+      </c>
+      <c r="C381" t="s">
+        <v>430</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E381" t="s">
+        <v>33</v>
+      </c>
+      <c r="F381" t="s">
+        <v>436</v>
+      </c>
+      <c r="G381" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H381" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>308</v>
+      </c>
+      <c r="B382" t="s">
+        <v>429</v>
+      </c>
+      <c r="C382" t="s">
+        <v>430</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E382" t="s">
+        <v>107</v>
+      </c>
+      <c r="F382" t="s">
+        <v>325</v>
+      </c>
+      <c r="G382" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H382" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>308</v>
+      </c>
+      <c r="B383" t="s">
+        <v>429</v>
+      </c>
+      <c r="C383" t="s">
+        <v>430</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E383" t="s">
+        <v>31</v>
+      </c>
+      <c r="F383" t="s">
+        <v>317</v>
+      </c>
+      <c r="G383" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H383" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>308</v>
+      </c>
+      <c r="B384" t="s">
+        <v>429</v>
+      </c>
+      <c r="C384" t="s">
+        <v>430</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E384" t="s">
+        <v>35</v>
+      </c>
+      <c r="F384" t="s">
+        <v>437</v>
+      </c>
+      <c r="G384" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H384" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>308</v>
+      </c>
+      <c r="B385" t="s">
+        <v>429</v>
+      </c>
+      <c r="C385" t="s">
+        <v>430</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E385" t="s">
+        <v>16</v>
+      </c>
+      <c r="F385" t="s">
+        <v>438</v>
+      </c>
+      <c r="G385" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H385" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>308</v>
+      </c>
+      <c r="B386" t="s">
+        <v>429</v>
+      </c>
+      <c r="C386" t="s">
+        <v>430</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E386" t="s">
+        <v>25</v>
+      </c>
+      <c r="F386" t="s">
+        <v>439</v>
+      </c>
+      <c r="G386" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H386" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>308</v>
+      </c>
+      <c r="B387" t="s">
+        <v>429</v>
+      </c>
+      <c r="C387" t="s">
+        <v>430</v>
+      </c>
+      <c r="D387" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E387" t="s">
+        <v>440</v>
+      </c>
+      <c r="F387" t="s">
+        <v>441</v>
+      </c>
+      <c r="G387" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H387" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>308</v>
+      </c>
+      <c r="B388" t="s">
+        <v>429</v>
+      </c>
+      <c r="C388" t="s">
+        <v>430</v>
+      </c>
+      <c r="D388" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E388" t="s">
+        <v>239</v>
+      </c>
+      <c r="F388" t="s">
+        <v>442</v>
+      </c>
+      <c r="G388" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H388" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>308</v>
+      </c>
+      <c r="B389" t="s">
+        <v>429</v>
+      </c>
+      <c r="C389" t="s">
+        <v>430</v>
+      </c>
+      <c r="D389" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E389" t="s">
+        <v>253</v>
+      </c>
+      <c r="F389" t="s">
+        <v>363</v>
+      </c>
+      <c r="G389" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H389" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>308</v>
+      </c>
+      <c r="B390" t="s">
+        <v>429</v>
+      </c>
+      <c r="C390" t="s">
+        <v>430</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E390" t="s">
+        <v>93</v>
+      </c>
+      <c r="F390" t="s">
+        <v>443</v>
+      </c>
+      <c r="G390" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H390" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>308</v>
+      </c>
+      <c r="B391" t="s">
+        <v>429</v>
+      </c>
+      <c r="C391" t="s">
+        <v>430</v>
+      </c>
+      <c r="D391" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E391" t="s">
+        <v>40</v>
+      </c>
+      <c r="F391" t="s">
+        <v>444</v>
+      </c>
+      <c r="G391" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H391" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>308</v>
+      </c>
+      <c r="B392" t="s">
+        <v>429</v>
+      </c>
+      <c r="C392" t="s">
+        <v>430</v>
+      </c>
+      <c r="D392" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E392" t="s">
+        <v>29</v>
+      </c>
+      <c r="F392" t="s">
+        <v>357</v>
+      </c>
+      <c r="G392" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H392" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>308</v>
+      </c>
+      <c r="B393" t="s">
+        <v>429</v>
+      </c>
+      <c r="C393" t="s">
+        <v>430</v>
+      </c>
+      <c r="D393" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E393" t="s">
+        <v>103</v>
+      </c>
+      <c r="F393" t="s">
+        <v>407</v>
+      </c>
+      <c r="G393" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H393" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>308</v>
+      </c>
+      <c r="B394" t="s">
+        <v>429</v>
+      </c>
+      <c r="C394" t="s">
+        <v>430</v>
+      </c>
+      <c r="D394" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E394" t="s">
+        <v>56</v>
+      </c>
+      <c r="F394" t="s">
+        <v>356</v>
+      </c>
+      <c r="G394" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H394" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>308</v>
+      </c>
+      <c r="B395" t="s">
+        <v>445</v>
+      </c>
+      <c r="C395" t="s">
+        <v>446</v>
+      </c>
+      <c r="D395" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E395" t="s">
+        <v>23</v>
+      </c>
+      <c r="F395" t="s">
+        <v>448</v>
+      </c>
+      <c r="G395" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H395" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>308</v>
+      </c>
+      <c r="B396" t="s">
+        <v>445</v>
+      </c>
+      <c r="C396" t="s">
+        <v>446</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E396" t="s">
+        <v>13</v>
+      </c>
+      <c r="F396" t="s">
+        <v>449</v>
+      </c>
+      <c r="G396" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H396" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>308</v>
+      </c>
+      <c r="B397" t="s">
+        <v>445</v>
+      </c>
+      <c r="C397" t="s">
+        <v>446</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E397" t="s">
+        <v>27</v>
+      </c>
+      <c r="F397" t="s">
+        <v>450</v>
+      </c>
+      <c r="G397" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H397" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>308</v>
+      </c>
+      <c r="B398" t="s">
+        <v>445</v>
+      </c>
+      <c r="C398" t="s">
+        <v>446</v>
+      </c>
+      <c r="D398" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E398" t="s">
+        <v>21</v>
+      </c>
+      <c r="F398" t="s">
+        <v>398</v>
+      </c>
+      <c r="G398" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H398" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>308</v>
+      </c>
+      <c r="B399" t="s">
+        <v>445</v>
+      </c>
+      <c r="C399" t="s">
+        <v>446</v>
+      </c>
+      <c r="D399" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E399" t="s">
+        <v>25</v>
+      </c>
+      <c r="F399" t="s">
+        <v>451</v>
+      </c>
+      <c r="G399" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H399" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>308</v>
+      </c>
+      <c r="B400" t="s">
+        <v>445</v>
+      </c>
+      <c r="C400" t="s">
+        <v>446</v>
+      </c>
+      <c r="D400" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E400" t="s">
+        <v>33</v>
+      </c>
+      <c r="F400" t="s">
+        <v>452</v>
+      </c>
+      <c r="G400" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H400" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>308</v>
+      </c>
+      <c r="B401" t="s">
+        <v>445</v>
+      </c>
+      <c r="C401" t="s">
+        <v>446</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E401" t="s">
+        <v>120</v>
+      </c>
+      <c r="F401" t="s">
+        <v>334</v>
+      </c>
+      <c r="G401" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H401" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>308</v>
+      </c>
+      <c r="B402" t="s">
+        <v>445</v>
+      </c>
+      <c r="C402" t="s">
+        <v>446</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E402" t="s">
+        <v>440</v>
+      </c>
+      <c r="F402" t="s">
+        <v>453</v>
+      </c>
+      <c r="G402" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H402" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>308</v>
+      </c>
+      <c r="B403" t="s">
+        <v>445</v>
+      </c>
+      <c r="C403" t="s">
+        <v>446</v>
+      </c>
+      <c r="D403" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E403" t="s">
+        <v>56</v>
+      </c>
+      <c r="F403" t="s">
+        <v>400</v>
+      </c>
+      <c r="G403" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H403" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>308</v>
+      </c>
+      <c r="B404" t="s">
+        <v>445</v>
+      </c>
+      <c r="C404" t="s">
+        <v>446</v>
+      </c>
+      <c r="D404" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E404" t="s">
+        <v>44</v>
+      </c>
+      <c r="F404" t="s">
+        <v>355</v>
+      </c>
+      <c r="G404" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H404" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>308</v>
+      </c>
+      <c r="B405" t="s">
+        <v>445</v>
+      </c>
+      <c r="C405" t="s">
+        <v>446</v>
+      </c>
+      <c r="D405" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E405" t="s">
+        <v>29</v>
+      </c>
+      <c r="F405" t="s">
+        <v>357</v>
+      </c>
+      <c r="G405" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H405" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>308</v>
+      </c>
+      <c r="B406" t="s">
+        <v>445</v>
+      </c>
+      <c r="C406" t="s">
+        <v>446</v>
+      </c>
+      <c r="D406" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E406" t="s">
+        <v>35</v>
+      </c>
+      <c r="F406" t="s">
+        <v>454</v>
+      </c>
+      <c r="G406" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H406" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>308</v>
+      </c>
+      <c r="B407" t="s">
+        <v>445</v>
+      </c>
+      <c r="C407" t="s">
+        <v>446</v>
+      </c>
+      <c r="D407" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E407" t="s">
+        <v>107</v>
+      </c>
+      <c r="F407" t="s">
+        <v>390</v>
+      </c>
+      <c r="G407" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H407" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>308</v>
+      </c>
+      <c r="B408" t="s">
+        <v>445</v>
+      </c>
+      <c r="C408" t="s">
+        <v>446</v>
+      </c>
+      <c r="D408" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E408" t="s">
+        <v>99</v>
+      </c>
+      <c r="F408" t="s">
+        <v>455</v>
+      </c>
+      <c r="G408" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H408" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>308</v>
+      </c>
+      <c r="B409" t="s">
+        <v>445</v>
+      </c>
+      <c r="C409" t="s">
+        <v>446</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E409" t="s">
+        <v>219</v>
+      </c>
+      <c r="F409" t="s">
+        <v>456</v>
+      </c>
+      <c r="G409" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H409" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>308</v>
+      </c>
+      <c r="B410" t="s">
+        <v>445</v>
+      </c>
+      <c r="C410" t="s">
+        <v>446</v>
+      </c>
+      <c r="D410" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E410" t="s">
+        <v>31</v>
+      </c>
+      <c r="F410" t="s">
+        <v>317</v>
+      </c>
+      <c r="G410" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H410" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>308</v>
+      </c>
+      <c r="B411" t="s">
+        <v>445</v>
+      </c>
+      <c r="C411" t="s">
+        <v>446</v>
+      </c>
+      <c r="D411" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E411" t="s">
+        <v>16</v>
+      </c>
+      <c r="F411" t="s">
+        <v>457</v>
+      </c>
+      <c r="G411" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H411" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>308</v>
+      </c>
+      <c r="B412" t="s">
+        <v>445</v>
+      </c>
+      <c r="C412" t="s">
+        <v>446</v>
+      </c>
+      <c r="D412" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E412" t="s">
+        <v>141</v>
+      </c>
+      <c r="F412" t="s">
+        <v>458</v>
+      </c>
+      <c r="G412" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H412" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>308</v>
+      </c>
+      <c r="B413" t="s">
+        <v>445</v>
+      </c>
+      <c r="C413" t="s">
+        <v>446</v>
+      </c>
+      <c r="D413" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E413" t="s">
+        <v>234</v>
+      </c>
+      <c r="F413" t="s">
+        <v>459</v>
+      </c>
+      <c r="G413" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H413" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>308</v>
+      </c>
+      <c r="B414" t="s">
+        <v>348</v>
+      </c>
+      <c r="C414" t="s">
+        <v>460</v>
+      </c>
+      <c r="D414" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E414" t="s">
+        <v>13</v>
+      </c>
+      <c r="F414" t="s">
+        <v>462</v>
+      </c>
+      <c r="G414" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H414" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>308</v>
+      </c>
+      <c r="B415" t="s">
+        <v>348</v>
+      </c>
+      <c r="C415" t="s">
+        <v>460</v>
+      </c>
+      <c r="D415" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E415" t="s">
+        <v>27</v>
+      </c>
+      <c r="F415" t="s">
+        <v>463</v>
+      </c>
+      <c r="G415" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H415" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>308</v>
+      </c>
+      <c r="B416" t="s">
+        <v>348</v>
+      </c>
+      <c r="C416" t="s">
+        <v>460</v>
+      </c>
+      <c r="D416" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E416" t="s">
+        <v>56</v>
+      </c>
+      <c r="F416" t="s">
+        <v>356</v>
+      </c>
+      <c r="G416" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H416" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>308</v>
+      </c>
+      <c r="B417" t="s">
+        <v>348</v>
+      </c>
+      <c r="C417" t="s">
+        <v>460</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E417" t="s">
+        <v>21</v>
+      </c>
+      <c r="F417" t="s">
+        <v>464</v>
+      </c>
+      <c r="G417" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H417" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>308</v>
+      </c>
+      <c r="B418" t="s">
+        <v>348</v>
+      </c>
+      <c r="C418" t="s">
+        <v>460</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E418" t="s">
+        <v>35</v>
+      </c>
+      <c r="F418" t="s">
+        <v>465</v>
+      </c>
+      <c r="G418" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H418" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>308</v>
+      </c>
+      <c r="B419" t="s">
+        <v>348</v>
+      </c>
+      <c r="C419" t="s">
+        <v>460</v>
+      </c>
+      <c r="D419" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E419" t="s">
+        <v>33</v>
+      </c>
+      <c r="F419" t="s">
+        <v>466</v>
+      </c>
+      <c r="G419" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H419" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>308</v>
+      </c>
+      <c r="B420" t="s">
+        <v>348</v>
+      </c>
+      <c r="C420" t="s">
+        <v>460</v>
+      </c>
+      <c r="D420" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E420" t="s">
+        <v>107</v>
+      </c>
+      <c r="F420" t="s">
+        <v>317</v>
+      </c>
+      <c r="G420" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H420" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>308</v>
+      </c>
+      <c r="B421" t="s">
+        <v>348</v>
+      </c>
+      <c r="C421" t="s">
+        <v>460</v>
+      </c>
+      <c r="D421" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E421" t="s">
+        <v>29</v>
+      </c>
+      <c r="F421" t="s">
+        <v>357</v>
+      </c>
+      <c r="G421" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H421" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>308</v>
+      </c>
+      <c r="B422" t="s">
+        <v>348</v>
+      </c>
+      <c r="C422" t="s">
+        <v>460</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E422" t="s">
+        <v>44</v>
+      </c>
+      <c r="F422" t="s">
+        <v>355</v>
+      </c>
+      <c r="G422" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H422" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>308</v>
+      </c>
+      <c r="B423" t="s">
+        <v>348</v>
+      </c>
+      <c r="C423" t="s">
+        <v>460</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E423" t="s">
+        <v>103</v>
+      </c>
+      <c r="F423" t="s">
+        <v>466</v>
+      </c>
+      <c r="G423" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H423" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>308</v>
+      </c>
+      <c r="B424" t="s">
+        <v>348</v>
+      </c>
+      <c r="C424" t="s">
+        <v>460</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E424" t="s">
+        <v>84</v>
+      </c>
+      <c r="F424" t="s">
+        <v>358</v>
+      </c>
+      <c r="G424" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H424" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>308</v>
+      </c>
+      <c r="B425" t="s">
+        <v>348</v>
+      </c>
+      <c r="C425" t="s">
+        <v>460</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="E425" t="s">
+        <v>61</v>
+      </c>
+      <c r="F425" t="s">
+        <v>467</v>
+      </c>
+      <c r="G425" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H425" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>308</v>
+      </c>
+      <c r="B426" t="s">
+        <v>468</v>
+      </c>
+      <c r="C426" t="s">
+        <v>469</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E426" t="s">
+        <v>107</v>
+      </c>
+      <c r="F426" t="s">
+        <v>471</v>
+      </c>
+      <c r="G426" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H426" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>308</v>
+      </c>
+      <c r="B427" t="s">
+        <v>468</v>
+      </c>
+      <c r="C427" t="s">
+        <v>469</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E427" t="s">
+        <v>13</v>
+      </c>
+      <c r="F427" t="s">
+        <v>472</v>
+      </c>
+      <c r="G427" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H427" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>308</v>
+      </c>
+      <c r="B428" t="s">
+        <v>468</v>
+      </c>
+      <c r="C428" t="s">
+        <v>469</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E428" t="s">
+        <v>21</v>
+      </c>
+      <c r="F428" t="s">
+        <v>473</v>
+      </c>
+      <c r="G428" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H428" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>308</v>
+      </c>
+      <c r="B429" t="s">
+        <v>468</v>
+      </c>
+      <c r="C429" t="s">
+        <v>469</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E429" t="s">
+        <v>27</v>
+      </c>
+      <c r="F429" t="s">
+        <v>444</v>
+      </c>
+      <c r="G429" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H429" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>308</v>
+      </c>
+      <c r="B430" t="s">
+        <v>468</v>
+      </c>
+      <c r="C430" t="s">
+        <v>469</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E430" t="s">
+        <v>35</v>
+      </c>
+      <c r="F430" t="s">
+        <v>454</v>
+      </c>
+      <c r="G430" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H430" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>308</v>
+      </c>
+      <c r="B431" t="s">
+        <v>468</v>
+      </c>
+      <c r="C431" t="s">
+        <v>469</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E431" t="s">
+        <v>33</v>
+      </c>
+      <c r="F431" t="s">
+        <v>474</v>
+      </c>
+      <c r="G431" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H431" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>308</v>
+      </c>
+      <c r="B432" t="s">
+        <v>468</v>
+      </c>
+      <c r="C432" t="s">
+        <v>469</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E432" t="s">
+        <v>29</v>
+      </c>
+      <c r="F432" t="s">
+        <v>309</v>
+      </c>
+      <c r="G432" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H432" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>308</v>
+      </c>
+      <c r="B433" t="s">
+        <v>468</v>
+      </c>
+      <c r="C433" t="s">
+        <v>469</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E433" t="s">
+        <v>239</v>
+      </c>
+      <c r="F433" t="s">
+        <v>475</v>
+      </c>
+      <c r="G433" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H433" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>308</v>
+      </c>
+      <c r="B434" t="s">
+        <v>468</v>
+      </c>
+      <c r="C434" t="s">
+        <v>469</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E434" t="s">
+        <v>23</v>
+      </c>
+      <c r="F434" t="s">
+        <v>476</v>
+      </c>
+      <c r="G434" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H434" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>308</v>
+      </c>
+      <c r="B435" t="s">
+        <v>468</v>
+      </c>
+      <c r="C435" t="s">
+        <v>469</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E435" t="s">
+        <v>124</v>
+      </c>
+      <c r="F435" t="s">
+        <v>477</v>
+      </c>
+      <c r="G435" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H435" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>308</v>
+      </c>
+      <c r="B436" t="s">
+        <v>468</v>
+      </c>
+      <c r="C436" t="s">
+        <v>469</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E436" t="s">
+        <v>44</v>
+      </c>
+      <c r="F436" t="s">
+        <v>379</v>
+      </c>
+      <c r="G436" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H436" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>308</v>
+      </c>
+      <c r="B437" t="s">
+        <v>468</v>
+      </c>
+      <c r="C437" t="s">
+        <v>469</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E437" t="s">
+        <v>31</v>
+      </c>
+      <c r="F437" t="s">
+        <v>317</v>
+      </c>
+      <c r="G437" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H437" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>308</v>
+      </c>
+      <c r="B438" t="s">
+        <v>11</v>
+      </c>
+      <c r="C438" t="s">
+        <v>478</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E438" t="s">
+        <v>13</v>
+      </c>
+      <c r="F438" t="s">
+        <v>480</v>
+      </c>
+      <c r="G438" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H438" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>308</v>
+      </c>
+      <c r="B439" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439" t="s">
+        <v>478</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E439" t="s">
+        <v>21</v>
+      </c>
+      <c r="F439" t="s">
+        <v>481</v>
+      </c>
+      <c r="G439" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H439" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>308</v>
+      </c>
+      <c r="B440" t="s">
+        <v>11</v>
+      </c>
+      <c r="C440" t="s">
+        <v>478</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E440" t="s">
+        <v>33</v>
+      </c>
+      <c r="F440" t="s">
+        <v>482</v>
+      </c>
+      <c r="G440" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H440" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>308</v>
+      </c>
+      <c r="B441" t="s">
+        <v>11</v>
+      </c>
+      <c r="C441" t="s">
+        <v>478</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E441" t="s">
+        <v>27</v>
+      </c>
+      <c r="F441" t="s">
+        <v>483</v>
+      </c>
+      <c r="G441" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H441" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>308</v>
+      </c>
+      <c r="B442" t="s">
+        <v>11</v>
+      </c>
+      <c r="C442" t="s">
+        <v>478</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E442" t="s">
+        <v>25</v>
+      </c>
+      <c r="F442" t="s">
+        <v>484</v>
+      </c>
+      <c r="G442" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H442" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>308</v>
+      </c>
+      <c r="B443" t="s">
+        <v>11</v>
+      </c>
+      <c r="C443" t="s">
+        <v>478</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E443" t="s">
+        <v>120</v>
+      </c>
+      <c r="F443" t="s">
+        <v>485</v>
+      </c>
+      <c r="G443" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H443" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>308</v>
+      </c>
+      <c r="B444" t="s">
+        <v>11</v>
+      </c>
+      <c r="C444" t="s">
+        <v>478</v>
+      </c>
+      <c r="D444" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E444" t="s">
+        <v>35</v>
+      </c>
+      <c r="F444" t="s">
+        <v>486</v>
+      </c>
+      <c r="G444" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H444" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>308</v>
+      </c>
+      <c r="B445" t="s">
+        <v>11</v>
+      </c>
+      <c r="C445" t="s">
+        <v>478</v>
+      </c>
+      <c r="D445" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E445" t="s">
+        <v>90</v>
+      </c>
+      <c r="F445" t="s">
+        <v>359</v>
+      </c>
+      <c r="G445" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H445" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>308</v>
+      </c>
+      <c r="B446" t="s">
+        <v>11</v>
+      </c>
+      <c r="C446" t="s">
+        <v>478</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E446" t="s">
+        <v>31</v>
+      </c>
+      <c r="F446" t="s">
+        <v>317</v>
+      </c>
+      <c r="G446" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H446" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>308</v>
+      </c>
+      <c r="B447" t="s">
+        <v>11</v>
+      </c>
+      <c r="C447" t="s">
+        <v>478</v>
+      </c>
+      <c r="D447" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E447" t="s">
+        <v>40</v>
+      </c>
+      <c r="F447" t="s">
+        <v>337</v>
+      </c>
+      <c r="G447" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H447" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>308</v>
+      </c>
+      <c r="B448" t="s">
+        <v>11</v>
+      </c>
+      <c r="C448" t="s">
+        <v>478</v>
+      </c>
+      <c r="D448" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E448" t="s">
+        <v>16</v>
+      </c>
+      <c r="F448" t="s">
+        <v>360</v>
+      </c>
+      <c r="G448" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H448" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>308</v>
+      </c>
+      <c r="B449" t="s">
+        <v>11</v>
+      </c>
+      <c r="C449" t="s">
+        <v>478</v>
+      </c>
+      <c r="D449" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E449" t="s">
+        <v>44</v>
+      </c>
+      <c r="F449" t="s">
+        <v>419</v>
+      </c>
+      <c r="G449" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H449" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>308</v>
+      </c>
+      <c r="B450" t="s">
+        <v>11</v>
+      </c>
+      <c r="C450" t="s">
+        <v>478</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E450" t="s">
+        <v>382</v>
+      </c>
+      <c r="F450" t="s">
+        <v>487</v>
+      </c>
+      <c r="G450" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H450" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>308</v>
+      </c>
+      <c r="B451" t="s">
+        <v>11</v>
+      </c>
+      <c r="C451" t="s">
+        <v>478</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="E451" t="s">
+        <v>23</v>
+      </c>
+      <c r="F451" t="s">
+        <v>488</v>
+      </c>
+      <c r="G451" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H451" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>308</v>
+      </c>
+      <c r="B452" t="s">
+        <v>429</v>
+      </c>
+      <c r="C452" t="s">
+        <v>489</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E452" t="s">
+        <v>29</v>
+      </c>
+      <c r="F452" t="s">
+        <v>357</v>
+      </c>
+      <c r="G452" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H452" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>308</v>
+      </c>
+      <c r="B453" t="s">
+        <v>429</v>
+      </c>
+      <c r="C453" t="s">
+        <v>489</v>
+      </c>
+      <c r="D453" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E453" t="s">
+        <v>84</v>
+      </c>
+      <c r="F453" t="s">
+        <v>435</v>
+      </c>
+      <c r="G453" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H453" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>308</v>
+      </c>
+      <c r="B454" t="s">
+        <v>429</v>
+      </c>
+      <c r="C454" t="s">
+        <v>489</v>
+      </c>
+      <c r="D454" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E454" t="s">
+        <v>13</v>
+      </c>
+      <c r="F454" t="s">
+        <v>491</v>
+      </c>
+      <c r="G454" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H454" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>308</v>
+      </c>
+      <c r="B455" t="s">
+        <v>429</v>
+      </c>
+      <c r="C455" t="s">
+        <v>489</v>
+      </c>
+      <c r="D455" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E455" t="s">
+        <v>27</v>
+      </c>
+      <c r="F455" t="s">
+        <v>492</v>
+      </c>
+      <c r="G455" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H455" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>308</v>
+      </c>
+      <c r="B456" t="s">
+        <v>429</v>
+      </c>
+      <c r="C456" t="s">
+        <v>489</v>
+      </c>
+      <c r="D456" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E456" t="s">
+        <v>44</v>
+      </c>
+      <c r="F456" t="s">
+        <v>355</v>
+      </c>
+      <c r="G456" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H456" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>308</v>
+      </c>
+      <c r="B457" t="s">
+        <v>429</v>
+      </c>
+      <c r="C457" t="s">
+        <v>489</v>
+      </c>
+      <c r="D457" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E457" t="s">
+        <v>33</v>
+      </c>
+      <c r="F457" t="s">
+        <v>493</v>
+      </c>
+      <c r="G457" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H457" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>308</v>
+      </c>
+      <c r="B458" t="s">
+        <v>429</v>
+      </c>
+      <c r="C458" t="s">
+        <v>489</v>
+      </c>
+      <c r="D458" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E458" t="s">
+        <v>56</v>
+      </c>
+      <c r="F458" t="s">
+        <v>356</v>
+      </c>
+      <c r="G458" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H458" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>308</v>
+      </c>
+      <c r="B459" t="s">
+        <v>429</v>
+      </c>
+      <c r="C459" t="s">
+        <v>489</v>
+      </c>
+      <c r="D459" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E459" t="s">
+        <v>61</v>
+      </c>
+      <c r="F459" t="s">
+        <v>494</v>
+      </c>
+      <c r="G459" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H459" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>308</v>
+      </c>
+      <c r="B460" t="s">
+        <v>429</v>
+      </c>
+      <c r="C460" t="s">
+        <v>489</v>
+      </c>
+      <c r="D460" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E460" t="s">
+        <v>227</v>
+      </c>
+      <c r="F460" t="s">
+        <v>317</v>
+      </c>
+      <c r="G460" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H460" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>308</v>
+      </c>
+      <c r="B461" t="s">
+        <v>429</v>
+      </c>
+      <c r="C461" t="s">
+        <v>489</v>
+      </c>
+      <c r="D461" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E461" t="s">
+        <v>99</v>
+      </c>
+      <c r="F461" t="s">
+        <v>495</v>
+      </c>
+      <c r="G461" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H461" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>308</v>
+      </c>
+      <c r="B462" t="s">
+        <v>429</v>
+      </c>
+      <c r="C462" t="s">
+        <v>489</v>
+      </c>
+      <c r="D462" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E462" t="s">
+        <v>253</v>
+      </c>
+      <c r="F462" t="s">
+        <v>394</v>
+      </c>
+      <c r="G462" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H462" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>308</v>
+      </c>
+      <c r="B463" t="s">
+        <v>429</v>
+      </c>
+      <c r="C463" t="s">
+        <v>496</v>
+      </c>
+      <c r="D463" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E463" t="s">
+        <v>107</v>
+      </c>
+      <c r="F463" t="s">
+        <v>317</v>
+      </c>
+      <c r="G463" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H463" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>308</v>
+      </c>
+      <c r="B464" t="s">
+        <v>429</v>
+      </c>
+      <c r="C464" t="s">
+        <v>496</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E464" t="s">
+        <v>29</v>
+      </c>
+      <c r="F464" t="s">
+        <v>357</v>
+      </c>
+      <c r="G464" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H464" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>308</v>
+      </c>
+      <c r="B465" t="s">
+        <v>429</v>
+      </c>
+      <c r="C465" t="s">
+        <v>496</v>
+      </c>
+      <c r="D465" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E465" t="s">
+        <v>13</v>
+      </c>
+      <c r="F465" t="s">
+        <v>498</v>
+      </c>
+      <c r="G465" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H465" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>308</v>
+      </c>
+      <c r="B466" t="s">
+        <v>429</v>
+      </c>
+      <c r="C466" t="s">
+        <v>496</v>
+      </c>
+      <c r="D466" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E466" t="s">
+        <v>84</v>
+      </c>
+      <c r="F466" t="s">
+        <v>435</v>
+      </c>
+      <c r="G466" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H466" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>308</v>
+      </c>
+      <c r="B467" t="s">
+        <v>429</v>
+      </c>
+      <c r="C467" t="s">
+        <v>496</v>
+      </c>
+      <c r="D467" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E467" t="s">
+        <v>219</v>
+      </c>
+      <c r="F467" t="s">
+        <v>499</v>
+      </c>
+      <c r="G467" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H467" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>308</v>
+      </c>
+      <c r="B468" t="s">
+        <v>429</v>
+      </c>
+      <c r="C468" t="s">
+        <v>496</v>
+      </c>
+      <c r="D468" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E468" t="s">
+        <v>31</v>
+      </c>
+      <c r="F468" t="s">
+        <v>317</v>
+      </c>
+      <c r="G468" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H468" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>308</v>
+      </c>
+      <c r="B469" t="s">
+        <v>429</v>
+      </c>
+      <c r="C469" t="s">
+        <v>496</v>
+      </c>
+      <c r="D469" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E469" t="s">
+        <v>44</v>
+      </c>
+      <c r="F469" t="s">
+        <v>355</v>
+      </c>
+      <c r="G469" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H469" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>308</v>
+      </c>
+      <c r="B470" t="s">
+        <v>429</v>
+      </c>
+      <c r="C470" t="s">
+        <v>496</v>
+      </c>
+      <c r="D470" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E470" t="s">
+        <v>33</v>
+      </c>
+      <c r="F470" t="s">
+        <v>500</v>
+      </c>
+      <c r="G470" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H470" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>308</v>
+      </c>
+      <c r="B471" t="s">
+        <v>429</v>
+      </c>
+      <c r="C471" t="s">
+        <v>496</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E471" t="s">
+        <v>16</v>
+      </c>
+      <c r="F471" t="s">
+        <v>377</v>
+      </c>
+      <c r="G471" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H471" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>308</v>
+      </c>
+      <c r="B472" t="s">
+        <v>429</v>
+      </c>
+      <c r="C472" t="s">
+        <v>496</v>
+      </c>
+      <c r="D472" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E472" t="s">
+        <v>501</v>
+      </c>
+      <c r="F472" t="s">
+        <v>502</v>
+      </c>
+      <c r="G472" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H472" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>308</v>
+      </c>
+      <c r="B473" t="s">
+        <v>429</v>
+      </c>
+      <c r="C473" t="s">
+        <v>496</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E473" t="s">
+        <v>21</v>
+      </c>
+      <c r="F473" t="s">
+        <v>503</v>
+      </c>
+      <c r="G473" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H473" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>308</v>
+      </c>
+      <c r="B474" t="s">
+        <v>429</v>
+      </c>
+      <c r="C474" t="s">
+        <v>496</v>
+      </c>
+      <c r="D474" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E474" t="s">
+        <v>25</v>
+      </c>
+      <c r="F474" t="s">
+        <v>504</v>
+      </c>
+      <c r="G474" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H474" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>308</v>
+      </c>
+      <c r="B475" t="s">
+        <v>429</v>
+      </c>
+      <c r="C475" t="s">
+        <v>496</v>
+      </c>
+      <c r="D475" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E475" t="s">
+        <v>35</v>
+      </c>
+      <c r="F475" t="s">
+        <v>505</v>
+      </c>
+      <c r="G475" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H475" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>308</v>
+      </c>
+      <c r="B476" t="s">
+        <v>429</v>
+      </c>
+      <c r="C476" t="s">
+        <v>496</v>
+      </c>
+      <c r="D476" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E476" t="s">
+        <v>23</v>
+      </c>
+      <c r="F476" t="s">
+        <v>506</v>
+      </c>
+      <c r="G476" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H476" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>308</v>
+      </c>
+      <c r="B477" t="s">
+        <v>429</v>
+      </c>
+      <c r="C477" t="s">
+        <v>496</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E477" t="s">
+        <v>507</v>
+      </c>
+      <c r="F477" t="s">
+        <v>441</v>
+      </c>
+      <c r="G477" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H477" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>308</v>
+      </c>
+      <c r="B478" t="s">
+        <v>429</v>
+      </c>
+      <c r="C478" t="s">
+        <v>496</v>
+      </c>
+      <c r="D478" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="E478" t="s">
+        <v>105</v>
+      </c>
+      <c r="F478" t="s">
+        <v>508</v>
+      </c>
+      <c r="G478" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H478" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>308</v>
+      </c>
+      <c r="B479" t="s">
+        <v>11</v>
+      </c>
+      <c r="C479" t="s">
+        <v>509</v>
+      </c>
+      <c r="D479" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E479" t="s">
+        <v>13</v>
+      </c>
+      <c r="F479" t="s">
+        <v>511</v>
+      </c>
+      <c r="G479" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H479" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>308</v>
+      </c>
+      <c r="B480" t="s">
+        <v>11</v>
+      </c>
+      <c r="C480" t="s">
+        <v>509</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E480" t="s">
+        <v>21</v>
+      </c>
+      <c r="F480" t="s">
+        <v>512</v>
+      </c>
+      <c r="G480" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H480" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>308</v>
+      </c>
+      <c r="B481" t="s">
+        <v>11</v>
+      </c>
+      <c r="C481" t="s">
+        <v>509</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E481" t="s">
+        <v>23</v>
+      </c>
+      <c r="F481" t="s">
+        <v>513</v>
+      </c>
+      <c r="G481" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H481" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>308</v>
+      </c>
+      <c r="B482" t="s">
+        <v>11</v>
+      </c>
+      <c r="C482" t="s">
+        <v>509</v>
+      </c>
+      <c r="D482" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E482" t="s">
+        <v>27</v>
+      </c>
+      <c r="F482" t="s">
+        <v>514</v>
+      </c>
+      <c r="G482" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H482" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>308</v>
+      </c>
+      <c r="B483" t="s">
+        <v>11</v>
+      </c>
+      <c r="C483" t="s">
+        <v>509</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E483" t="s">
+        <v>33</v>
+      </c>
+      <c r="F483" t="s">
+        <v>515</v>
+      </c>
+      <c r="G483" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H483" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>308</v>
+      </c>
+      <c r="B484" t="s">
+        <v>11</v>
+      </c>
+      <c r="C484" t="s">
+        <v>509</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E484" t="s">
+        <v>40</v>
+      </c>
+      <c r="F484" t="s">
+        <v>337</v>
+      </c>
+      <c r="G484" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H484" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>308</v>
+      </c>
+      <c r="B485" t="s">
+        <v>11</v>
+      </c>
+      <c r="C485" t="s">
+        <v>509</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E485" t="s">
+        <v>120</v>
+      </c>
+      <c r="F485" t="s">
+        <v>417</v>
+      </c>
+      <c r="G485" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H485" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>308</v>
+      </c>
+      <c r="B486" t="s">
+        <v>11</v>
+      </c>
+      <c r="C486" t="s">
+        <v>509</v>
+      </c>
+      <c r="D486" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E486" t="s">
+        <v>84</v>
+      </c>
+      <c r="F486" t="s">
+        <v>516</v>
+      </c>
+      <c r="G486" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H486" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>308</v>
+      </c>
+      <c r="B487" t="s">
+        <v>11</v>
+      </c>
+      <c r="C487" t="s">
+        <v>509</v>
+      </c>
+      <c r="D487" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E487" t="s">
+        <v>56</v>
+      </c>
+      <c r="F487" t="s">
+        <v>381</v>
+      </c>
+      <c r="G487" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H487" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>308</v>
+      </c>
+      <c r="B488" t="s">
+        <v>11</v>
+      </c>
+      <c r="C488" t="s">
+        <v>509</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E488" t="s">
+        <v>99</v>
+      </c>
+      <c r="F488" t="s">
+        <v>517</v>
+      </c>
+      <c r="G488" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H488" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>308</v>
+      </c>
+      <c r="B489" t="s">
+        <v>11</v>
+      </c>
+      <c r="C489" t="s">
+        <v>509</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E489" t="s">
+        <v>31</v>
+      </c>
+      <c r="F489" t="s">
+        <v>317</v>
+      </c>
+      <c r="G489" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H489" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>308</v>
+      </c>
+      <c r="B490" t="s">
+        <v>11</v>
+      </c>
+      <c r="C490" t="s">
+        <v>509</v>
+      </c>
+      <c r="D490" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E490" t="s">
+        <v>44</v>
+      </c>
+      <c r="F490" t="s">
+        <v>419</v>
+      </c>
+      <c r="G490" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H490" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>308</v>
+      </c>
+      <c r="B491" t="s">
+        <v>11</v>
+      </c>
+      <c r="C491" t="s">
+        <v>509</v>
+      </c>
+      <c r="D491" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E491" t="s">
+        <v>88</v>
+      </c>
+      <c r="F491" t="s">
+        <v>518</v>
+      </c>
+      <c r="G491" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H491" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>308</v>
+      </c>
+      <c r="B492" t="s">
+        <v>11</v>
+      </c>
+      <c r="C492" t="s">
+        <v>509</v>
+      </c>
+      <c r="D492" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E492" t="s">
+        <v>519</v>
+      </c>
+      <c r="F492" t="s">
+        <v>520</v>
+      </c>
+      <c r="G492" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H492" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>308</v>
+      </c>
+      <c r="B493" t="s">
+        <v>348</v>
+      </c>
+      <c r="C493" t="s">
+        <v>521</v>
+      </c>
+      <c r="D493" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E493" t="s">
+        <v>21</v>
+      </c>
+      <c r="F493" t="s">
+        <v>424</v>
+      </c>
+      <c r="G493" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H493" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>308</v>
+      </c>
+      <c r="B494" t="s">
+        <v>348</v>
+      </c>
+      <c r="C494" t="s">
+        <v>521</v>
+      </c>
+      <c r="D494" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E494" t="s">
+        <v>84</v>
+      </c>
+      <c r="F494" t="s">
+        <v>358</v>
+      </c>
+      <c r="G494" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H494" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>308</v>
+      </c>
+      <c r="B495" t="s">
+        <v>348</v>
+      </c>
+      <c r="C495" t="s">
+        <v>521</v>
+      </c>
+      <c r="D495" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E495" t="s">
+        <v>27</v>
+      </c>
+      <c r="F495" t="s">
+        <v>523</v>
+      </c>
+      <c r="G495" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H495" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>308</v>
+      </c>
+      <c r="B496" t="s">
+        <v>348</v>
+      </c>
+      <c r="C496" t="s">
+        <v>521</v>
+      </c>
+      <c r="D496" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E496" t="s">
+        <v>120</v>
+      </c>
+      <c r="F496" t="s">
+        <v>334</v>
+      </c>
+      <c r="G496" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H496" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>308</v>
+      </c>
+      <c r="B497" t="s">
+        <v>348</v>
+      </c>
+      <c r="C497" t="s">
+        <v>521</v>
+      </c>
+      <c r="D497" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E497" t="s">
+        <v>33</v>
+      </c>
+      <c r="F497" t="s">
+        <v>524</v>
+      </c>
+      <c r="G497" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H497" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>308</v>
+      </c>
+      <c r="B498" t="s">
+        <v>348</v>
+      </c>
+      <c r="C498" t="s">
+        <v>521</v>
+      </c>
+      <c r="D498" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E498" t="s">
+        <v>44</v>
+      </c>
+      <c r="F498" t="s">
+        <v>355</v>
+      </c>
+      <c r="G498" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H498" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>308</v>
+      </c>
+      <c r="B499" t="s">
+        <v>348</v>
+      </c>
+      <c r="C499" t="s">
+        <v>521</v>
+      </c>
+      <c r="D499" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E499" t="s">
+        <v>31</v>
+      </c>
+      <c r="F499" t="s">
+        <v>317</v>
+      </c>
+      <c r="G499" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H499" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>308</v>
+      </c>
+      <c r="B500" t="s">
+        <v>348</v>
+      </c>
+      <c r="C500" t="s">
+        <v>521</v>
+      </c>
+      <c r="D500" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E500" t="s">
+        <v>23</v>
+      </c>
+      <c r="F500" t="s">
+        <v>525</v>
+      </c>
+      <c r="G500" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H500" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>308</v>
+      </c>
+      <c r="B501" t="s">
+        <v>348</v>
+      </c>
+      <c r="C501" t="s">
+        <v>521</v>
+      </c>
+      <c r="D501" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E501" t="s">
+        <v>61</v>
+      </c>
+      <c r="F501" t="s">
+        <v>526</v>
+      </c>
+      <c r="G501" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H501" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>308</v>
+      </c>
+      <c r="B502" t="s">
+        <v>348</v>
+      </c>
+      <c r="C502" t="s">
+        <v>521</v>
+      </c>
+      <c r="D502" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E502" t="s">
+        <v>253</v>
+      </c>
+      <c r="F502" t="s">
+        <v>394</v>
+      </c>
+      <c r="G502" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H502" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>308</v>
+      </c>
+      <c r="B503" t="s">
+        <v>527</v>
+      </c>
+      <c r="C503" t="s">
+        <v>528</v>
+      </c>
+      <c r="D503" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E503" t="s">
+        <v>29</v>
+      </c>
+      <c r="F503" t="s">
+        <v>357</v>
+      </c>
+      <c r="G503" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H503" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>308</v>
+      </c>
+      <c r="B504" t="s">
+        <v>527</v>
+      </c>
+      <c r="C504" t="s">
+        <v>528</v>
+      </c>
+      <c r="D504" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E504" t="s">
+        <v>31</v>
+      </c>
+      <c r="F504" t="s">
+        <v>317</v>
+      </c>
+      <c r="G504" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H504" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>308</v>
+      </c>
+      <c r="B505" t="s">
+        <v>527</v>
+      </c>
+      <c r="C505" t="s">
+        <v>528</v>
+      </c>
+      <c r="D505" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E505" t="s">
+        <v>88</v>
+      </c>
+      <c r="F505" t="s">
+        <v>530</v>
+      </c>
+      <c r="G505" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H505" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>308</v>
+      </c>
+      <c r="B506" t="s">
+        <v>527</v>
+      </c>
+      <c r="C506" t="s">
+        <v>528</v>
+      </c>
+      <c r="D506" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E506" t="s">
+        <v>21</v>
+      </c>
+      <c r="F506" t="s">
+        <v>531</v>
+      </c>
+      <c r="G506" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H506" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>308</v>
+      </c>
+      <c r="B507" t="s">
+        <v>527</v>
+      </c>
+      <c r="C507" t="s">
+        <v>528</v>
+      </c>
+      <c r="D507" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E507" t="s">
+        <v>23</v>
+      </c>
+      <c r="F507" t="s">
+        <v>532</v>
+      </c>
+      <c r="G507" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H507" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>308</v>
+      </c>
+      <c r="B508" t="s">
+        <v>527</v>
+      </c>
+      <c r="C508" t="s">
+        <v>528</v>
+      </c>
+      <c r="D508" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E508" t="s">
+        <v>27</v>
+      </c>
+      <c r="F508" t="s">
+        <v>533</v>
+      </c>
+      <c r="G508" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H508" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>308</v>
+      </c>
+      <c r="B509" t="s">
+        <v>527</v>
+      </c>
+      <c r="C509" t="s">
+        <v>528</v>
+      </c>
+      <c r="D509" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E509" t="s">
+        <v>56</v>
+      </c>
+      <c r="F509" t="s">
+        <v>400</v>
+      </c>
+      <c r="G509" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H509" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>308</v>
+      </c>
+      <c r="B510" t="s">
+        <v>527</v>
+      </c>
+      <c r="C510" t="s">
+        <v>528</v>
+      </c>
+      <c r="D510" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E510" t="s">
+        <v>253</v>
+      </c>
+      <c r="F510" t="s">
+        <v>363</v>
+      </c>
+      <c r="G510" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H510" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>308</v>
+      </c>
+      <c r="B511" t="s">
+        <v>527</v>
+      </c>
+      <c r="C511" t="s">
+        <v>528</v>
+      </c>
+      <c r="D511" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E511" t="s">
+        <v>35</v>
+      </c>
+      <c r="F511" t="s">
+        <v>534</v>
+      </c>
+      <c r="G511" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H511" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>308</v>
+      </c>
+      <c r="B512" t="s">
+        <v>527</v>
+      </c>
+      <c r="C512" t="s">
+        <v>528</v>
+      </c>
+      <c r="D512" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E512" t="s">
+        <v>440</v>
+      </c>
+      <c r="F512" t="s">
+        <v>535</v>
+      </c>
+      <c r="G512" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H512" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>308</v>
+      </c>
+      <c r="B513" t="s">
+        <v>527</v>
+      </c>
+      <c r="C513" t="s">
+        <v>528</v>
+      </c>
+      <c r="D513" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E513" t="s">
+        <v>536</v>
+      </c>
+      <c r="F513" t="s">
+        <v>516</v>
+      </c>
+      <c r="G513" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H513" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>308</v>
+      </c>
+      <c r="B514" t="s">
+        <v>527</v>
+      </c>
+      <c r="C514" t="s">
+        <v>528</v>
+      </c>
+      <c r="D514" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E514" t="s">
+        <v>33</v>
+      </c>
+      <c r="F514" t="s">
+        <v>537</v>
+      </c>
+      <c r="G514" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H514" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>308</v>
+      </c>
+      <c r="B515" t="s">
+        <v>527</v>
+      </c>
+      <c r="C515" t="s">
+        <v>528</v>
+      </c>
+      <c r="D515" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E515" t="s">
+        <v>13</v>
+      </c>
+      <c r="F515" t="s">
+        <v>538</v>
+      </c>
+      <c r="G515" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H515" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>308</v>
+      </c>
+      <c r="B516" t="s">
+        <v>527</v>
+      </c>
+      <c r="C516" t="s">
+        <v>528</v>
+      </c>
+      <c r="D516" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E516" t="s">
+        <v>237</v>
+      </c>
+      <c r="F516" t="s">
+        <v>539</v>
+      </c>
+      <c r="G516" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H516" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>308</v>
+      </c>
+      <c r="B517" t="s">
+        <v>527</v>
+      </c>
+      <c r="C517" t="s">
+        <v>528</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E517" t="s">
+        <v>38</v>
+      </c>
+      <c r="F517" t="s">
+        <v>540</v>
+      </c>
+      <c r="G517" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H517" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>308</v>
+      </c>
+      <c r="B518" t="s">
+        <v>527</v>
+      </c>
+      <c r="C518" t="s">
+        <v>528</v>
+      </c>
+      <c r="D518" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E518" t="s">
+        <v>102</v>
+      </c>
+      <c r="F518" t="s">
+        <v>541</v>
+      </c>
+      <c r="G518" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H518" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>308</v>
+      </c>
+      <c r="B519" t="s">
+        <v>527</v>
+      </c>
+      <c r="C519" t="s">
+        <v>528</v>
+      </c>
+      <c r="D519" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E519" t="s">
+        <v>40</v>
+      </c>
+      <c r="F519" t="s">
+        <v>444</v>
+      </c>
+      <c r="G519" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H519" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>308</v>
+      </c>
+      <c r="B520" t="s">
+        <v>527</v>
+      </c>
+      <c r="C520" t="s">
+        <v>528</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E520" t="s">
+        <v>285</v>
+      </c>
+      <c r="F520" t="s">
+        <v>542</v>
+      </c>
+      <c r="G520" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H520" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>308</v>
+      </c>
+      <c r="B521" t="s">
+        <v>527</v>
+      </c>
+      <c r="C521" t="s">
+        <v>528</v>
+      </c>
+      <c r="D521" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E521" t="s">
+        <v>61</v>
+      </c>
+      <c r="F521" t="s">
+        <v>543</v>
+      </c>
+      <c r="G521" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H521" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>308</v>
+      </c>
+      <c r="B522" t="s">
+        <v>527</v>
+      </c>
+      <c r="C522" t="s">
+        <v>528</v>
+      </c>
+      <c r="D522" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E522" t="s">
+        <v>103</v>
+      </c>
+      <c r="G522" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H522" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>308</v>
+      </c>
+      <c r="B523" t="s">
+        <v>544</v>
+      </c>
+      <c r="C523" t="s">
+        <v>545</v>
+      </c>
+      <c r="D523" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E523" t="s">
+        <v>29</v>
+      </c>
+      <c r="F523" t="s">
+        <v>357</v>
+      </c>
+      <c r="G523" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H523" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>308</v>
+      </c>
+      <c r="B524" t="s">
+        <v>544</v>
+      </c>
+      <c r="C524" t="s">
+        <v>545</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E524" t="s">
+        <v>84</v>
+      </c>
+      <c r="G524" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H524" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>308</v>
+      </c>
+      <c r="B525" t="s">
+        <v>544</v>
+      </c>
+      <c r="C525" t="s">
+        <v>545</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E525" t="s">
+        <v>13</v>
+      </c>
+      <c r="F525" t="s">
+        <v>547</v>
+      </c>
+      <c r="G525" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H525" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>308</v>
+      </c>
+      <c r="B526" t="s">
+        <v>544</v>
+      </c>
+      <c r="C526" t="s">
+        <v>545</v>
+      </c>
+      <c r="D526" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E526" t="s">
+        <v>44</v>
+      </c>
+      <c r="F526" t="s">
+        <v>355</v>
+      </c>
+      <c r="G526" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H526" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>308</v>
+      </c>
+      <c r="B527" t="s">
+        <v>544</v>
+      </c>
+      <c r="C527" t="s">
+        <v>545</v>
+      </c>
+      <c r="D527" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E527" t="s">
+        <v>107</v>
+      </c>
+      <c r="F527" t="s">
+        <v>317</v>
+      </c>
+      <c r="G527" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H527" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>308</v>
+      </c>
+      <c r="B528" t="s">
+        <v>544</v>
+      </c>
+      <c r="C528" t="s">
+        <v>545</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E528" t="s">
+        <v>23</v>
+      </c>
+      <c r="F528" t="s">
+        <v>548</v>
+      </c>
+      <c r="G528" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H528" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>308</v>
+      </c>
+      <c r="B529" t="s">
+        <v>544</v>
+      </c>
+      <c r="C529" t="s">
+        <v>545</v>
+      </c>
+      <c r="D529" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E529" t="s">
+        <v>56</v>
+      </c>
+      <c r="F529" t="s">
+        <v>356</v>
+      </c>
+      <c r="G529" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H529" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>308</v>
+      </c>
+      <c r="B530" t="s">
+        <v>544</v>
+      </c>
+      <c r="C530" t="s">
+        <v>545</v>
+      </c>
+      <c r="D530" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E530" t="s">
+        <v>27</v>
+      </c>
+      <c r="F530" t="s">
+        <v>549</v>
+      </c>
+      <c r="G530" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H530" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>308</v>
+      </c>
+      <c r="B531" t="s">
+        <v>544</v>
+      </c>
+      <c r="C531" t="s">
+        <v>545</v>
+      </c>
+      <c r="D531" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E531" t="s">
+        <v>33</v>
+      </c>
+      <c r="F531" t="s">
+        <v>402</v>
+      </c>
+      <c r="G531" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H531" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>308</v>
+      </c>
+      <c r="B532" t="s">
+        <v>544</v>
+      </c>
+      <c r="C532" t="s">
+        <v>545</v>
+      </c>
+      <c r="D532" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E532" t="s">
+        <v>35</v>
+      </c>
+      <c r="F532" t="s">
+        <v>550</v>
+      </c>
+      <c r="G532" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H532" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>308</v>
+      </c>
+      <c r="B533" t="s">
+        <v>544</v>
+      </c>
+      <c r="C533" t="s">
+        <v>545</v>
+      </c>
+      <c r="D533" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E533" t="s">
+        <v>42</v>
+      </c>
+      <c r="F533" t="s">
+        <v>551</v>
+      </c>
+      <c r="G533" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H533" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>308</v>
+      </c>
+      <c r="B534" t="s">
+        <v>544</v>
+      </c>
+      <c r="C534" t="s">
+        <v>545</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E534" t="s">
+        <v>90</v>
+      </c>
+      <c r="F534" t="s">
+        <v>359</v>
+      </c>
+      <c r="G534" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H534" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>308</v>
+      </c>
+      <c r="B535" t="s">
+        <v>544</v>
+      </c>
+      <c r="C535" t="s">
+        <v>545</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E535" t="s">
+        <v>92</v>
+      </c>
+      <c r="F535" t="s">
+        <v>332</v>
+      </c>
+      <c r="G535" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H535" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>308</v>
+      </c>
+      <c r="B536" t="s">
+        <v>544</v>
+      </c>
+      <c r="C536" t="s">
+        <v>545</v>
+      </c>
+      <c r="D536" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E536" t="s">
+        <v>21</v>
+      </c>
+      <c r="F536" t="s">
+        <v>552</v>
+      </c>
+      <c r="G536" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H536" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>308</v>
+      </c>
+      <c r="B537" t="s">
+        <v>544</v>
+      </c>
+      <c r="C537" t="s">
+        <v>545</v>
+      </c>
+      <c r="D537" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E537" t="s">
+        <v>139</v>
+      </c>
+      <c r="F537" t="s">
+        <v>553</v>
+      </c>
+      <c r="G537" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H537" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>308</v>
+      </c>
+      <c r="B538" t="s">
+        <v>544</v>
+      </c>
+      <c r="C538" t="s">
+        <v>545</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E538" t="s">
+        <v>61</v>
+      </c>
+      <c r="F538" t="s">
+        <v>554</v>
+      </c>
+      <c r="G538" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H538" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>308</v>
+      </c>
+      <c r="B539" t="s">
+        <v>544</v>
+      </c>
+      <c r="C539" t="s">
+        <v>545</v>
+      </c>
+      <c r="D539" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E539" t="s">
+        <v>25</v>
+      </c>
+      <c r="F539" t="s">
+        <v>555</v>
+      </c>
+      <c r="G539" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H539" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>308</v>
+      </c>
+      <c r="B540" t="s">
+        <v>544</v>
+      </c>
+      <c r="C540" t="s">
+        <v>545</v>
+      </c>
+      <c r="D540" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E540" t="s">
+        <v>507</v>
+      </c>
+      <c r="F540" t="s">
+        <v>556</v>
+      </c>
+      <c r="G540" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H540" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>308</v>
+      </c>
+      <c r="B541" t="s">
+        <v>544</v>
+      </c>
+      <c r="C541" t="s">
+        <v>545</v>
+      </c>
+      <c r="D541" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="E541" t="s">
+        <v>234</v>
+      </c>
+      <c r="F541" t="s">
+        <v>557</v>
+      </c>
+      <c r="G541" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H541" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>308</v>
+      </c>
+      <c r="B542" t="s">
+        <v>206</v>
+      </c>
+      <c r="C542" t="s">
+        <v>558</v>
+      </c>
+      <c r="D542" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E542" t="s">
+        <v>29</v>
+      </c>
+      <c r="F542" t="s">
+        <v>30</v>
+      </c>
+      <c r="G542" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H542" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>308</v>
+      </c>
+      <c r="B543" t="s">
+        <v>206</v>
+      </c>
+      <c r="C543" t="s">
+        <v>558</v>
+      </c>
+      <c r="D543" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E543" t="s">
+        <v>84</v>
+      </c>
+      <c r="F543" t="s">
+        <v>128</v>
+      </c>
+      <c r="G543" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H543" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>308</v>
+      </c>
+      <c r="B544" t="s">
+        <v>206</v>
+      </c>
+      <c r="C544" t="s">
+        <v>558</v>
+      </c>
+      <c r="D544" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E544" t="s">
+        <v>13</v>
+      </c>
+      <c r="F544" t="s">
+        <v>560</v>
+      </c>
+      <c r="G544" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H544" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>308</v>
+      </c>
+      <c r="B545" t="s">
+        <v>206</v>
+      </c>
+      <c r="C545" t="s">
+        <v>558</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E545" t="s">
+        <v>21</v>
+      </c>
+      <c r="F545" t="s">
+        <v>561</v>
+      </c>
+      <c r="G545" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H545" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>308</v>
+      </c>
+      <c r="B546" t="s">
+        <v>206</v>
+      </c>
+      <c r="C546" t="s">
+        <v>558</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E546" t="s">
+        <v>25</v>
+      </c>
+      <c r="F546" t="s">
+        <v>562</v>
+      </c>
+      <c r="G546" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H546" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>308</v>
+      </c>
+      <c r="B547" t="s">
+        <v>206</v>
+      </c>
+      <c r="C547" t="s">
+        <v>558</v>
+      </c>
+      <c r="D547" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E547" t="s">
+        <v>44</v>
+      </c>
+      <c r="F547" t="s">
+        <v>126</v>
+      </c>
+      <c r="G547" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H547" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>308</v>
+      </c>
+      <c r="B548" t="s">
+        <v>206</v>
+      </c>
+      <c r="C548" t="s">
+        <v>558</v>
+      </c>
+      <c r="D548" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E548" t="s">
+        <v>31</v>
+      </c>
+      <c r="F548" t="s">
+        <v>32</v>
+      </c>
+      <c r="G548" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H548" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>308</v>
+      </c>
+      <c r="B549" t="s">
+        <v>206</v>
+      </c>
+      <c r="C549" t="s">
+        <v>558</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E549" t="s">
+        <v>33</v>
+      </c>
+      <c r="F549" t="s">
+        <v>210</v>
+      </c>
+      <c r="G549" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H549" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>308</v>
+      </c>
+      <c r="B550" t="s">
+        <v>206</v>
+      </c>
+      <c r="C550" t="s">
+        <v>558</v>
+      </c>
+      <c r="D550" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E550" t="s">
+        <v>23</v>
+      </c>
+      <c r="F550" t="s">
+        <v>563</v>
+      </c>
+      <c r="G550" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H550" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>308</v>
+      </c>
+      <c r="B551" t="s">
+        <v>206</v>
+      </c>
+      <c r="C551" t="s">
+        <v>558</v>
+      </c>
+      <c r="D551" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E551" t="s">
+        <v>27</v>
+      </c>
+      <c r="F551" t="s">
+        <v>213</v>
+      </c>
+      <c r="G551" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H551" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>308</v>
+      </c>
+      <c r="B552" t="s">
+        <v>206</v>
+      </c>
+      <c r="C552" t="s">
+        <v>558</v>
+      </c>
+      <c r="D552" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E552" t="s">
+        <v>61</v>
+      </c>
+      <c r="F552" t="s">
+        <v>564</v>
+      </c>
+      <c r="G552" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H552" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>308</v>
+      </c>
+      <c r="B553" t="s">
+        <v>206</v>
+      </c>
+      <c r="C553" t="s">
+        <v>558</v>
+      </c>
+      <c r="D553" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E553" t="s">
+        <v>107</v>
+      </c>
+      <c r="F553" t="s">
+        <v>32</v>
+      </c>
+      <c r="G553" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H553" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>308</v>
+      </c>
+      <c r="B554" t="s">
+        <v>206</v>
+      </c>
+      <c r="C554" t="s">
+        <v>558</v>
+      </c>
+      <c r="D554" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E554" t="s">
+        <v>105</v>
+      </c>
+      <c r="F554" t="s">
+        <v>565</v>
+      </c>
+      <c r="G554" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H554" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>308</v>
+      </c>
+      <c r="B555" t="s">
+        <v>206</v>
+      </c>
+      <c r="C555" t="s">
+        <v>558</v>
+      </c>
+      <c r="D555" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E555" t="s">
+        <v>239</v>
+      </c>
+      <c r="F555" t="s">
+        <v>566</v>
+      </c>
+      <c r="G555" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H555" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>308</v>
+      </c>
+      <c r="B556" t="s">
+        <v>206</v>
+      </c>
+      <c r="C556" t="s">
+        <v>558</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E556" t="s">
+        <v>35</v>
+      </c>
+      <c r="F556" t="s">
+        <v>567</v>
+      </c>
+      <c r="G556" s="1">
+        <v>45944</v>
+      </c>
+      <c r="H556" t="s">
         <v>14</v>
       </c>
     </row>

--- a/data/ResponsablesPorProyecto.xlsx
+++ b/data/ResponsablesPorProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta StreamLit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CB1858-D959-4FBD-A86C-EDB4099AB560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1AF7E0-6E86-4A2D-8787-D0E96E7CC04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="705" windowWidth="29040" windowHeight="15720" xr2:uid="{604496A0-D183-4F1C-9231-CF0B6CEC983F}"/>
   </bookViews>
@@ -2025,7 +2025,7 @@
   <dimension ref="A1:J806"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -2069,7 +2069,7 @@
       <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="9" t="s">
         <v>515</v>
       </c>
     </row>
@@ -13483,7 +13483,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I805" xr:uid="{6159B3B9-18EB-4717-835D-3E6B72934C17}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/ResponsablesPorProyecto.xlsx
+++ b/data/ResponsablesPorProyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bauti\OneDrive\Escritorio\1. EMPLEO\6. Tableros de Consulta StreamLit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C1AF7E0-6E86-4A2D-8787-D0E96E7CC04E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C034C46-71D8-4C66-A9DE-A51CE1D41BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="705" windowWidth="29040" windowHeight="15720" xr2:uid="{604496A0-D183-4F1C-9231-CF0B6CEC983F}"/>
   </bookViews>
